--- a/Result_Regular.xlsx
+++ b/Result_Regular.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="350">
   <si>
     <t>Sl.No</t>
   </si>
@@ -941,6 +941,132 @@
   <si>
     <t>THALLADA AKHIL KUMAR</t>
   </si>
+  <si>
+    <t>2401100CSE0007</t>
+  </si>
+  <si>
+    <t>BANTU NANDINI</t>
+  </si>
+  <si>
+    <t>2401100CSE0035</t>
+  </si>
+  <si>
+    <t>PASUMARTHI VAISHNAVI</t>
+  </si>
+  <si>
+    <t>2401100CSE0055</t>
+  </si>
+  <si>
+    <t>U BHAVANA</t>
+  </si>
+  <si>
+    <t>2401100CSE0056</t>
+  </si>
+  <si>
+    <t>UMMEDA SRINIDHI</t>
+  </si>
+  <si>
+    <t>2401100CSE0104</t>
+  </si>
+  <si>
+    <t>RAGI DHANUSH</t>
+  </si>
+  <si>
+    <t>2401100CSE0128</t>
+  </si>
+  <si>
+    <t>BINGI VAISHNAVI</t>
+  </si>
+  <si>
+    <t>2401100CSE0153</t>
+  </si>
+  <si>
+    <t>MEDAM SAI TEJA</t>
+  </si>
+  <si>
+    <t>2401100CSE0163</t>
+  </si>
+  <si>
+    <t>SABBANI MEGHANA</t>
+  </si>
+  <si>
+    <t>2401100CSE0165</t>
+  </si>
+  <si>
+    <t>SRINITHYA KOVURU</t>
+  </si>
+  <si>
+    <t>2401100CSE0193</t>
+  </si>
+  <si>
+    <t>JINDAM HARSHITHA</t>
+  </si>
+  <si>
+    <t>2401100CSE0209</t>
+  </si>
+  <si>
+    <t>N N K V HANUMAN NARAYANA</t>
+  </si>
+  <si>
+    <t>2401100CSE0239</t>
+  </si>
+  <si>
+    <t>BADDAM MAHENDER REDDY</t>
+  </si>
+  <si>
+    <t>2401100CSE0282</t>
+  </si>
+  <si>
+    <t>THOTAKURA VARSHITH</t>
+  </si>
+  <si>
+    <t>24011CSEAI0005</t>
+  </si>
+  <si>
+    <t>ANIKETH KUCHIBHOTLA</t>
+  </si>
+  <si>
+    <t>24011CSEAI0006</t>
+  </si>
+  <si>
+    <t>ANNEM NAVYA REDDY</t>
+  </si>
+  <si>
+    <t>24011CSEAI0021</t>
+  </si>
+  <si>
+    <t>HARSHITA PANDAB</t>
+  </si>
+  <si>
+    <t>24011CSEAI0043</t>
+  </si>
+  <si>
+    <t>PUDARI SAHITH</t>
+  </si>
+  <si>
+    <t>24011CSEAI0093</t>
+  </si>
+  <si>
+    <t>RAMEEDI MAITHRY</t>
+  </si>
+  <si>
+    <t>24011CSEAI0138</t>
+  </si>
+  <si>
+    <t>MORSU MANIDEEPIKA</t>
+  </si>
+  <si>
+    <t>24011CSEAI0143</t>
+  </si>
+  <si>
+    <t>PALLE PARAMESHWAR REDDY</t>
+  </si>
+  <si>
+    <t>24011CSEAI0153</t>
+  </si>
+  <si>
+    <t>SRI RAMOJU THRISHOOL</t>
+  </si>
 </sst>
 </file>
 
@@ -1230,9 +1356,6 @@
     <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1244,6 +1367,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -10022,7 +10148,9 @@
       </c>
     </row>
     <row r="69" ht="18.0" customHeight="1">
-      <c r="A69" s="37"/>
+      <c r="A69" s="10">
+        <v>67.0</v>
+      </c>
       <c r="B69" s="30" t="s">
         <v>264</v>
       </c>
@@ -10062,7 +10190,7 @@
       <c r="N69" s="32">
         <v>4.0</v>
       </c>
-      <c r="O69" s="38" t="s">
+      <c r="O69" s="37" t="s">
         <v>27</v>
       </c>
       <c r="P69" s="23"/>
@@ -10145,7 +10273,9 @@
       </c>
     </row>
     <row r="70" ht="18.0" customHeight="1">
-      <c r="A70" s="23"/>
+      <c r="A70" s="10">
+        <v>68.0</v>
+      </c>
       <c r="B70" s="30" t="s">
         <v>266</v>
       </c>
@@ -10268,7 +10398,9 @@
       </c>
     </row>
     <row r="71" ht="18.0" customHeight="1">
-      <c r="A71" s="37"/>
+      <c r="A71" s="10">
+        <v>69.0</v>
+      </c>
       <c r="B71" s="30" t="s">
         <v>268</v>
       </c>
@@ -10391,7 +10523,9 @@
       </c>
     </row>
     <row r="72" ht="18.0" customHeight="1">
-      <c r="A72" s="23"/>
+      <c r="A72" s="10">
+        <v>70.0</v>
+      </c>
       <c r="B72" s="30" t="s">
         <v>270</v>
       </c>
@@ -10514,7 +10648,9 @@
       </c>
     </row>
     <row r="73" ht="18.0" customHeight="1">
-      <c r="A73" s="37"/>
+      <c r="A73" s="10">
+        <v>71.0</v>
+      </c>
       <c r="B73" s="30" t="s">
         <v>272</v>
       </c>
@@ -10637,11 +10773,13 @@
       </c>
     </row>
     <row r="74" ht="18.0" customHeight="1">
-      <c r="A74" s="23"/>
+      <c r="A74" s="10">
+        <v>72.0</v>
+      </c>
       <c r="B74" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="38" t="s">
         <v>275</v>
       </c>
       <c r="D74" s="31" t="s">
@@ -10760,11 +10898,13 @@
       </c>
     </row>
     <row r="75" ht="18.0" customHeight="1">
-      <c r="A75" s="37"/>
+      <c r="A75" s="10">
+        <v>73.0</v>
+      </c>
       <c r="B75" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="38" t="s">
         <v>277</v>
       </c>
       <c r="D75" s="31" t="s">
@@ -10883,7 +11023,9 @@
       </c>
     </row>
     <row r="76" ht="18.0" customHeight="1">
-      <c r="A76" s="23"/>
+      <c r="A76" s="10">
+        <v>74.0</v>
+      </c>
       <c r="B76" s="30" t="s">
         <v>278</v>
       </c>
@@ -10930,13 +11072,13 @@
       <c r="Q76" s="24"/>
       <c r="R76" s="24"/>
       <c r="S76" s="23"/>
-      <c r="T76" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="U76" s="41" t="s">
+      <c r="T76" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="U76" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="V76" s="41">
+      <c r="V76" s="40">
         <v>3.0</v>
       </c>
       <c r="W76" s="31" t="s">
@@ -11006,7 +11148,9 @@
       </c>
     </row>
     <row r="77" ht="18.0" customHeight="1">
-      <c r="A77" s="37"/>
+      <c r="A77" s="10">
+        <v>75.0</v>
+      </c>
       <c r="B77" s="30" t="s">
         <v>280</v>
       </c>
@@ -11129,7 +11273,9 @@
       </c>
     </row>
     <row r="78" ht="18.0" customHeight="1">
-      <c r="A78" s="23"/>
+      <c r="A78" s="10">
+        <v>76.0</v>
+      </c>
       <c r="B78" s="30" t="s">
         <v>282</v>
       </c>
@@ -11252,7 +11398,9 @@
       </c>
     </row>
     <row r="79" ht="18.0" customHeight="1">
-      <c r="A79" s="37"/>
+      <c r="A79" s="10">
+        <v>77.0</v>
+      </c>
       <c r="B79" s="30" t="s">
         <v>284</v>
       </c>
@@ -11375,7 +11523,9 @@
       </c>
     </row>
     <row r="80" ht="18.0" customHeight="1">
-      <c r="A80" s="23"/>
+      <c r="A80" s="10">
+        <v>78.0</v>
+      </c>
       <c r="B80" s="30" t="s">
         <v>286</v>
       </c>
@@ -11498,7 +11648,9 @@
       </c>
     </row>
     <row r="81" ht="18.0" customHeight="1">
-      <c r="A81" s="37"/>
+      <c r="A81" s="10">
+        <v>79.0</v>
+      </c>
       <c r="B81" s="30" t="s">
         <v>288</v>
       </c>
@@ -11621,11 +11773,13 @@
       </c>
     </row>
     <row r="82" ht="18.0" customHeight="1">
-      <c r="A82" s="23"/>
+      <c r="A82" s="10">
+        <v>80.0</v>
+      </c>
       <c r="B82" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="38" t="s">
         <v>291</v>
       </c>
       <c r="D82" s="31" t="s">
@@ -11744,7 +11898,9 @@
       </c>
     </row>
     <row r="83" ht="18.0" customHeight="1">
-      <c r="A83" s="37"/>
+      <c r="A83" s="10">
+        <v>81.0</v>
+      </c>
       <c r="B83" s="30" t="s">
         <v>292</v>
       </c>
@@ -11867,7 +12023,9 @@
       </c>
     </row>
     <row r="84" ht="18.0" customHeight="1">
-      <c r="A84" s="23"/>
+      <c r="A84" s="10">
+        <v>82.0</v>
+      </c>
       <c r="B84" s="30" t="s">
         <v>294</v>
       </c>
@@ -11990,7 +12148,9 @@
       </c>
     </row>
     <row r="85" ht="18.0" customHeight="1">
-      <c r="A85" s="37"/>
+      <c r="A85" s="10">
+        <v>83.0</v>
+      </c>
       <c r="B85" s="30" t="s">
         <v>296</v>
       </c>
@@ -12113,7 +12273,9 @@
       </c>
     </row>
     <row r="86" ht="18.0" customHeight="1">
-      <c r="A86" s="23"/>
+      <c r="A86" s="10">
+        <v>84.0</v>
+      </c>
       <c r="B86" s="30" t="s">
         <v>298</v>
       </c>
@@ -12236,7 +12398,9 @@
       </c>
     </row>
     <row r="87" ht="18.0" customHeight="1">
-      <c r="A87" s="37"/>
+      <c r="A87" s="10">
+        <v>85.0</v>
+      </c>
       <c r="B87" s="30" t="s">
         <v>300</v>
       </c>
@@ -12359,7 +12523,9 @@
       </c>
     </row>
     <row r="88" ht="18.0" customHeight="1">
-      <c r="A88" s="23"/>
+      <c r="A88" s="10">
+        <v>86.0</v>
+      </c>
       <c r="B88" s="30" t="s">
         <v>302</v>
       </c>
@@ -12482,7 +12648,9 @@
       </c>
     </row>
     <row r="89" ht="18.0" customHeight="1">
-      <c r="A89" s="37"/>
+      <c r="A89" s="10">
+        <v>87.0</v>
+      </c>
       <c r="B89" s="30" t="s">
         <v>304</v>
       </c>
@@ -12605,11 +12773,13 @@
       </c>
     </row>
     <row r="90" ht="18.0" customHeight="1">
-      <c r="A90" s="23"/>
+      <c r="A90" s="10">
+        <v>88.0</v>
+      </c>
       <c r="B90" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="C90" s="39" t="s">
+      <c r="C90" s="38" t="s">
         <v>307</v>
       </c>
       <c r="D90" s="31" t="s">
@@ -12728,1075 +12898,2585 @@
       </c>
     </row>
     <row r="91" ht="18.0" customHeight="1">
-      <c r="A91" s="37"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J91" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K91" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O91" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P91" s="23"/>
       <c r="Q91" s="24"/>
       <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
-      <c r="T91" s="23"/>
-      <c r="U91" s="24"/>
-      <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="24"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="24"/>
-      <c r="AD91" s="24"/>
-      <c r="AE91" s="24"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U91" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="V91" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W91" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y91" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z91" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA91" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC91" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD91" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE91" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF91" s="23"/>
       <c r="AG91" s="24"/>
       <c r="AH91" s="24"/>
-      <c r="AI91" s="24"/>
-      <c r="AJ91" s="23"/>
-      <c r="AK91" s="24"/>
-      <c r="AL91" s="24"/>
-      <c r="AM91" s="24"/>
-      <c r="AN91" s="44"/>
-      <c r="AO91" s="43"/>
-      <c r="AP91" s="43"/>
-      <c r="AQ91" s="43"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK91" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL91" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM91" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN91" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO91" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP91" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ91" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR91" s="23"/>
       <c r="AS91" s="24"/>
       <c r="AT91" s="24"/>
       <c r="AU91" s="24"/>
-      <c r="AV91" s="45"/>
-      <c r="AW91" s="45"/>
+      <c r="AV91" s="36">
+        <v>7.46</v>
+      </c>
+      <c r="AW91" s="36">
+        <v>8.05</v>
+      </c>
     </row>
     <row r="92" ht="18.0" customHeight="1">
       <c r="A92" s="23"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
+      <c r="B92" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J92" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K92" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O92" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P92" s="23"/>
       <c r="Q92" s="24"/>
       <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
-      <c r="T92" s="23"/>
-      <c r="U92" s="24"/>
-      <c r="V92" s="24"/>
-      <c r="W92" s="24"/>
-      <c r="X92" s="23"/>
-      <c r="Y92" s="23"/>
-      <c r="Z92" s="23"/>
-      <c r="AA92" s="24"/>
-      <c r="AB92" s="23"/>
-      <c r="AC92" s="24"/>
-      <c r="AD92" s="24"/>
-      <c r="AE92" s="24"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U92" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V92" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W92" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y92" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z92" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA92" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC92" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD92" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE92" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF92" s="23"/>
       <c r="AG92" s="24"/>
       <c r="AH92" s="24"/>
-      <c r="AI92" s="24"/>
-      <c r="AJ92" s="23"/>
-      <c r="AK92" s="24"/>
-      <c r="AL92" s="24"/>
-      <c r="AM92" s="24"/>
-      <c r="AN92" s="44"/>
-      <c r="AO92" s="43"/>
-      <c r="AP92" s="43"/>
-      <c r="AQ92" s="43"/>
+      <c r="AI92" s="23"/>
+      <c r="AJ92" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK92" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL92" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM92" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN92" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO92" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP92" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ92" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR92" s="23"/>
       <c r="AS92" s="24"/>
       <c r="AT92" s="24"/>
       <c r="AU92" s="24"/>
-      <c r="AV92" s="45"/>
-      <c r="AW92" s="45"/>
+      <c r="AV92" s="36">
+        <v>8.78</v>
+      </c>
+      <c r="AW92" s="36">
+        <v>9.15</v>
+      </c>
     </row>
     <row r="93" ht="18.0" customHeight="1">
-      <c r="A93" s="37"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24"/>
-      <c r="O93" s="24"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J93" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K93" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O93" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P93" s="23"/>
       <c r="Q93" s="24"/>
       <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="24"/>
-      <c r="V93" s="24"/>
-      <c r="W93" s="24"/>
-      <c r="X93" s="23"/>
-      <c r="Y93" s="23"/>
-      <c r="Z93" s="23"/>
-      <c r="AA93" s="24"/>
-      <c r="AB93" s="23"/>
-      <c r="AC93" s="24"/>
-      <c r="AD93" s="24"/>
-      <c r="AE93" s="24"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U93" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="V93" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W93" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y93" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z93" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA93" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC93" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD93" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE93" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF93" s="23"/>
       <c r="AG93" s="24"/>
       <c r="AH93" s="24"/>
-      <c r="AI93" s="24"/>
-      <c r="AJ93" s="23"/>
-      <c r="AK93" s="24"/>
-      <c r="AL93" s="24"/>
-      <c r="AM93" s="24"/>
-      <c r="AN93" s="44"/>
-      <c r="AO93" s="43"/>
-      <c r="AP93" s="43"/>
-      <c r="AQ93" s="43"/>
+      <c r="AI93" s="23"/>
+      <c r="AJ93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK93" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL93" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM93" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN93" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO93" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP93" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ93" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR93" s="23"/>
       <c r="AS93" s="24"/>
       <c r="AT93" s="24"/>
       <c r="AU93" s="24"/>
-      <c r="AV93" s="45"/>
-      <c r="AW93" s="45"/>
+      <c r="AV93" s="36">
+        <v>8.87</v>
+      </c>
+      <c r="AW93" s="36">
+        <v>9.31</v>
+      </c>
     </row>
     <row r="94" ht="18.0" customHeight="1">
       <c r="A94" s="23"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="24"/>
+      <c r="B94" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J94" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K94" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M94" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O94" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P94" s="23"/>
       <c r="Q94" s="24"/>
       <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="24"/>
-      <c r="X94" s="23"/>
-      <c r="Y94" s="23"/>
-      <c r="Z94" s="23"/>
-      <c r="AA94" s="24"/>
-      <c r="AB94" s="23"/>
-      <c r="AC94" s="24"/>
-      <c r="AD94" s="24"/>
-      <c r="AE94" s="24"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U94" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V94" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W94" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y94" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z94" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA94" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC94" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD94" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE94" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF94" s="23"/>
       <c r="AG94" s="24"/>
       <c r="AH94" s="24"/>
-      <c r="AI94" s="24"/>
-      <c r="AJ94" s="23"/>
-      <c r="AK94" s="24"/>
-      <c r="AL94" s="24"/>
-      <c r="AM94" s="24"/>
-      <c r="AN94" s="44"/>
-      <c r="AO94" s="43"/>
-      <c r="AP94" s="43"/>
-      <c r="AQ94" s="43"/>
+      <c r="AI94" s="23"/>
+      <c r="AJ94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK94" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL94" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM94" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN94" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO94" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP94" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ94" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR94" s="23"/>
       <c r="AS94" s="24"/>
       <c r="AT94" s="24"/>
       <c r="AU94" s="24"/>
-      <c r="AV94" s="45"/>
-      <c r="AW94" s="45"/>
+      <c r="AV94" s="36">
+        <v>8.0</v>
+      </c>
+      <c r="AW94" s="36">
+        <v>8.24</v>
+      </c>
     </row>
     <row r="95" ht="18.0" customHeight="1">
-      <c r="A95" s="37"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K95" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M95" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O95" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P95" s="23"/>
       <c r="Q95" s="24"/>
       <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
-      <c r="T95" s="23"/>
-      <c r="U95" s="24"/>
-      <c r="V95" s="24"/>
-      <c r="W95" s="24"/>
-      <c r="X95" s="23"/>
-      <c r="Y95" s="23"/>
-      <c r="Z95" s="23"/>
-      <c r="AA95" s="24"/>
-      <c r="AB95" s="23"/>
-      <c r="AC95" s="24"/>
-      <c r="AD95" s="24"/>
-      <c r="AE95" s="24"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U95" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V95" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W95" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y95" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z95" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA95" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC95" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD95" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE95" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF95" s="23"/>
       <c r="AG95" s="24"/>
       <c r="AH95" s="24"/>
-      <c r="AI95" s="24"/>
-      <c r="AJ95" s="23"/>
-      <c r="AK95" s="24"/>
-      <c r="AL95" s="24"/>
-      <c r="AM95" s="24"/>
-      <c r="AN95" s="44"/>
-      <c r="AO95" s="43"/>
-      <c r="AP95" s="43"/>
-      <c r="AQ95" s="43"/>
+      <c r="AI95" s="23"/>
+      <c r="AJ95" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK95" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL95" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM95" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN95" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO95" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP95" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ95" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR95" s="23"/>
       <c r="AS95" s="24"/>
       <c r="AT95" s="24"/>
       <c r="AU95" s="24"/>
-      <c r="AV95" s="45"/>
-      <c r="AW95" s="45"/>
+      <c r="AV95" s="36">
+        <v>9.28</v>
+      </c>
+      <c r="AW95" s="36">
+        <v>9.55</v>
+      </c>
     </row>
     <row r="96" ht="18.0" customHeight="1">
       <c r="A96" s="23"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
+      <c r="B96" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K96" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N96" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O96" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P96" s="23"/>
       <c r="Q96" s="24"/>
       <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
-      <c r="T96" s="23"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="24"/>
-      <c r="W96" s="24"/>
-      <c r="X96" s="23"/>
-      <c r="Y96" s="23"/>
-      <c r="Z96" s="23"/>
-      <c r="AA96" s="24"/>
-      <c r="AB96" s="23"/>
-      <c r="AC96" s="24"/>
-      <c r="AD96" s="24"/>
-      <c r="AE96" s="24"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U96" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="V96" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W96" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y96" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z96" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA96" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC96" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD96" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE96" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF96" s="23"/>
       <c r="AG96" s="24"/>
       <c r="AH96" s="24"/>
-      <c r="AI96" s="24"/>
-      <c r="AJ96" s="23"/>
-      <c r="AK96" s="24"/>
-      <c r="AL96" s="24"/>
-      <c r="AM96" s="24"/>
-      <c r="AN96" s="44"/>
-      <c r="AO96" s="43"/>
-      <c r="AP96" s="43"/>
-      <c r="AQ96" s="43"/>
+      <c r="AI96" s="23"/>
+      <c r="AJ96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK96" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL96" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN96" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO96" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP96" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ96" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR96" s="23"/>
       <c r="AS96" s="24"/>
       <c r="AT96" s="24"/>
       <c r="AU96" s="24"/>
-      <c r="AV96" s="45"/>
-      <c r="AW96" s="45"/>
+      <c r="AV96" s="36">
+        <v>7.41</v>
+      </c>
+      <c r="AW96" s="36">
+        <v>7.91</v>
+      </c>
     </row>
     <row r="97" ht="18.0" customHeight="1">
-      <c r="A97" s="37"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="24"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J97" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="K97" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N97" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O97" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P97" s="23"/>
       <c r="Q97" s="24"/>
       <c r="R97" s="24"/>
-      <c r="S97" s="24"/>
-      <c r="T97" s="23"/>
-      <c r="U97" s="24"/>
-      <c r="V97" s="24"/>
-      <c r="W97" s="24"/>
-      <c r="X97" s="23"/>
-      <c r="Y97" s="23"/>
-      <c r="Z97" s="23"/>
-      <c r="AA97" s="24"/>
-      <c r="AB97" s="23"/>
-      <c r="AC97" s="24"/>
-      <c r="AD97" s="24"/>
-      <c r="AE97" s="24"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U97" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="V97" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W97" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y97" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z97" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA97" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC97" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD97" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE97" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF97" s="23"/>
       <c r="AG97" s="24"/>
       <c r="AH97" s="24"/>
-      <c r="AI97" s="24"/>
-      <c r="AJ97" s="23"/>
-      <c r="AK97" s="24"/>
-      <c r="AL97" s="24"/>
-      <c r="AM97" s="24"/>
-      <c r="AN97" s="44"/>
-      <c r="AO97" s="43"/>
-      <c r="AP97" s="43"/>
-      <c r="AQ97" s="43"/>
+      <c r="AI97" s="23"/>
+      <c r="AJ97" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK97" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL97" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM97" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN97" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO97" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP97" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ97" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR97" s="23"/>
       <c r="AS97" s="24"/>
       <c r="AT97" s="24"/>
       <c r="AU97" s="24"/>
-      <c r="AV97" s="45"/>
-      <c r="AW97" s="45"/>
+      <c r="AV97" s="36">
+        <v>6.19</v>
+      </c>
+      <c r="AW97" s="36">
+        <v>6.15</v>
+      </c>
     </row>
     <row r="98" ht="18.0" customHeight="1">
       <c r="A98" s="23"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24"/>
+      <c r="B98" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K98" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M98" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O98" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P98" s="23"/>
       <c r="Q98" s="24"/>
       <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="23"/>
-      <c r="U98" s="24"/>
-      <c r="V98" s="24"/>
-      <c r="W98" s="24"/>
-      <c r="X98" s="23"/>
-      <c r="Y98" s="23"/>
-      <c r="Z98" s="23"/>
-      <c r="AA98" s="24"/>
-      <c r="AB98" s="23"/>
-      <c r="AC98" s="24"/>
-      <c r="AD98" s="24"/>
-      <c r="AE98" s="24"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U98" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V98" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W98" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y98" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z98" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA98" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC98" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD98" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE98" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF98" s="23"/>
       <c r="AG98" s="24"/>
       <c r="AH98" s="24"/>
-      <c r="AI98" s="24"/>
-      <c r="AJ98" s="23"/>
-      <c r="AK98" s="24"/>
-      <c r="AL98" s="24"/>
-      <c r="AM98" s="24"/>
-      <c r="AN98" s="44"/>
-      <c r="AO98" s="43"/>
-      <c r="AP98" s="43"/>
-      <c r="AQ98" s="43"/>
+      <c r="AI98" s="23"/>
+      <c r="AJ98" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK98" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL98" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM98" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN98" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO98" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP98" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ98" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR98" s="23"/>
       <c r="AS98" s="24"/>
       <c r="AT98" s="24"/>
       <c r="AU98" s="24"/>
-      <c r="AV98" s="45"/>
-      <c r="AW98" s="45"/>
+      <c r="AV98" s="36">
+        <v>8.96</v>
+      </c>
+      <c r="AW98" s="36">
+        <v>9.27</v>
+      </c>
     </row>
     <row r="99" ht="18.0" customHeight="1">
-      <c r="A99" s="37"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="24"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J99" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K99" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M99" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N99" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O99" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P99" s="23"/>
       <c r="Q99" s="24"/>
       <c r="R99" s="24"/>
-      <c r="S99" s="24"/>
-      <c r="T99" s="23"/>
-      <c r="U99" s="24"/>
-      <c r="V99" s="24"/>
-      <c r="W99" s="24"/>
-      <c r="X99" s="23"/>
-      <c r="Y99" s="23"/>
-      <c r="Z99" s="23"/>
-      <c r="AA99" s="24"/>
-      <c r="AB99" s="23"/>
-      <c r="AC99" s="24"/>
-      <c r="AD99" s="24"/>
-      <c r="AE99" s="24"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U99" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V99" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W99" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y99" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z99" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA99" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC99" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD99" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE99" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF99" s="23"/>
       <c r="AG99" s="24"/>
       <c r="AH99" s="24"/>
-      <c r="AI99" s="24"/>
-      <c r="AJ99" s="23"/>
-      <c r="AK99" s="24"/>
-      <c r="AL99" s="24"/>
-      <c r="AM99" s="24"/>
-      <c r="AN99" s="44"/>
-      <c r="AO99" s="43"/>
-      <c r="AP99" s="43"/>
-      <c r="AQ99" s="43"/>
+      <c r="AI99" s="23"/>
+      <c r="AJ99" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK99" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL99" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM99" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN99" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO99" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP99" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ99" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR99" s="23"/>
       <c r="AS99" s="24"/>
       <c r="AT99" s="24"/>
       <c r="AU99" s="24"/>
-      <c r="AV99" s="45"/>
-      <c r="AW99" s="45"/>
+      <c r="AV99" s="36">
+        <v>8.55</v>
+      </c>
+      <c r="AW99" s="36">
+        <v>8.86</v>
+      </c>
     </row>
     <row r="100" ht="18.0" customHeight="1">
       <c r="A100" s="23"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="24"/>
+      <c r="B100" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K100" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M100" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O100" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P100" s="23"/>
       <c r="Q100" s="24"/>
       <c r="R100" s="24"/>
-      <c r="S100" s="24"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="23"/>
-      <c r="Y100" s="23"/>
-      <c r="Z100" s="23"/>
-      <c r="AA100" s="24"/>
-      <c r="AB100" s="23"/>
-      <c r="AC100" s="24"/>
-      <c r="AD100" s="24"/>
-      <c r="AE100" s="24"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U100" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V100" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W100" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y100" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z100" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA100" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC100" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD100" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE100" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF100" s="23"/>
       <c r="AG100" s="24"/>
       <c r="AH100" s="24"/>
-      <c r="AI100" s="24"/>
-      <c r="AJ100" s="23"/>
-      <c r="AK100" s="24"/>
-      <c r="AL100" s="24"/>
-      <c r="AM100" s="24"/>
-      <c r="AN100" s="44"/>
-      <c r="AO100" s="43"/>
-      <c r="AP100" s="43"/>
-      <c r="AQ100" s="43"/>
+      <c r="AI100" s="23"/>
+      <c r="AJ100" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK100" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL100" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM100" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN100" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO100" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP100" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ100" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR100" s="23"/>
       <c r="AS100" s="24"/>
       <c r="AT100" s="24"/>
       <c r="AU100" s="24"/>
-      <c r="AV100" s="45"/>
-      <c r="AW100" s="45"/>
+      <c r="AV100" s="36">
+        <v>8.73</v>
+      </c>
+      <c r="AW100" s="36">
+        <v>9.27</v>
+      </c>
     </row>
     <row r="101" ht="18.0" customHeight="1">
-      <c r="A101" s="37"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
-      <c r="O101" s="24"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K101" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M101" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N101" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O101" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P101" s="23"/>
       <c r="Q101" s="24"/>
       <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="24"/>
-      <c r="W101" s="24"/>
-      <c r="X101" s="23"/>
-      <c r="Y101" s="23"/>
-      <c r="Z101" s="23"/>
-      <c r="AA101" s="24"/>
-      <c r="AB101" s="23"/>
-      <c r="AC101" s="24"/>
-      <c r="AD101" s="24"/>
-      <c r="AE101" s="24"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U101" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="V101" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W101" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y101" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z101" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA101" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC101" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD101" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE101" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF101" s="23"/>
       <c r="AG101" s="24"/>
       <c r="AH101" s="24"/>
-      <c r="AI101" s="24"/>
-      <c r="AJ101" s="23"/>
-      <c r="AK101" s="24"/>
-      <c r="AL101" s="24"/>
-      <c r="AM101" s="24"/>
-      <c r="AN101" s="44"/>
-      <c r="AO101" s="43"/>
-      <c r="AP101" s="43"/>
-      <c r="AQ101" s="43"/>
+      <c r="AI101" s="23"/>
+      <c r="AJ101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK101" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL101" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM101" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN101" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO101" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP101" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ101" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR101" s="23"/>
       <c r="AS101" s="24"/>
       <c r="AT101" s="24"/>
       <c r="AU101" s="24"/>
-      <c r="AV101" s="45"/>
-      <c r="AW101" s="45"/>
+      <c r="AV101" s="36">
+        <v>8.37</v>
+      </c>
+      <c r="AW101" s="36">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="102" ht="18.0" customHeight="1">
       <c r="A102" s="23"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
+      <c r="B102" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I102" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J102" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K102" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M102" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O102" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q102" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R102" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S102" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T102" s="23"/>
       <c r="U102" s="24"/>
       <c r="V102" s="24"/>
       <c r="W102" s="24"/>
-      <c r="X102" s="23"/>
-      <c r="Y102" s="23"/>
-      <c r="Z102" s="23"/>
-      <c r="AA102" s="24"/>
+      <c r="X102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y102" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z102" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA102" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB102" s="23"/>
       <c r="AC102" s="24"/>
       <c r="AD102" s="24"/>
       <c r="AE102" s="24"/>
-      <c r="AF102" s="23"/>
-      <c r="AG102" s="24"/>
-      <c r="AH102" s="24"/>
-      <c r="AI102" s="24"/>
-      <c r="AJ102" s="23"/>
-      <c r="AK102" s="24"/>
-      <c r="AL102" s="24"/>
-      <c r="AM102" s="24"/>
-      <c r="AN102" s="44"/>
-      <c r="AO102" s="43"/>
-      <c r="AP102" s="43"/>
-      <c r="AQ102" s="43"/>
+      <c r="AF102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG102" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH102" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI102" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ102" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK102" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL102" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM102" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN102" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO102" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP102" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ102" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR102" s="23"/>
       <c r="AS102" s="24"/>
       <c r="AT102" s="24"/>
       <c r="AU102" s="24"/>
-      <c r="AV102" s="45"/>
-      <c r="AW102" s="45"/>
+      <c r="AV102" s="36">
+        <v>7.28</v>
+      </c>
+      <c r="AW102" s="36">
+        <v>8.24</v>
+      </c>
     </row>
     <row r="103" ht="18.0" customHeight="1">
-      <c r="A103" s="37"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K103" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M103" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O103" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q103" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R103" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S103" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T103" s="23"/>
       <c r="U103" s="24"/>
       <c r="V103" s="24"/>
       <c r="W103" s="24"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="23"/>
-      <c r="AA103" s="24"/>
+      <c r="X103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y103" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z103" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA103" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB103" s="23"/>
       <c r="AC103" s="24"/>
       <c r="AD103" s="24"/>
       <c r="AE103" s="24"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="24"/>
-      <c r="AH103" s="24"/>
-      <c r="AI103" s="24"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="24"/>
-      <c r="AL103" s="24"/>
-      <c r="AM103" s="24"/>
-      <c r="AN103" s="44"/>
-      <c r="AO103" s="43"/>
-      <c r="AP103" s="43"/>
-      <c r="AQ103" s="43"/>
+      <c r="AF103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG103" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH103" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI103" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK103" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL103" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM103" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN103" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO103" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP103" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ103" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR103" s="23"/>
       <c r="AS103" s="24"/>
       <c r="AT103" s="24"/>
       <c r="AU103" s="24"/>
-      <c r="AV103" s="45"/>
-      <c r="AW103" s="45"/>
+      <c r="AV103" s="36">
+        <v>7.96</v>
+      </c>
+      <c r="AW103" s="36">
+        <v>8.55</v>
+      </c>
     </row>
     <row r="104" ht="18.0" customHeight="1">
       <c r="A104" s="23"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="23"/>
-      <c r="Q104" s="24"/>
-      <c r="R104" s="24"/>
-      <c r="S104" s="24"/>
+      <c r="B104" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K104" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N104" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O104" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q104" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R104" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S104" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T104" s="23"/>
       <c r="U104" s="24"/>
       <c r="V104" s="24"/>
       <c r="W104" s="24"/>
-      <c r="X104" s="23"/>
-      <c r="Y104" s="23"/>
-      <c r="Z104" s="23"/>
-      <c r="AA104" s="24"/>
+      <c r="X104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y104" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z104" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA104" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB104" s="23"/>
       <c r="AC104" s="24"/>
       <c r="AD104" s="24"/>
       <c r="AE104" s="24"/>
-      <c r="AF104" s="23"/>
-      <c r="AG104" s="24"/>
-      <c r="AH104" s="24"/>
-      <c r="AI104" s="24"/>
-      <c r="AJ104" s="23"/>
-      <c r="AK104" s="24"/>
-      <c r="AL104" s="24"/>
-      <c r="AM104" s="24"/>
-      <c r="AN104" s="44"/>
-      <c r="AO104" s="43"/>
-      <c r="AP104" s="43"/>
-      <c r="AQ104" s="43"/>
+      <c r="AF104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG104" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH104" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI104" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ104" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK104" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL104" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM104" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN104" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO104" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP104" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ104" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR104" s="23"/>
       <c r="AS104" s="24"/>
       <c r="AT104" s="24"/>
       <c r="AU104" s="24"/>
-      <c r="AV104" s="45"/>
-      <c r="AW104" s="45"/>
+      <c r="AV104" s="36">
+        <v>7.46</v>
+      </c>
+      <c r="AW104" s="36">
+        <v>8.03</v>
+      </c>
     </row>
     <row r="105" ht="18.0" customHeight="1">
-      <c r="A105" s="37"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="24"/>
-      <c r="N105" s="24"/>
-      <c r="O105" s="24"/>
-      <c r="P105" s="23"/>
-      <c r="Q105" s="24"/>
-      <c r="R105" s="24"/>
-      <c r="S105" s="24"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J105" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K105" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N105" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O105" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q105" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R105" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S105" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T105" s="23"/>
       <c r="U105" s="24"/>
       <c r="V105" s="24"/>
       <c r="W105" s="24"/>
-      <c r="X105" s="23"/>
-      <c r="Y105" s="23"/>
-      <c r="Z105" s="23"/>
-      <c r="AA105" s="24"/>
+      <c r="X105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y105" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z105" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA105" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB105" s="23"/>
       <c r="AC105" s="24"/>
       <c r="AD105" s="24"/>
       <c r="AE105" s="24"/>
-      <c r="AF105" s="23"/>
-      <c r="AG105" s="24"/>
-      <c r="AH105" s="24"/>
-      <c r="AI105" s="24"/>
-      <c r="AJ105" s="23"/>
-      <c r="AK105" s="24"/>
-      <c r="AL105" s="24"/>
-      <c r="AM105" s="24"/>
-      <c r="AN105" s="44"/>
-      <c r="AO105" s="43"/>
-      <c r="AP105" s="43"/>
-      <c r="AQ105" s="43"/>
+      <c r="AF105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG105" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH105" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI105" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ105" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK105" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL105" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM105" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN105" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO105" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP105" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ105" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR105" s="23"/>
       <c r="AS105" s="24"/>
       <c r="AT105" s="24"/>
       <c r="AU105" s="24"/>
-      <c r="AV105" s="45"/>
-      <c r="AW105" s="45"/>
+      <c r="AV105" s="36">
+        <v>7.82</v>
+      </c>
+      <c r="AW105" s="36">
+        <v>8.03</v>
+      </c>
     </row>
     <row r="106" ht="18.0" customHeight="1">
       <c r="A106" s="23"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="23"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="23"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
+      <c r="B106" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J106" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K106" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M106" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N106" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O106" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q106" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R106" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S106" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T106" s="23"/>
       <c r="U106" s="24"/>
       <c r="V106" s="24"/>
       <c r="W106" s="24"/>
-      <c r="X106" s="23"/>
-      <c r="Y106" s="23"/>
-      <c r="Z106" s="23"/>
-      <c r="AA106" s="24"/>
+      <c r="X106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y106" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z106" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA106" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB106" s="23"/>
       <c r="AC106" s="24"/>
       <c r="AD106" s="24"/>
       <c r="AE106" s="24"/>
-      <c r="AF106" s="23"/>
-      <c r="AG106" s="24"/>
-      <c r="AH106" s="24"/>
-      <c r="AI106" s="24"/>
-      <c r="AJ106" s="23"/>
-      <c r="AK106" s="24"/>
-      <c r="AL106" s="24"/>
-      <c r="AM106" s="24"/>
-      <c r="AN106" s="44"/>
-      <c r="AO106" s="43"/>
-      <c r="AP106" s="43"/>
-      <c r="AQ106" s="43"/>
+      <c r="AF106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG106" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH106" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI106" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ106" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK106" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL106" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM106" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN106" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO106" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP106" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ106" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR106" s="23"/>
       <c r="AS106" s="24"/>
       <c r="AT106" s="24"/>
       <c r="AU106" s="24"/>
-      <c r="AV106" s="45"/>
-      <c r="AW106" s="45"/>
+      <c r="AV106" s="36">
+        <v>8.91</v>
+      </c>
+      <c r="AW106" s="36">
+        <v>9.39</v>
+      </c>
     </row>
     <row r="107" ht="18.0" customHeight="1">
-      <c r="A107" s="37"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="23"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="40">
+        <v>4.0</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J107" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K107" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M107" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N107" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O107" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q107" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R107" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S107" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T107" s="23"/>
       <c r="U107" s="24"/>
       <c r="V107" s="24"/>
       <c r="W107" s="24"/>
-      <c r="X107" s="23"/>
-      <c r="Y107" s="23"/>
-      <c r="Z107" s="23"/>
-      <c r="AA107" s="24"/>
+      <c r="X107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y107" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z107" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA107" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB107" s="23"/>
       <c r="AC107" s="24"/>
       <c r="AD107" s="24"/>
       <c r="AE107" s="24"/>
-      <c r="AF107" s="23"/>
-      <c r="AG107" s="24"/>
-      <c r="AH107" s="24"/>
-      <c r="AI107" s="24"/>
-      <c r="AJ107" s="23"/>
-      <c r="AK107" s="24"/>
-      <c r="AL107" s="24"/>
-      <c r="AM107" s="24"/>
-      <c r="AN107" s="44"/>
-      <c r="AO107" s="43"/>
-      <c r="AP107" s="43"/>
-      <c r="AQ107" s="43"/>
+      <c r="AF107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG107" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH107" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI107" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ107" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK107" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL107" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM107" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN107" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO107" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP107" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ107" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR107" s="23"/>
       <c r="AS107" s="24"/>
       <c r="AT107" s="24"/>
       <c r="AU107" s="24"/>
-      <c r="AV107" s="45"/>
-      <c r="AW107" s="45"/>
+      <c r="AV107" s="36">
+        <v>9.37</v>
+      </c>
+      <c r="AW107" s="36">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="108" ht="18.0" customHeight="1">
       <c r="A108" s="23"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="24"/>
-      <c r="R108" s="24"/>
-      <c r="S108" s="24"/>
+      <c r="B108" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M108" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N108" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O108" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q108" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R108" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S108" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T108" s="23"/>
       <c r="U108" s="24"/>
       <c r="V108" s="24"/>
       <c r="W108" s="24"/>
-      <c r="X108" s="23"/>
-      <c r="Y108" s="23"/>
-      <c r="Z108" s="23"/>
-      <c r="AA108" s="24"/>
+      <c r="X108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y108" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z108" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA108" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB108" s="23"/>
       <c r="AC108" s="24"/>
       <c r="AD108" s="24"/>
       <c r="AE108" s="24"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="24"/>
-      <c r="AH108" s="24"/>
-      <c r="AI108" s="24"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="24"/>
-      <c r="AL108" s="24"/>
-      <c r="AM108" s="24"/>
-      <c r="AN108" s="44"/>
-      <c r="AO108" s="43"/>
-      <c r="AP108" s="43"/>
-      <c r="AQ108" s="43"/>
+      <c r="AF108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG108" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH108" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI108" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ108" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK108" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL108" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM108" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN108" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO108" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP108" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ108" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR108" s="23"/>
       <c r="AS108" s="24"/>
       <c r="AT108" s="24"/>
       <c r="AU108" s="24"/>
-      <c r="AV108" s="45"/>
-      <c r="AW108" s="45"/>
+      <c r="AV108" s="36">
+        <v>7.96</v>
+      </c>
+      <c r="AW108" s="36">
+        <v>8.65</v>
+      </c>
     </row>
     <row r="109" ht="18.0" customHeight="1">
-      <c r="A109" s="37"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="23"/>
-      <c r="M109" s="24"/>
-      <c r="N109" s="24"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="23"/>
-      <c r="Q109" s="24"/>
-      <c r="R109" s="24"/>
-      <c r="S109" s="24"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K109" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M109" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N109" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O109" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q109" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R109" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S109" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T109" s="23"/>
       <c r="U109" s="24"/>
       <c r="V109" s="24"/>
       <c r="W109" s="24"/>
-      <c r="X109" s="23"/>
-      <c r="Y109" s="23"/>
-      <c r="Z109" s="23"/>
-      <c r="AA109" s="24"/>
+      <c r="X109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y109" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z109" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA109" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB109" s="23"/>
       <c r="AC109" s="24"/>
       <c r="AD109" s="24"/>
       <c r="AE109" s="24"/>
-      <c r="AF109" s="23"/>
-      <c r="AG109" s="24"/>
-      <c r="AH109" s="24"/>
-      <c r="AI109" s="24"/>
-      <c r="AJ109" s="23"/>
-      <c r="AK109" s="24"/>
-      <c r="AL109" s="24"/>
-      <c r="AM109" s="24"/>
-      <c r="AN109" s="44"/>
-      <c r="AO109" s="43"/>
-      <c r="AP109" s="43"/>
-      <c r="AQ109" s="43"/>
+      <c r="AF109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG109" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH109" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI109" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ109" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK109" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL109" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM109" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN109" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO109" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP109" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ109" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR109" s="23"/>
       <c r="AS109" s="24"/>
       <c r="AT109" s="24"/>
       <c r="AU109" s="24"/>
-      <c r="AV109" s="45"/>
-      <c r="AW109" s="45"/>
+      <c r="AV109" s="36">
+        <v>8.82</v>
+      </c>
+      <c r="AW109" s="36">
+        <v>9.31</v>
+      </c>
     </row>
     <row r="110" ht="18.0" customHeight="1">
       <c r="A110" s="23"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="24"/>
-      <c r="N110" s="24"/>
-      <c r="O110" s="24"/>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="24"/>
-      <c r="R110" s="24"/>
-      <c r="S110" s="24"/>
+      <c r="B110" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K110" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M110" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N110" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O110" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q110" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R110" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S110" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T110" s="23"/>
       <c r="U110" s="24"/>
       <c r="V110" s="24"/>
       <c r="W110" s="24"/>
-      <c r="X110" s="23"/>
-      <c r="Y110" s="23"/>
-      <c r="Z110" s="23"/>
-      <c r="AA110" s="24"/>
+      <c r="X110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y110" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z110" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA110" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB110" s="23"/>
       <c r="AC110" s="24"/>
       <c r="AD110" s="24"/>
       <c r="AE110" s="24"/>
-      <c r="AF110" s="23"/>
-      <c r="AG110" s="24"/>
-      <c r="AH110" s="24"/>
-      <c r="AI110" s="24"/>
-      <c r="AJ110" s="23"/>
-      <c r="AK110" s="24"/>
-      <c r="AL110" s="24"/>
-      <c r="AM110" s="24"/>
-      <c r="AN110" s="44"/>
-      <c r="AO110" s="43"/>
-      <c r="AP110" s="43"/>
-      <c r="AQ110" s="43"/>
+      <c r="AF110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG110" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH110" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI110" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ110" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK110" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL110" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM110" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN110" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO110" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP110" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ110" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR110" s="23"/>
       <c r="AS110" s="24"/>
       <c r="AT110" s="24"/>
       <c r="AU110" s="24"/>
-      <c r="AV110" s="45"/>
-      <c r="AW110" s="45"/>
+      <c r="AV110" s="36">
+        <v>8.41</v>
+      </c>
+      <c r="AW110" s="36">
+        <v>8.46</v>
+      </c>
     </row>
     <row r="111" ht="18.0" customHeight="1">
-      <c r="A111" s="37"/>
-      <c r="B111" s="42"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="32">
+        <v>4.0</v>
+      </c>
       <c r="G111" s="24"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="24"/>
-      <c r="R111" s="24"/>
-      <c r="S111" s="24"/>
+      <c r="H111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J111" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K111" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M111" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N111" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O111" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q111" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R111" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S111" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T111" s="23"/>
       <c r="U111" s="24"/>
       <c r="V111" s="24"/>
       <c r="W111" s="24"/>
-      <c r="X111" s="23"/>
-      <c r="Y111" s="23"/>
-      <c r="Z111" s="23"/>
-      <c r="AA111" s="24"/>
+      <c r="X111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y111" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z111" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA111" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB111" s="23"/>
       <c r="AC111" s="24"/>
       <c r="AD111" s="24"/>
       <c r="AE111" s="24"/>
-      <c r="AF111" s="23"/>
-      <c r="AG111" s="24"/>
-      <c r="AH111" s="24"/>
-      <c r="AI111" s="24"/>
-      <c r="AJ111" s="23"/>
-      <c r="AK111" s="24"/>
-      <c r="AL111" s="24"/>
-      <c r="AM111" s="24"/>
-      <c r="AN111" s="44"/>
-      <c r="AO111" s="43"/>
-      <c r="AP111" s="43"/>
-      <c r="AQ111" s="43"/>
+      <c r="AF111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG111" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH111" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI111" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ111" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK111" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL111" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="AM111" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN111" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO111" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP111" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AQ111" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR111" s="23"/>
       <c r="AS111" s="24"/>
       <c r="AT111" s="24"/>
       <c r="AU111" s="24"/>
-      <c r="AV111" s="45"/>
-      <c r="AW111" s="45"/>
+      <c r="AV111" s="36">
+        <v>7.6</v>
+      </c>
+      <c r="AW111" s="36">
+        <v>7.84</v>
+      </c>
     </row>
     <row r="112" ht="18.0" customHeight="1">
       <c r="A112" s="23"/>
@@ -13850,7 +15530,7 @@
       <c r="AW112" s="45"/>
     </row>
     <row r="113" ht="18.0" customHeight="1">
-      <c r="A113" s="37"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="42"/>
       <c r="C113" s="42"/>
       <c r="D113" s="23"/>
@@ -13952,7 +15632,7 @@
       <c r="AW114" s="45"/>
     </row>
     <row r="115" ht="18.0" customHeight="1">
-      <c r="A115" s="37"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42"/>
       <c r="D115" s="23"/>
@@ -14054,7 +15734,7 @@
       <c r="AW116" s="45"/>
     </row>
     <row r="117" ht="18.0" customHeight="1">
-      <c r="A117" s="37"/>
+      <c r="A117" s="41"/>
       <c r="B117" s="42"/>
       <c r="C117" s="42"/>
       <c r="D117" s="23"/>
@@ -14156,7 +15836,7 @@
       <c r="AW118" s="45"/>
     </row>
     <row r="119" ht="18.0" customHeight="1">
-      <c r="A119" s="37"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
       <c r="D119" s="23"/>
@@ -14258,7 +15938,7 @@
       <c r="AW120" s="45"/>
     </row>
     <row r="121" ht="18.0" customHeight="1">
-      <c r="A121" s="37"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42"/>
       <c r="D121" s="23"/>
@@ -14360,7 +16040,7 @@
       <c r="AW122" s="45"/>
     </row>
     <row r="123" ht="18.0" customHeight="1">
-      <c r="A123" s="37"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42"/>
       <c r="D123" s="23"/>
@@ -14462,7 +16142,7 @@
       <c r="AW124" s="45"/>
     </row>
     <row r="125" ht="18.0" customHeight="1">
-      <c r="A125" s="37"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42"/>
       <c r="D125" s="23"/>
@@ -14564,7 +16244,7 @@
       <c r="AW126" s="45"/>
     </row>
     <row r="127" ht="18.0" customHeight="1">
-      <c r="A127" s="37"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42"/>
       <c r="D127" s="23"/>
@@ -14666,7 +16346,7 @@
       <c r="AW128" s="45"/>
     </row>
     <row r="129" ht="18.0" customHeight="1">
-      <c r="A129" s="37"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="42"/>
       <c r="C129" s="42"/>
       <c r="D129" s="23"/>
@@ -14768,7 +16448,7 @@
       <c r="AW130" s="45"/>
     </row>
     <row r="131" ht="18.0" customHeight="1">
-      <c r="A131" s="37"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="42"/>
       <c r="C131" s="42"/>
       <c r="D131" s="23"/>
@@ -14870,7 +16550,7 @@
       <c r="AW132" s="45"/>
     </row>
     <row r="133" ht="18.0" customHeight="1">
-      <c r="A133" s="37"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="42"/>
       <c r="C133" s="42"/>
       <c r="D133" s="23"/>
@@ -14972,7 +16652,7 @@
       <c r="AW134" s="45"/>
     </row>
     <row r="135" ht="18.0" customHeight="1">
-      <c r="A135" s="37"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="42"/>
       <c r="C135" s="42"/>
       <c r="D135" s="23"/>
@@ -15074,7 +16754,7 @@
       <c r="AW136" s="45"/>
     </row>
     <row r="137" ht="18.0" customHeight="1">
-      <c r="A137" s="37"/>
+      <c r="A137" s="41"/>
       <c r="B137" s="42"/>
       <c r="C137" s="42"/>
       <c r="D137" s="23"/>
@@ -15176,7 +16856,7 @@
       <c r="AW138" s="45"/>
     </row>
     <row r="139" ht="18.0" customHeight="1">
-      <c r="A139" s="37"/>
+      <c r="A139" s="41"/>
       <c r="B139" s="42"/>
       <c r="C139" s="42"/>
       <c r="D139" s="23"/>
@@ -15278,7 +16958,7 @@
       <c r="AW140" s="45"/>
     </row>
     <row r="141" ht="18.0" customHeight="1">
-      <c r="A141" s="37"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="42"/>
       <c r="C141" s="42"/>
       <c r="D141" s="23"/>
@@ -15380,7 +17060,7 @@
       <c r="AW142" s="45"/>
     </row>
     <row r="143" ht="18.0" customHeight="1">
-      <c r="A143" s="37"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42"/>
       <c r="D143" s="23"/>
@@ -15482,7 +17162,7 @@
       <c r="AW144" s="45"/>
     </row>
     <row r="145" ht="18.0" customHeight="1">
-      <c r="A145" s="37"/>
+      <c r="A145" s="41"/>
       <c r="B145" s="42"/>
       <c r="C145" s="42"/>
       <c r="D145" s="23"/>
@@ -15584,7 +17264,7 @@
       <c r="AW146" s="45"/>
     </row>
     <row r="147" ht="18.0" customHeight="1">
-      <c r="A147" s="37"/>
+      <c r="A147" s="41"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42"/>
       <c r="D147" s="23"/>
@@ -15686,7 +17366,7 @@
       <c r="AW148" s="45"/>
     </row>
     <row r="149" ht="18.0" customHeight="1">
-      <c r="A149" s="37"/>
+      <c r="A149" s="41"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42"/>
       <c r="D149" s="23"/>
@@ -15788,7 +17468,7 @@
       <c r="AW150" s="45"/>
     </row>
     <row r="151" ht="18.0" customHeight="1">
-      <c r="A151" s="37"/>
+      <c r="A151" s="41"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42"/>
       <c r="D151" s="23"/>
@@ -15890,7 +17570,7 @@
       <c r="AW152" s="45"/>
     </row>
     <row r="153" ht="18.0" customHeight="1">
-      <c r="A153" s="37"/>
+      <c r="A153" s="41"/>
       <c r="B153" s="42"/>
       <c r="C153" s="42"/>
       <c r="D153" s="23"/>
@@ -15992,7 +17672,7 @@
       <c r="AW154" s="45"/>
     </row>
     <row r="155" ht="18.0" customHeight="1">
-      <c r="A155" s="37"/>
+      <c r="A155" s="41"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42"/>
       <c r="D155" s="23"/>
@@ -16094,7 +17774,7 @@
       <c r="AW156" s="45"/>
     </row>
     <row r="157" ht="18.0" customHeight="1">
-      <c r="A157" s="37"/>
+      <c r="A157" s="41"/>
       <c r="B157" s="42"/>
       <c r="C157" s="42"/>
       <c r="D157" s="23"/>
@@ -16196,7 +17876,7 @@
       <c r="AW158" s="45"/>
     </row>
     <row r="159" ht="18.0" customHeight="1">
-      <c r="A159" s="37"/>
+      <c r="A159" s="41"/>
       <c r="B159" s="42"/>
       <c r="C159" s="42"/>
       <c r="D159" s="23"/>
@@ -16298,7 +17978,7 @@
       <c r="AW160" s="45"/>
     </row>
     <row r="161" ht="18.0" customHeight="1">
-      <c r="A161" s="37"/>
+      <c r="A161" s="41"/>
       <c r="B161" s="42"/>
       <c r="C161" s="42"/>
       <c r="D161" s="23"/>
@@ -16400,7 +18080,7 @@
       <c r="AW162" s="45"/>
     </row>
     <row r="163" ht="18.0" customHeight="1">
-      <c r="A163" s="37"/>
+      <c r="A163" s="41"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42"/>
       <c r="D163" s="23"/>
@@ -16502,7 +18182,7 @@
       <c r="AW164" s="45"/>
     </row>
     <row r="165" ht="18.0" customHeight="1">
-      <c r="A165" s="37"/>
+      <c r="A165" s="41"/>
       <c r="B165" s="42"/>
       <c r="C165" s="42"/>
       <c r="D165" s="23"/>
@@ -16604,7 +18284,7 @@
       <c r="AW166" s="45"/>
     </row>
     <row r="167" ht="18.0" customHeight="1">
-      <c r="A167" s="37"/>
+      <c r="A167" s="41"/>
       <c r="B167" s="42"/>
       <c r="C167" s="42"/>
       <c r="D167" s="23"/>
@@ -16706,7 +18386,7 @@
       <c r="AW168" s="45"/>
     </row>
     <row r="169" ht="18.0" customHeight="1">
-      <c r="A169" s="37"/>
+      <c r="A169" s="41"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42"/>
       <c r="D169" s="23"/>
@@ -16808,7 +18488,7 @@
       <c r="AW170" s="45"/>
     </row>
     <row r="171" ht="18.0" customHeight="1">
-      <c r="A171" s="37"/>
+      <c r="A171" s="41"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42"/>
       <c r="D171" s="23"/>
@@ -16910,7 +18590,7 @@
       <c r="AW172" s="45"/>
     </row>
     <row r="173" ht="18.0" customHeight="1">
-      <c r="A173" s="37"/>
+      <c r="A173" s="41"/>
       <c r="B173" s="42"/>
       <c r="C173" s="42"/>
       <c r="D173" s="23"/>
@@ -17012,7 +18692,7 @@
       <c r="AW174" s="45"/>
     </row>
     <row r="175" ht="18.0" customHeight="1">
-      <c r="A175" s="37"/>
+      <c r="A175" s="41"/>
       <c r="B175" s="42"/>
       <c r="C175" s="42"/>
       <c r="D175" s="23"/>
@@ -17114,7 +18794,7 @@
       <c r="AW176" s="45"/>
     </row>
     <row r="177" ht="18.0" customHeight="1">
-      <c r="A177" s="37"/>
+      <c r="A177" s="41"/>
       <c r="B177" s="42"/>
       <c r="C177" s="42"/>
       <c r="D177" s="23"/>
@@ -17216,7 +18896,7 @@
       <c r="AW178" s="45"/>
     </row>
     <row r="179" ht="18.0" customHeight="1">
-      <c r="A179" s="37"/>
+      <c r="A179" s="41"/>
       <c r="B179" s="42"/>
       <c r="C179" s="42"/>
       <c r="D179" s="23"/>
@@ -17318,7 +18998,7 @@
       <c r="AW180" s="45"/>
     </row>
     <row r="181" ht="18.0" customHeight="1">
-      <c r="A181" s="37"/>
+      <c r="A181" s="41"/>
       <c r="B181" s="42"/>
       <c r="C181" s="42"/>
       <c r="D181" s="23"/>
@@ -17420,7 +19100,7 @@
       <c r="AW182" s="45"/>
     </row>
     <row r="183" ht="18.0" customHeight="1">
-      <c r="A183" s="37"/>
+      <c r="A183" s="41"/>
       <c r="B183" s="42"/>
       <c r="C183" s="42"/>
       <c r="D183" s="23"/>
@@ -17522,7 +19202,7 @@
       <c r="AW184" s="45"/>
     </row>
     <row r="185" ht="18.0" customHeight="1">
-      <c r="A185" s="37"/>
+      <c r="A185" s="41"/>
       <c r="B185" s="42"/>
       <c r="C185" s="42"/>
       <c r="D185" s="23"/>
@@ -17624,7 +19304,7 @@
       <c r="AW186" s="45"/>
     </row>
     <row r="187" ht="18.0" customHeight="1">
-      <c r="A187" s="37"/>
+      <c r="A187" s="41"/>
       <c r="B187" s="42"/>
       <c r="C187" s="42"/>
       <c r="D187" s="23"/>
@@ -17726,7 +19406,7 @@
       <c r="AW188" s="45"/>
     </row>
     <row r="189" ht="18.0" customHeight="1">
-      <c r="A189" s="37"/>
+      <c r="A189" s="41"/>
       <c r="B189" s="42"/>
       <c r="C189" s="42"/>
       <c r="D189" s="23"/>
@@ -17828,7 +19508,7 @@
       <c r="AW190" s="45"/>
     </row>
     <row r="191" ht="18.0" customHeight="1">
-      <c r="A191" s="37"/>
+      <c r="A191" s="41"/>
       <c r="B191" s="42"/>
       <c r="C191" s="42"/>
       <c r="D191" s="23"/>
@@ -17930,7 +19610,7 @@
       <c r="AW192" s="45"/>
     </row>
     <row r="193" ht="18.0" customHeight="1">
-      <c r="A193" s="37"/>
+      <c r="A193" s="41"/>
       <c r="B193" s="42"/>
       <c r="C193" s="42"/>
       <c r="D193" s="23"/>
@@ -18032,7 +19712,7 @@
       <c r="AW194" s="45"/>
     </row>
     <row r="195" ht="18.0" customHeight="1">
-      <c r="A195" s="37"/>
+      <c r="A195" s="41"/>
       <c r="B195" s="42"/>
       <c r="C195" s="42"/>
       <c r="D195" s="23"/>
@@ -18134,7 +19814,7 @@
       <c r="AW196" s="45"/>
     </row>
     <row r="197" ht="18.0" customHeight="1">
-      <c r="A197" s="37"/>
+      <c r="A197" s="41"/>
       <c r="B197" s="42"/>
       <c r="C197" s="42"/>
       <c r="D197" s="23"/>
@@ -18236,7 +19916,7 @@
       <c r="AW198" s="45"/>
     </row>
     <row r="199" ht="18.0" customHeight="1">
-      <c r="A199" s="37"/>
+      <c r="A199" s="41"/>
       <c r="B199" s="42"/>
       <c r="C199" s="42"/>
       <c r="D199" s="23"/>
@@ -18338,7 +20018,7 @@
       <c r="AW200" s="45"/>
     </row>
     <row r="201" ht="18.0" customHeight="1">
-      <c r="A201" s="37"/>
+      <c r="A201" s="41"/>
       <c r="B201" s="42"/>
       <c r="C201" s="42"/>
       <c r="D201" s="23"/>
@@ -18440,7 +20120,7 @@
       <c r="AW202" s="45"/>
     </row>
     <row r="203" ht="18.0" customHeight="1">
-      <c r="A203" s="37"/>
+      <c r="A203" s="41"/>
       <c r="B203" s="46"/>
       <c r="C203" s="46"/>
       <c r="D203" s="49"/>
@@ -18542,7 +20222,7 @@
       <c r="AW204" s="45"/>
     </row>
     <row r="205" ht="18.0" customHeight="1">
-      <c r="A205" s="37"/>
+      <c r="A205" s="41"/>
       <c r="B205" s="42"/>
       <c r="C205" s="42"/>
       <c r="D205" s="23"/>
@@ -18644,7 +20324,7 @@
       <c r="AW206" s="45"/>
     </row>
     <row r="207" ht="18.0" customHeight="1">
-      <c r="A207" s="37"/>
+      <c r="A207" s="41"/>
       <c r="B207" s="42"/>
       <c r="C207" s="42"/>
       <c r="D207" s="23"/>
@@ -18746,7 +20426,7 @@
       <c r="AW208" s="45"/>
     </row>
     <row r="209" ht="18.0" customHeight="1">
-      <c r="A209" s="37"/>
+      <c r="A209" s="41"/>
       <c r="B209" s="42"/>
       <c r="C209" s="42"/>
       <c r="D209" s="23"/>
@@ -18848,7 +20528,7 @@
       <c r="AW210" s="45"/>
     </row>
     <row r="211" ht="18.0" customHeight="1">
-      <c r="A211" s="37"/>
+      <c r="A211" s="41"/>
       <c r="B211" s="42"/>
       <c r="C211" s="42"/>
       <c r="D211" s="23"/>
@@ -18950,7 +20630,7 @@
       <c r="AW212" s="45"/>
     </row>
     <row r="213" ht="18.0" customHeight="1">
-      <c r="A213" s="37"/>
+      <c r="A213" s="41"/>
       <c r="B213" s="42"/>
       <c r="C213" s="42"/>
       <c r="D213" s="23"/>
@@ -19052,7 +20732,7 @@
       <c r="AW214" s="45"/>
     </row>
     <row r="215" ht="18.0" customHeight="1">
-      <c r="A215" s="37"/>
+      <c r="A215" s="41"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42"/>
       <c r="D215" s="23"/>
@@ -19154,7 +20834,7 @@
       <c r="AW216" s="45"/>
     </row>
     <row r="217" ht="18.0" customHeight="1">
-      <c r="A217" s="37"/>
+      <c r="A217" s="41"/>
       <c r="B217" s="42"/>
       <c r="C217" s="42"/>
       <c r="D217" s="23"/>
@@ -19256,7 +20936,7 @@
       <c r="AW218" s="45"/>
     </row>
     <row r="219" ht="18.0" customHeight="1">
-      <c r="A219" s="37"/>
+      <c r="A219" s="41"/>
       <c r="B219" s="42"/>
       <c r="C219" s="42"/>
       <c r="D219" s="23"/>
@@ -19358,7 +21038,7 @@
       <c r="AW220" s="45"/>
     </row>
     <row r="221" ht="18.0" customHeight="1">
-      <c r="A221" s="37"/>
+      <c r="A221" s="41"/>
       <c r="B221" s="42"/>
       <c r="C221" s="42"/>
       <c r="D221" s="23"/>
@@ -19460,7 +21140,7 @@
       <c r="AW222" s="45"/>
     </row>
     <row r="223" ht="18.0" customHeight="1">
-      <c r="A223" s="37"/>
+      <c r="A223" s="41"/>
       <c r="B223" s="42"/>
       <c r="C223" s="42"/>
       <c r="D223" s="23"/>
@@ -19562,7 +21242,7 @@
       <c r="AW224" s="45"/>
     </row>
     <row r="225" ht="18.0" customHeight="1">
-      <c r="A225" s="37"/>
+      <c r="A225" s="41"/>
       <c r="B225" s="42"/>
       <c r="C225" s="42"/>
       <c r="D225" s="23"/>
@@ -19664,7 +21344,7 @@
       <c r="AW226" s="45"/>
     </row>
     <row r="227" ht="18.0" customHeight="1">
-      <c r="A227" s="37"/>
+      <c r="A227" s="41"/>
       <c r="B227" s="42"/>
       <c r="C227" s="42"/>
       <c r="D227" s="23"/>
@@ -19766,7 +21446,7 @@
       <c r="AW228" s="45"/>
     </row>
     <row r="229" ht="18.0" customHeight="1">
-      <c r="A229" s="37"/>
+      <c r="A229" s="41"/>
       <c r="B229" s="42"/>
       <c r="C229" s="42"/>
       <c r="D229" s="23"/>
@@ -19868,7 +21548,7 @@
       <c r="AW230" s="45"/>
     </row>
     <row r="231" ht="18.0" customHeight="1">
-      <c r="A231" s="37"/>
+      <c r="A231" s="41"/>
       <c r="B231" s="42"/>
       <c r="C231" s="42"/>
       <c r="D231" s="23"/>
@@ -19970,7 +21650,7 @@
       <c r="AW232" s="45"/>
     </row>
     <row r="233" ht="18.0" customHeight="1">
-      <c r="A233" s="37"/>
+      <c r="A233" s="41"/>
       <c r="B233" s="42"/>
       <c r="C233" s="42"/>
       <c r="D233" s="23"/>
@@ -20072,7 +21752,7 @@
       <c r="AW234" s="45"/>
     </row>
     <row r="235" ht="18.0" customHeight="1">
-      <c r="A235" s="37"/>
+      <c r="A235" s="41"/>
       <c r="B235" s="42"/>
       <c r="C235" s="42"/>
       <c r="D235" s="23"/>
@@ -20174,7 +21854,7 @@
       <c r="AW236" s="45"/>
     </row>
     <row r="237" ht="18.0" customHeight="1">
-      <c r="A237" s="37"/>
+      <c r="A237" s="41"/>
       <c r="B237" s="42"/>
       <c r="C237" s="42"/>
       <c r="D237" s="23"/>
@@ -20276,7 +21956,7 @@
       <c r="AW238" s="45"/>
     </row>
     <row r="239" ht="18.0" customHeight="1">
-      <c r="A239" s="37"/>
+      <c r="A239" s="41"/>
       <c r="B239" s="42"/>
       <c r="C239" s="42"/>
       <c r="D239" s="23"/>
@@ -20378,7 +22058,7 @@
       <c r="AW240" s="45"/>
     </row>
     <row r="241" ht="18.0" customHeight="1">
-      <c r="A241" s="37"/>
+      <c r="A241" s="41"/>
       <c r="B241" s="42"/>
       <c r="C241" s="42"/>
       <c r="D241" s="23"/>
@@ -20480,7 +22160,7 @@
       <c r="AW242" s="45"/>
     </row>
     <row r="243" ht="18.0" customHeight="1">
-      <c r="A243" s="37"/>
+      <c r="A243" s="41"/>
       <c r="B243" s="42"/>
       <c r="C243" s="42"/>
       <c r="D243" s="23"/>
@@ -20582,7 +22262,7 @@
       <c r="AW244" s="45"/>
     </row>
     <row r="245" ht="18.0" customHeight="1">
-      <c r="A245" s="37"/>
+      <c r="A245" s="41"/>
       <c r="B245" s="42"/>
       <c r="C245" s="42"/>
       <c r="D245" s="23"/>
@@ -20684,7 +22364,7 @@
       <c r="AW246" s="45"/>
     </row>
     <row r="247" ht="18.0" customHeight="1">
-      <c r="A247" s="37"/>
+      <c r="A247" s="41"/>
       <c r="B247" s="42"/>
       <c r="C247" s="42"/>
       <c r="D247" s="23"/>
@@ -20786,7 +22466,7 @@
       <c r="AW248" s="45"/>
     </row>
     <row r="249" ht="18.0" customHeight="1">
-      <c r="A249" s="37"/>
+      <c r="A249" s="41"/>
       <c r="B249" s="42"/>
       <c r="C249" s="42"/>
       <c r="D249" s="23"/>
@@ -20888,7 +22568,7 @@
       <c r="AW250" s="45"/>
     </row>
     <row r="251" ht="18.0" customHeight="1">
-      <c r="A251" s="37"/>
+      <c r="A251" s="41"/>
       <c r="B251" s="42"/>
       <c r="C251" s="42"/>
       <c r="D251" s="23"/>
@@ -20990,7 +22670,7 @@
       <c r="AW252" s="45"/>
     </row>
     <row r="253" ht="18.0" customHeight="1">
-      <c r="A253" s="37"/>
+      <c r="A253" s="41"/>
       <c r="B253" s="42"/>
       <c r="C253" s="42"/>
       <c r="D253" s="23"/>
@@ -21092,7 +22772,7 @@
       <c r="AW254" s="45"/>
     </row>
     <row r="255" ht="18.0" customHeight="1">
-      <c r="A255" s="37"/>
+      <c r="A255" s="41"/>
       <c r="B255" s="42"/>
       <c r="C255" s="42"/>
       <c r="D255" s="23"/>
@@ -21194,7 +22874,7 @@
       <c r="AW256" s="45"/>
     </row>
     <row r="257" ht="18.0" customHeight="1">
-      <c r="A257" s="37"/>
+      <c r="A257" s="41"/>
       <c r="B257" s="42"/>
       <c r="C257" s="42"/>
       <c r="D257" s="23"/>
@@ -21296,7 +22976,7 @@
       <c r="AW258" s="45"/>
     </row>
     <row r="259" ht="18.0" customHeight="1">
-      <c r="A259" s="37"/>
+      <c r="A259" s="41"/>
       <c r="B259" s="42"/>
       <c r="C259" s="46"/>
       <c r="D259" s="23"/>
@@ -21398,7 +23078,7 @@
       <c r="AW260" s="45"/>
     </row>
     <row r="261" ht="18.0" customHeight="1">
-      <c r="A261" s="37"/>
+      <c r="A261" s="41"/>
       <c r="B261" s="42"/>
       <c r="C261" s="42"/>
       <c r="D261" s="23"/>
@@ -21500,7 +23180,7 @@
       <c r="AW262" s="45"/>
     </row>
     <row r="263" ht="18.0" customHeight="1">
-      <c r="A263" s="37"/>
+      <c r="A263" s="41"/>
       <c r="B263" s="42"/>
       <c r="C263" s="42"/>
       <c r="D263" s="23"/>
@@ -21602,7 +23282,7 @@
       <c r="AW264" s="45"/>
     </row>
     <row r="265" ht="18.0" customHeight="1">
-      <c r="A265" s="37"/>
+      <c r="A265" s="41"/>
       <c r="B265" s="42"/>
       <c r="C265" s="42"/>
       <c r="D265" s="23"/>
@@ -21704,7 +23384,7 @@
       <c r="AW266" s="45"/>
     </row>
     <row r="267" ht="18.0" customHeight="1">
-      <c r="A267" s="37"/>
+      <c r="A267" s="41"/>
       <c r="B267" s="42"/>
       <c r="C267" s="42"/>
       <c r="D267" s="23"/>
@@ -21806,7 +23486,7 @@
       <c r="AW268" s="45"/>
     </row>
     <row r="269" ht="18.0" customHeight="1">
-      <c r="A269" s="37"/>
+      <c r="A269" s="41"/>
       <c r="B269" s="42"/>
       <c r="C269" s="42"/>
       <c r="D269" s="23"/>
@@ -21908,7 +23588,7 @@
       <c r="AW270" s="45"/>
     </row>
     <row r="271" ht="18.0" customHeight="1">
-      <c r="A271" s="37"/>
+      <c r="A271" s="41"/>
       <c r="B271" s="42"/>
       <c r="C271" s="42"/>
       <c r="D271" s="23"/>
@@ -22010,7 +23690,7 @@
       <c r="AW272" s="45"/>
     </row>
     <row r="273" ht="18.0" customHeight="1">
-      <c r="A273" s="37"/>
+      <c r="A273" s="41"/>
       <c r="B273" s="42"/>
       <c r="C273" s="42"/>
       <c r="D273" s="23"/>
@@ -22112,7 +23792,7 @@
       <c r="AW274" s="45"/>
     </row>
     <row r="275" ht="18.0" customHeight="1">
-      <c r="A275" s="37"/>
+      <c r="A275" s="41"/>
       <c r="B275" s="42"/>
       <c r="C275" s="42"/>
       <c r="D275" s="23"/>
@@ -22214,7 +23894,7 @@
       <c r="AW276" s="45"/>
     </row>
     <row r="277" ht="18.0" customHeight="1">
-      <c r="A277" s="37"/>
+      <c r="A277" s="41"/>
       <c r="B277" s="42"/>
       <c r="C277" s="42"/>
       <c r="D277" s="23"/>
@@ -22316,7 +23996,7 @@
       <c r="AW278" s="45"/>
     </row>
     <row r="279" ht="18.0" customHeight="1">
-      <c r="A279" s="37"/>
+      <c r="A279" s="41"/>
       <c r="B279" s="42"/>
       <c r="C279" s="42"/>
       <c r="D279" s="23"/>
@@ -22418,7 +24098,7 @@
       <c r="AW280" s="45"/>
     </row>
     <row r="281" ht="18.0" customHeight="1">
-      <c r="A281" s="37"/>
+      <c r="A281" s="41"/>
       <c r="B281" s="42"/>
       <c r="C281" s="42"/>
       <c r="D281" s="23"/>
@@ -22520,7 +24200,7 @@
       <c r="AW282" s="45"/>
     </row>
     <row r="283" ht="18.0" customHeight="1">
-      <c r="A283" s="37"/>
+      <c r="A283" s="41"/>
       <c r="B283" s="42"/>
       <c r="C283" s="42"/>
       <c r="D283" s="23"/>
@@ -22622,7 +24302,7 @@
       <c r="AW284" s="45"/>
     </row>
     <row r="285" ht="18.0" customHeight="1">
-      <c r="A285" s="37"/>
+      <c r="A285" s="41"/>
       <c r="B285" s="42"/>
       <c r="C285" s="42"/>
       <c r="D285" s="23"/>
@@ -22724,7 +24404,7 @@
       <c r="AW286" s="45"/>
     </row>
     <row r="287" ht="18.0" customHeight="1">
-      <c r="A287" s="37"/>
+      <c r="A287" s="41"/>
       <c r="B287" s="42"/>
       <c r="C287" s="42"/>
       <c r="D287" s="23"/>
@@ -22826,7 +24506,7 @@
       <c r="AW288" s="45"/>
     </row>
     <row r="289" ht="18.0" customHeight="1">
-      <c r="A289" s="37"/>
+      <c r="A289" s="41"/>
       <c r="B289" s="42"/>
       <c r="C289" s="42"/>
       <c r="D289" s="23"/>
@@ -22928,7 +24608,7 @@
       <c r="AW290" s="45"/>
     </row>
     <row r="291" ht="18.0" customHeight="1">
-      <c r="A291" s="37"/>
+      <c r="A291" s="41"/>
       <c r="B291" s="42"/>
       <c r="C291" s="42"/>
       <c r="D291" s="23"/>
@@ -23030,7 +24710,7 @@
       <c r="AW292" s="45"/>
     </row>
     <row r="293" ht="18.0" customHeight="1">
-      <c r="A293" s="37"/>
+      <c r="A293" s="41"/>
       <c r="B293" s="42"/>
       <c r="C293" s="42"/>
       <c r="D293" s="23"/>
@@ -23132,7 +24812,7 @@
       <c r="AW294" s="45"/>
     </row>
     <row r="295" ht="18.0" customHeight="1">
-      <c r="A295" s="37"/>
+      <c r="A295" s="41"/>
       <c r="B295" s="42"/>
       <c r="C295" s="42"/>
       <c r="D295" s="23"/>
@@ -23234,7 +24914,7 @@
       <c r="AW296" s="45"/>
     </row>
     <row r="297" ht="18.0" customHeight="1">
-      <c r="A297" s="37"/>
+      <c r="A297" s="41"/>
       <c r="B297" s="42"/>
       <c r="C297" s="42"/>
       <c r="D297" s="23"/>
@@ -23336,7 +25016,7 @@
       <c r="AW298" s="45"/>
     </row>
     <row r="299" ht="18.0" customHeight="1">
-      <c r="A299" s="37"/>
+      <c r="A299" s="41"/>
       <c r="B299" s="42"/>
       <c r="C299" s="42"/>
       <c r="D299" s="23"/>
@@ -23438,7 +25118,7 @@
       <c r="AW300" s="45"/>
     </row>
     <row r="301" ht="18.0" customHeight="1">
-      <c r="A301" s="37"/>
+      <c r="A301" s="41"/>
       <c r="B301" s="42"/>
       <c r="C301" s="42"/>
       <c r="D301" s="23"/>
@@ -23540,7 +25220,7 @@
       <c r="AW302" s="45"/>
     </row>
     <row r="303" ht="18.0" customHeight="1">
-      <c r="A303" s="37"/>
+      <c r="A303" s="41"/>
       <c r="B303" s="42"/>
       <c r="C303" s="42"/>
       <c r="D303" s="23"/>
@@ -23642,7 +25322,7 @@
       <c r="AW304" s="45"/>
     </row>
     <row r="305" ht="18.0" customHeight="1">
-      <c r="A305" s="37"/>
+      <c r="A305" s="41"/>
       <c r="B305" s="42"/>
       <c r="C305" s="42"/>
       <c r="D305" s="23"/>
@@ -23744,7 +25424,7 @@
       <c r="AW306" s="45"/>
     </row>
     <row r="307" ht="18.0" customHeight="1">
-      <c r="A307" s="37"/>
+      <c r="A307" s="41"/>
       <c r="B307" s="42"/>
       <c r="C307" s="42"/>
       <c r="D307" s="23"/>
@@ -23846,7 +25526,7 @@
       <c r="AW308" s="45"/>
     </row>
     <row r="309" ht="18.0" customHeight="1">
-      <c r="A309" s="37"/>
+      <c r="A309" s="41"/>
       <c r="B309" s="42"/>
       <c r="C309" s="42"/>
       <c r="D309" s="23"/>
@@ -23948,7 +25628,7 @@
       <c r="AW310" s="45"/>
     </row>
     <row r="311" ht="18.0" customHeight="1">
-      <c r="A311" s="37"/>
+      <c r="A311" s="41"/>
       <c r="B311" s="42"/>
       <c r="C311" s="42"/>
       <c r="D311" s="23"/>
@@ -24050,7 +25730,7 @@
       <c r="AW312" s="45"/>
     </row>
     <row r="313" ht="18.0" customHeight="1">
-      <c r="A313" s="37"/>
+      <c r="A313" s="41"/>
       <c r="B313" s="42"/>
       <c r="C313" s="42"/>
       <c r="D313" s="23"/>
@@ -24152,7 +25832,7 @@
       <c r="AW314" s="45"/>
     </row>
     <row r="315" ht="18.0" customHeight="1">
-      <c r="A315" s="37"/>
+      <c r="A315" s="41"/>
       <c r="B315" s="42"/>
       <c r="C315" s="42"/>
       <c r="D315" s="23"/>
@@ -24254,7 +25934,7 @@
       <c r="AW316" s="45"/>
     </row>
     <row r="317" ht="18.0" customHeight="1">
-      <c r="A317" s="37"/>
+      <c r="A317" s="41"/>
       <c r="B317" s="42"/>
       <c r="C317" s="42"/>
       <c r="D317" s="23"/>
@@ -24356,7 +26036,7 @@
       <c r="AW318" s="45"/>
     </row>
     <row r="319" ht="18.0" customHeight="1">
-      <c r="A319" s="37"/>
+      <c r="A319" s="41"/>
       <c r="B319" s="42"/>
       <c r="C319" s="42"/>
       <c r="D319" s="23"/>
@@ -24458,7 +26138,7 @@
       <c r="AW320" s="45"/>
     </row>
     <row r="321" ht="18.0" customHeight="1">
-      <c r="A321" s="37"/>
+      <c r="A321" s="41"/>
       <c r="B321" s="42"/>
       <c r="C321" s="42"/>
       <c r="D321" s="23"/>
@@ -24560,7 +26240,7 @@
       <c r="AW322" s="45"/>
     </row>
     <row r="323" ht="18.0" customHeight="1">
-      <c r="A323" s="37"/>
+      <c r="A323" s="41"/>
       <c r="B323" s="42"/>
       <c r="C323" s="42"/>
       <c r="D323" s="23"/>
@@ -24662,7 +26342,7 @@
       <c r="AW324" s="45"/>
     </row>
     <row r="325" ht="18.0" customHeight="1">
-      <c r="A325" s="37"/>
+      <c r="A325" s="41"/>
       <c r="B325" s="42"/>
       <c r="C325" s="42"/>
       <c r="D325" s="23"/>
@@ -24764,7 +26444,7 @@
       <c r="AW326" s="45"/>
     </row>
     <row r="327" ht="18.0" customHeight="1">
-      <c r="A327" s="37"/>
+      <c r="A327" s="41"/>
       <c r="B327" s="42"/>
       <c r="C327" s="42"/>
       <c r="D327" s="23"/>
@@ -24866,7 +26546,7 @@
       <c r="AW328" s="45"/>
     </row>
     <row r="329" ht="18.0" customHeight="1">
-      <c r="A329" s="37"/>
+      <c r="A329" s="41"/>
       <c r="B329" s="42"/>
       <c r="C329" s="42"/>
       <c r="D329" s="23"/>
@@ -24968,7 +26648,7 @@
       <c r="AW330" s="45"/>
     </row>
     <row r="331" ht="18.0" customHeight="1">
-      <c r="A331" s="37"/>
+      <c r="A331" s="41"/>
       <c r="B331" s="42"/>
       <c r="C331" s="42"/>
       <c r="D331" s="23"/>
@@ -25070,7 +26750,7 @@
       <c r="AW332" s="45"/>
     </row>
     <row r="333" ht="18.0" customHeight="1">
-      <c r="A333" s="37"/>
+      <c r="A333" s="41"/>
       <c r="B333" s="42"/>
       <c r="C333" s="42"/>
       <c r="D333" s="23"/>
@@ -25172,7 +26852,7 @@
       <c r="AW334" s="45"/>
     </row>
     <row r="335" ht="18.0" customHeight="1">
-      <c r="A335" s="37"/>
+      <c r="A335" s="41"/>
       <c r="B335" s="42"/>
       <c r="C335" s="42"/>
       <c r="D335" s="23"/>
@@ -25274,7 +26954,7 @@
       <c r="AW336" s="45"/>
     </row>
     <row r="337" ht="18.0" customHeight="1">
-      <c r="A337" s="37"/>
+      <c r="A337" s="41"/>
       <c r="B337" s="42"/>
       <c r="C337" s="42"/>
       <c r="D337" s="23"/>
@@ -25376,7 +27056,7 @@
       <c r="AW338" s="45"/>
     </row>
     <row r="339" ht="18.0" customHeight="1">
-      <c r="A339" s="37"/>
+      <c r="A339" s="41"/>
       <c r="B339" s="42"/>
       <c r="C339" s="42"/>
       <c r="D339" s="23"/>
@@ -25478,7 +27158,7 @@
       <c r="AW340" s="45"/>
     </row>
     <row r="341" ht="18.0" customHeight="1">
-      <c r="A341" s="37"/>
+      <c r="A341" s="41"/>
       <c r="B341" s="42"/>
       <c r="C341" s="42"/>
       <c r="D341" s="23"/>
@@ -25580,7 +27260,7 @@
       <c r="AW342" s="45"/>
     </row>
     <row r="343" ht="18.0" customHeight="1">
-      <c r="A343" s="37"/>
+      <c r="A343" s="41"/>
       <c r="B343" s="42"/>
       <c r="C343" s="42"/>
       <c r="D343" s="23"/>
@@ -25682,7 +27362,7 @@
       <c r="AW344" s="45"/>
     </row>
     <row r="345" ht="18.0" customHeight="1">
-      <c r="A345" s="37"/>
+      <c r="A345" s="41"/>
       <c r="B345" s="42"/>
       <c r="C345" s="46"/>
       <c r="D345" s="23"/>
@@ -25784,7 +27464,7 @@
       <c r="AW346" s="45"/>
     </row>
     <row r="347" ht="18.0" customHeight="1">
-      <c r="A347" s="37"/>
+      <c r="A347" s="41"/>
       <c r="B347" s="42"/>
       <c r="C347" s="42"/>
       <c r="D347" s="23"/>
@@ -25886,7 +27566,7 @@
       <c r="AW348" s="45"/>
     </row>
     <row r="349" ht="18.0" customHeight="1">
-      <c r="A349" s="37"/>
+      <c r="A349" s="41"/>
       <c r="B349" s="42"/>
       <c r="C349" s="42"/>
       <c r="D349" s="23"/>
@@ -25988,7 +27668,7 @@
       <c r="AW350" s="45"/>
     </row>
     <row r="351" ht="18.0" customHeight="1">
-      <c r="A351" s="37"/>
+      <c r="A351" s="41"/>
       <c r="B351" s="42"/>
       <c r="C351" s="42"/>
       <c r="D351" s="23"/>
@@ -26090,7 +27770,7 @@
       <c r="AW352" s="45"/>
     </row>
     <row r="353" ht="18.0" customHeight="1">
-      <c r="A353" s="37"/>
+      <c r="A353" s="41"/>
       <c r="B353" s="42"/>
       <c r="C353" s="42"/>
       <c r="D353" s="23"/>
@@ -26192,7 +27872,7 @@
       <c r="AW354" s="45"/>
     </row>
     <row r="355" ht="18.0" customHeight="1">
-      <c r="A355" s="37"/>
+      <c r="A355" s="41"/>
       <c r="B355" s="42"/>
       <c r="C355" s="42"/>
       <c r="D355" s="23"/>
@@ -26294,7 +27974,7 @@
       <c r="AW356" s="45"/>
     </row>
     <row r="357" ht="18.0" customHeight="1">
-      <c r="A357" s="37"/>
+      <c r="A357" s="41"/>
       <c r="B357" s="42"/>
       <c r="C357" s="42"/>
       <c r="D357" s="23"/>
@@ -26396,7 +28076,7 @@
       <c r="AW358" s="45"/>
     </row>
     <row r="359" ht="18.0" customHeight="1">
-      <c r="A359" s="37"/>
+      <c r="A359" s="41"/>
       <c r="B359" s="42"/>
       <c r="C359" s="42"/>
       <c r="D359" s="23"/>
@@ -26498,7 +28178,7 @@
       <c r="AW360" s="45"/>
     </row>
     <row r="361" ht="18.0" customHeight="1">
-      <c r="A361" s="37"/>
+      <c r="A361" s="41"/>
       <c r="B361" s="42"/>
       <c r="C361" s="42"/>
       <c r="D361" s="23"/>
@@ -26600,7 +28280,7 @@
       <c r="AW362" s="45"/>
     </row>
     <row r="363" ht="18.0" customHeight="1">
-      <c r="A363" s="37"/>
+      <c r="A363" s="41"/>
       <c r="B363" s="42"/>
       <c r="C363" s="42"/>
       <c r="D363" s="23"/>
@@ -26702,7 +28382,7 @@
       <c r="AW364" s="45"/>
     </row>
     <row r="365" ht="18.0" customHeight="1">
-      <c r="A365" s="37"/>
+      <c r="A365" s="41"/>
       <c r="B365" s="42"/>
       <c r="C365" s="42"/>
       <c r="D365" s="23"/>
@@ -26804,7 +28484,7 @@
       <c r="AW366" s="45"/>
     </row>
     <row r="367" ht="18.0" customHeight="1">
-      <c r="A367" s="37"/>
+      <c r="A367" s="41"/>
       <c r="B367" s="42"/>
       <c r="C367" s="42"/>
       <c r="D367" s="23"/>
@@ -26906,7 +28586,7 @@
       <c r="AW368" s="45"/>
     </row>
     <row r="369" ht="18.0" customHeight="1">
-      <c r="A369" s="37"/>
+      <c r="A369" s="41"/>
       <c r="B369" s="42"/>
       <c r="C369" s="42"/>
       <c r="D369" s="23"/>
@@ -27008,7 +28688,7 @@
       <c r="AW370" s="45"/>
     </row>
     <row r="371" ht="18.0" customHeight="1">
-      <c r="A371" s="37"/>
+      <c r="A371" s="41"/>
       <c r="B371" s="42"/>
       <c r="C371" s="42"/>
       <c r="D371" s="23"/>
@@ -27110,7 +28790,7 @@
       <c r="AW372" s="45"/>
     </row>
     <row r="373" ht="18.0" customHeight="1">
-      <c r="A373" s="37"/>
+      <c r="A373" s="41"/>
       <c r="B373" s="42"/>
       <c r="C373" s="42"/>
       <c r="D373" s="23"/>
@@ -27212,7 +28892,7 @@
       <c r="AW374" s="45"/>
     </row>
     <row r="375" ht="18.0" customHeight="1">
-      <c r="A375" s="37"/>
+      <c r="A375" s="41"/>
       <c r="B375" s="42"/>
       <c r="C375" s="42"/>
       <c r="D375" s="23"/>
@@ -27314,7 +28994,7 @@
       <c r="AW376" s="45"/>
     </row>
     <row r="377" ht="18.0" customHeight="1">
-      <c r="A377" s="37"/>
+      <c r="A377" s="41"/>
       <c r="B377" s="42"/>
       <c r="C377" s="42"/>
       <c r="D377" s="23"/>
@@ -27416,7 +29096,7 @@
       <c r="AW378" s="45"/>
     </row>
     <row r="379" ht="18.0" customHeight="1">
-      <c r="A379" s="37"/>
+      <c r="A379" s="41"/>
       <c r="B379" s="42"/>
       <c r="C379" s="42"/>
       <c r="D379" s="23"/>
@@ -27518,7 +29198,7 @@
       <c r="AW380" s="45"/>
     </row>
     <row r="381" ht="18.0" customHeight="1">
-      <c r="A381" s="37"/>
+      <c r="A381" s="41"/>
       <c r="B381" s="42"/>
       <c r="C381" s="42"/>
       <c r="D381" s="23"/>
@@ -27620,7 +29300,7 @@
       <c r="AW382" s="45"/>
     </row>
     <row r="383" ht="18.0" customHeight="1">
-      <c r="A383" s="37"/>
+      <c r="A383" s="41"/>
       <c r="B383" s="42"/>
       <c r="C383" s="42"/>
       <c r="D383" s="23"/>
@@ -27722,7 +29402,7 @@
       <c r="AW384" s="45"/>
     </row>
     <row r="385" ht="18.0" customHeight="1">
-      <c r="A385" s="37"/>
+      <c r="A385" s="41"/>
       <c r="B385" s="42"/>
       <c r="C385" s="42"/>
       <c r="D385" s="23"/>
@@ -27824,7 +29504,7 @@
       <c r="AW386" s="45"/>
     </row>
     <row r="387" ht="18.0" customHeight="1">
-      <c r="A387" s="37"/>
+      <c r="A387" s="41"/>
       <c r="B387" s="42"/>
       <c r="C387" s="42"/>
       <c r="D387" s="23"/>
@@ -27926,7 +29606,7 @@
       <c r="AW388" s="45"/>
     </row>
     <row r="389" ht="18.0" customHeight="1">
-      <c r="A389" s="37"/>
+      <c r="A389" s="41"/>
       <c r="B389" s="42"/>
       <c r="C389" s="42"/>
       <c r="D389" s="23"/>
@@ -28028,7 +29708,7 @@
       <c r="AW390" s="45"/>
     </row>
     <row r="391" ht="18.0" customHeight="1">
-      <c r="A391" s="37"/>
+      <c r="A391" s="41"/>
       <c r="B391" s="42"/>
       <c r="C391" s="42"/>
       <c r="D391" s="23"/>
@@ -28130,7 +29810,7 @@
       <c r="AW392" s="45"/>
     </row>
     <row r="393" ht="18.0" customHeight="1">
-      <c r="A393" s="37"/>
+      <c r="A393" s="41"/>
       <c r="B393" s="42"/>
       <c r="C393" s="42"/>
       <c r="D393" s="23"/>
@@ -28232,7 +29912,7 @@
       <c r="AW394" s="45"/>
     </row>
     <row r="395" ht="18.0" customHeight="1">
-      <c r="A395" s="37"/>
+      <c r="A395" s="41"/>
       <c r="B395" s="42"/>
       <c r="C395" s="42"/>
       <c r="D395" s="23"/>
@@ -28334,7 +30014,7 @@
       <c r="AW396" s="45"/>
     </row>
     <row r="397" ht="18.0" customHeight="1">
-      <c r="A397" s="37"/>
+      <c r="A397" s="41"/>
       <c r="B397" s="42"/>
       <c r="C397" s="42"/>
       <c r="D397" s="23"/>
@@ -28436,7 +30116,7 @@
       <c r="AW398" s="45"/>
     </row>
     <row r="399" ht="18.0" customHeight="1">
-      <c r="A399" s="37"/>
+      <c r="A399" s="41"/>
       <c r="B399" s="42"/>
       <c r="C399" s="42"/>
       <c r="D399" s="23"/>
@@ -28538,7 +30218,7 @@
       <c r="AW400" s="45"/>
     </row>
     <row r="401" ht="18.0" customHeight="1">
-      <c r="A401" s="37"/>
+      <c r="A401" s="41"/>
       <c r="B401" s="42"/>
       <c r="C401" s="42"/>
       <c r="D401" s="23"/>
@@ -28640,7 +30320,7 @@
       <c r="AW402" s="45"/>
     </row>
     <row r="403" ht="18.0" customHeight="1">
-      <c r="A403" s="37"/>
+      <c r="A403" s="41"/>
       <c r="B403" s="42"/>
       <c r="C403" s="42"/>
       <c r="D403" s="23"/>
@@ -28742,7 +30422,7 @@
       <c r="AW404" s="45"/>
     </row>
     <row r="405" ht="18.0" customHeight="1">
-      <c r="A405" s="37"/>
+      <c r="A405" s="41"/>
       <c r="B405" s="42"/>
       <c r="C405" s="42"/>
       <c r="D405" s="23"/>
@@ -28844,7 +30524,7 @@
       <c r="AW406" s="45"/>
     </row>
     <row r="407" ht="18.0" customHeight="1">
-      <c r="A407" s="37"/>
+      <c r="A407" s="41"/>
       <c r="B407" s="42"/>
       <c r="C407" s="42"/>
       <c r="D407" s="23"/>
@@ -28946,7 +30626,7 @@
       <c r="AW408" s="45"/>
     </row>
     <row r="409" ht="18.0" customHeight="1">
-      <c r="A409" s="37"/>
+      <c r="A409" s="41"/>
       <c r="B409" s="42"/>
       <c r="C409" s="42"/>
       <c r="D409" s="23"/>
@@ -29048,7 +30728,7 @@
       <c r="AW410" s="45"/>
     </row>
     <row r="411" ht="18.0" customHeight="1">
-      <c r="A411" s="37"/>
+      <c r="A411" s="41"/>
       <c r="B411" s="42"/>
       <c r="C411" s="42"/>
       <c r="D411" s="23"/>
@@ -29150,7 +30830,7 @@
       <c r="AW412" s="45"/>
     </row>
     <row r="413" ht="18.0" customHeight="1">
-      <c r="A413" s="37"/>
+      <c r="A413" s="41"/>
       <c r="B413" s="42"/>
       <c r="C413" s="42"/>
       <c r="D413" s="23"/>
@@ -29252,7 +30932,7 @@
       <c r="AW414" s="45"/>
     </row>
     <row r="415" ht="18.0" customHeight="1">
-      <c r="A415" s="37"/>
+      <c r="A415" s="41"/>
       <c r="B415" s="42"/>
       <c r="C415" s="42"/>
       <c r="D415" s="23"/>
@@ -29354,7 +31034,7 @@
       <c r="AW416" s="45"/>
     </row>
     <row r="417" ht="18.0" customHeight="1">
-      <c r="A417" s="37"/>
+      <c r="A417" s="41"/>
       <c r="B417" s="42"/>
       <c r="C417" s="42"/>
       <c r="D417" s="23"/>
@@ -29456,7 +31136,7 @@
       <c r="AW418" s="45"/>
     </row>
     <row r="419" ht="18.0" customHeight="1">
-      <c r="A419" s="37"/>
+      <c r="A419" s="41"/>
       <c r="B419" s="42"/>
       <c r="C419" s="42"/>
       <c r="D419" s="23"/>
@@ -29558,7 +31238,7 @@
       <c r="AW420" s="45"/>
     </row>
     <row r="421" ht="18.0" customHeight="1">
-      <c r="A421" s="37"/>
+      <c r="A421" s="41"/>
       <c r="B421" s="42"/>
       <c r="C421" s="42"/>
       <c r="D421" s="23"/>
@@ -29660,7 +31340,7 @@
       <c r="AW422" s="45"/>
     </row>
     <row r="423" ht="18.0" customHeight="1">
-      <c r="A423" s="37"/>
+      <c r="A423" s="41"/>
       <c r="B423" s="42"/>
       <c r="C423" s="42"/>
       <c r="D423" s="23"/>
@@ -29762,7 +31442,7 @@
       <c r="AW424" s="45"/>
     </row>
     <row r="425" ht="18.0" customHeight="1">
-      <c r="A425" s="37"/>
+      <c r="A425" s="41"/>
       <c r="B425" s="42"/>
       <c r="C425" s="42"/>
       <c r="D425" s="23"/>
@@ -29864,7 +31544,7 @@
       <c r="AW426" s="45"/>
     </row>
     <row r="427" ht="18.0" customHeight="1">
-      <c r="A427" s="37"/>
+      <c r="A427" s="41"/>
       <c r="B427" s="42"/>
       <c r="C427" s="42"/>
       <c r="D427" s="23"/>
@@ -29966,7 +31646,7 @@
       <c r="AW428" s="45"/>
     </row>
     <row r="429" ht="18.0" customHeight="1">
-      <c r="A429" s="37"/>
+      <c r="A429" s="41"/>
       <c r="B429" s="42"/>
       <c r="C429" s="42"/>
       <c r="D429" s="23"/>
@@ -30068,7 +31748,7 @@
       <c r="AW430" s="45"/>
     </row>
     <row r="431" ht="18.0" customHeight="1">
-      <c r="A431" s="37"/>
+      <c r="A431" s="41"/>
       <c r="B431" s="42"/>
       <c r="C431" s="42"/>
       <c r="D431" s="23"/>
@@ -30170,7 +31850,7 @@
       <c r="AW432" s="45"/>
     </row>
     <row r="433" ht="18.0" customHeight="1">
-      <c r="A433" s="37"/>
+      <c r="A433" s="41"/>
       <c r="B433" s="42"/>
       <c r="C433" s="42"/>
       <c r="D433" s="23"/>
@@ -30272,7 +31952,7 @@
       <c r="AW434" s="45"/>
     </row>
     <row r="435" ht="18.0" customHeight="1">
-      <c r="A435" s="37"/>
+      <c r="A435" s="41"/>
       <c r="B435" s="42"/>
       <c r="C435" s="42"/>
       <c r="D435" s="23"/>
@@ -30374,7 +32054,7 @@
       <c r="AW436" s="45"/>
     </row>
     <row r="437" ht="18.0" customHeight="1">
-      <c r="A437" s="37"/>
+      <c r="A437" s="41"/>
       <c r="B437" s="42"/>
       <c r="C437" s="42"/>
       <c r="D437" s="23"/>
@@ -30476,7 +32156,7 @@
       <c r="AW438" s="45"/>
     </row>
     <row r="439" ht="18.0" customHeight="1">
-      <c r="A439" s="37"/>
+      <c r="A439" s="41"/>
       <c r="B439" s="42"/>
       <c r="C439" s="42"/>
       <c r="D439" s="23"/>
@@ -30578,7 +32258,7 @@
       <c r="AW440" s="45"/>
     </row>
     <row r="441" ht="18.0" customHeight="1">
-      <c r="A441" s="37"/>
+      <c r="A441" s="41"/>
       <c r="B441" s="42"/>
       <c r="C441" s="42"/>
       <c r="D441" s="23"/>
@@ -30680,7 +32360,7 @@
       <c r="AW442" s="45"/>
     </row>
     <row r="443" ht="18.0" customHeight="1">
-      <c r="A443" s="37"/>
+      <c r="A443" s="41"/>
       <c r="B443" s="42"/>
       <c r="C443" s="42"/>
       <c r="D443" s="23"/>
@@ -30782,7 +32462,7 @@
       <c r="AW444" s="45"/>
     </row>
     <row r="445" ht="18.0" customHeight="1">
-      <c r="A445" s="37"/>
+      <c r="A445" s="41"/>
       <c r="B445" s="42"/>
       <c r="C445" s="42"/>
       <c r="D445" s="23"/>
@@ -30884,7 +32564,7 @@
       <c r="AW446" s="45"/>
     </row>
     <row r="447" ht="18.0" customHeight="1">
-      <c r="A447" s="37"/>
+      <c r="A447" s="41"/>
       <c r="B447" s="42"/>
       <c r="C447" s="42"/>
       <c r="D447" s="23"/>
@@ -30986,7 +32666,7 @@
       <c r="AW448" s="45"/>
     </row>
     <row r="449" ht="18.0" customHeight="1">
-      <c r="A449" s="37"/>
+      <c r="A449" s="41"/>
       <c r="B449" s="42"/>
       <c r="C449" s="42"/>
       <c r="D449" s="23"/>
@@ -31088,7 +32768,7 @@
       <c r="AW450" s="45"/>
     </row>
     <row r="451" ht="18.0" customHeight="1">
-      <c r="A451" s="37"/>
+      <c r="A451" s="41"/>
       <c r="B451" s="42"/>
       <c r="C451" s="42"/>
       <c r="D451" s="23"/>
@@ -31190,7 +32870,7 @@
       <c r="AW452" s="45"/>
     </row>
     <row r="453" ht="18.0" customHeight="1">
-      <c r="A453" s="37"/>
+      <c r="A453" s="41"/>
       <c r="B453" s="42"/>
       <c r="C453" s="42"/>
       <c r="D453" s="23"/>

--- a/Result_Regular.xlsx
+++ b/Result_Regular.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="GDur7uR0PmJUQrF9WRPvpFWzX8W2V5f6QS1Tfa6ilPE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9UNnZ7iVNFCu10aji/aMqp7sh9uFW7oALr3JrkWDbmM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="386">
   <si>
     <t>Sl.No</t>
   </si>
@@ -1067,6 +1067,114 @@
   <si>
     <t>SRI RAMOJU THRISHOOL</t>
   </si>
+  <si>
+    <t>2401100CSE0120</t>
+  </si>
+  <si>
+    <t>BATTHINI VIGNESH</t>
+  </si>
+  <si>
+    <t>2401100CSE0125</t>
+  </si>
+  <si>
+    <t>CH SRIKAR REDDY</t>
+  </si>
+  <si>
+    <t>2401100CSE0136</t>
+  </si>
+  <si>
+    <t>K MOHIT VARMA</t>
+  </si>
+  <si>
+    <t>2401100CSE0164</t>
+  </si>
+  <si>
+    <t>SIRIPELLI YASWANTH</t>
+  </si>
+  <si>
+    <t>2401100CSE0208</t>
+  </si>
+  <si>
+    <t>MUTYALA MAHENDRA CHOWDARY</t>
+  </si>
+  <si>
+    <t>2401100CSE0232</t>
+  </si>
+  <si>
+    <t>VIGRAM MANIKANTA GOUD</t>
+  </si>
+  <si>
+    <t>2401100CSE0237</t>
+  </si>
+  <si>
+    <t>AMUDALA SIRI</t>
+  </si>
+  <si>
+    <t>2401100CSE0249</t>
+  </si>
+  <si>
+    <t>K V SANJAY</t>
+  </si>
+  <si>
+    <t>2401100CSE0251</t>
+  </si>
+  <si>
+    <t>KANTALE SURYA</t>
+  </si>
+  <si>
+    <t>2401100CSE0257</t>
+  </si>
+  <si>
+    <t>KODIPYAKA SHANTHAN</t>
+  </si>
+  <si>
+    <t>2401100CSE0263</t>
+  </si>
+  <si>
+    <t>MAYALURU MANOJ KUMAR REDDY</t>
+  </si>
+  <si>
+    <t>24011CSEAI0050</t>
+  </si>
+  <si>
+    <t>TODUPUNOORI KEDHAR</t>
+  </si>
+  <si>
+    <t>24011CSEAI0055</t>
+  </si>
+  <si>
+    <t>AMRUTWAD SHANMUKH AARYAN</t>
+  </si>
+  <si>
+    <t>24011CSEAI0061</t>
+  </si>
+  <si>
+    <t>DESHETTI VIVEK</t>
+  </si>
+  <si>
+    <t>24011CSEAI0063</t>
+  </si>
+  <si>
+    <t>EERAVENI RANAHITHA</t>
+  </si>
+  <si>
+    <t>24011CSEAI0095</t>
+  </si>
+  <si>
+    <t>SANA SRINITH</t>
+  </si>
+  <si>
+    <t>24011CSEAI0104</t>
+  </si>
+  <si>
+    <t>VEMULA HARSHATHREYA</t>
+  </si>
+  <si>
+    <t>24011CSEAI0129</t>
+  </si>
+  <si>
+    <t>KONAKALLA REVANTH</t>
+  </si>
 </sst>
 </file>
 
@@ -12898,7 +13006,9 @@
       </c>
     </row>
     <row r="91" ht="18.0" customHeight="1">
-      <c r="A91" s="41"/>
+      <c r="A91" s="10">
+        <v>89.0</v>
+      </c>
       <c r="B91" s="30" t="s">
         <v>308</v>
       </c>
@@ -13021,7 +13131,9 @@
       </c>
     </row>
     <row r="92" ht="18.0" customHeight="1">
-      <c r="A92" s="23"/>
+      <c r="A92" s="10">
+        <v>90.0</v>
+      </c>
       <c r="B92" s="30" t="s">
         <v>310</v>
       </c>
@@ -13144,7 +13256,9 @@
       </c>
     </row>
     <row r="93" ht="18.0" customHeight="1">
-      <c r="A93" s="41"/>
+      <c r="A93" s="10">
+        <v>91.0</v>
+      </c>
       <c r="B93" s="30" t="s">
         <v>312</v>
       </c>
@@ -13267,7 +13381,9 @@
       </c>
     </row>
     <row r="94" ht="18.0" customHeight="1">
-      <c r="A94" s="23"/>
+      <c r="A94" s="10">
+        <v>92.0</v>
+      </c>
       <c r="B94" s="30" t="s">
         <v>314</v>
       </c>
@@ -13390,7 +13506,9 @@
       </c>
     </row>
     <row r="95" ht="18.0" customHeight="1">
-      <c r="A95" s="41"/>
+      <c r="A95" s="10">
+        <v>93.0</v>
+      </c>
       <c r="B95" s="30" t="s">
         <v>316</v>
       </c>
@@ -13513,7 +13631,9 @@
       </c>
     </row>
     <row r="96" ht="18.0" customHeight="1">
-      <c r="A96" s="23"/>
+      <c r="A96" s="10">
+        <v>94.0</v>
+      </c>
       <c r="B96" s="30" t="s">
         <v>318</v>
       </c>
@@ -13636,7 +13756,9 @@
       </c>
     </row>
     <row r="97" ht="18.0" customHeight="1">
-      <c r="A97" s="41"/>
+      <c r="A97" s="10">
+        <v>95.0</v>
+      </c>
       <c r="B97" s="30" t="s">
         <v>320</v>
       </c>
@@ -13759,7 +13881,9 @@
       </c>
     </row>
     <row r="98" ht="18.0" customHeight="1">
-      <c r="A98" s="23"/>
+      <c r="A98" s="10">
+        <v>96.0</v>
+      </c>
       <c r="B98" s="30" t="s">
         <v>322</v>
       </c>
@@ -13882,7 +14006,9 @@
       </c>
     </row>
     <row r="99" ht="18.0" customHeight="1">
-      <c r="A99" s="41"/>
+      <c r="A99" s="10">
+        <v>97.0</v>
+      </c>
       <c r="B99" s="30" t="s">
         <v>324</v>
       </c>
@@ -14005,7 +14131,9 @@
       </c>
     </row>
     <row r="100" ht="18.0" customHeight="1">
-      <c r="A100" s="23"/>
+      <c r="A100" s="10">
+        <v>98.0</v>
+      </c>
       <c r="B100" s="30" t="s">
         <v>326</v>
       </c>
@@ -14128,7 +14256,9 @@
       </c>
     </row>
     <row r="101" ht="18.0" customHeight="1">
-      <c r="A101" s="41"/>
+      <c r="A101" s="10">
+        <v>99.0</v>
+      </c>
       <c r="B101" s="30" t="s">
         <v>328</v>
       </c>
@@ -14251,7 +14381,9 @@
       </c>
     </row>
     <row r="102" ht="18.0" customHeight="1">
-      <c r="A102" s="23"/>
+      <c r="A102" s="10">
+        <v>100.0</v>
+      </c>
       <c r="B102" s="30" t="s">
         <v>330</v>
       </c>
@@ -14374,7 +14506,9 @@
       </c>
     </row>
     <row r="103" ht="18.0" customHeight="1">
-      <c r="A103" s="41"/>
+      <c r="A103" s="10">
+        <v>101.0</v>
+      </c>
       <c r="B103" s="30" t="s">
         <v>332</v>
       </c>
@@ -14497,7 +14631,9 @@
       </c>
     </row>
     <row r="104" ht="18.0" customHeight="1">
-      <c r="A104" s="23"/>
+      <c r="A104" s="10">
+        <v>102.0</v>
+      </c>
       <c r="B104" s="30" t="s">
         <v>334</v>
       </c>
@@ -14620,7 +14756,9 @@
       </c>
     </row>
     <row r="105" ht="18.0" customHeight="1">
-      <c r="A105" s="41"/>
+      <c r="A105" s="10">
+        <v>103.0</v>
+      </c>
       <c r="B105" s="30" t="s">
         <v>336</v>
       </c>
@@ -14743,7 +14881,9 @@
       </c>
     </row>
     <row r="106" ht="18.0" customHeight="1">
-      <c r="A106" s="23"/>
+      <c r="A106" s="10">
+        <v>104.0</v>
+      </c>
       <c r="B106" s="30" t="s">
         <v>338</v>
       </c>
@@ -14866,7 +15006,9 @@
       </c>
     </row>
     <row r="107" ht="18.0" customHeight="1">
-      <c r="A107" s="41"/>
+      <c r="A107" s="10">
+        <v>105.0</v>
+      </c>
       <c r="B107" s="30" t="s">
         <v>340</v>
       </c>
@@ -14989,7 +15131,9 @@
       </c>
     </row>
     <row r="108" ht="18.0" customHeight="1">
-      <c r="A108" s="23"/>
+      <c r="A108" s="10">
+        <v>106.0</v>
+      </c>
       <c r="B108" s="30" t="s">
         <v>342</v>
       </c>
@@ -15112,7 +15256,9 @@
       </c>
     </row>
     <row r="109" ht="18.0" customHeight="1">
-      <c r="A109" s="41"/>
+      <c r="A109" s="10">
+        <v>107.0</v>
+      </c>
       <c r="B109" s="30" t="s">
         <v>344</v>
       </c>
@@ -15235,7 +15381,9 @@
       </c>
     </row>
     <row r="110" ht="18.0" customHeight="1">
-      <c r="A110" s="23"/>
+      <c r="A110" s="10">
+        <v>108.0</v>
+      </c>
       <c r="B110" s="30" t="s">
         <v>346</v>
       </c>
@@ -15358,7 +15506,9 @@
       </c>
     </row>
     <row r="111" ht="18.0" customHeight="1">
-      <c r="A111" s="41"/>
+      <c r="A111" s="10">
+        <v>109.0</v>
+      </c>
       <c r="B111" s="30" t="s">
         <v>348</v>
       </c>
@@ -15374,7 +15524,9 @@
       <c r="F111" s="32">
         <v>4.0</v>
       </c>
-      <c r="G111" s="24"/>
+      <c r="G111" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="H111" s="31" t="s">
         <v>22</v>
       </c>
@@ -15480,924 +15632,2220 @@
     </row>
     <row r="112" ht="18.0" customHeight="1">
       <c r="A112" s="23"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="24"/>
-      <c r="O112" s="24"/>
+      <c r="B112" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I112" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J112" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K112" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L112" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M112" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N112" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O112" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P112" s="23"/>
       <c r="Q112" s="24"/>
       <c r="R112" s="24"/>
-      <c r="S112" s="24"/>
-      <c r="T112" s="28"/>
-      <c r="U112" s="29"/>
-      <c r="V112" s="29"/>
-      <c r="W112" s="24"/>
-      <c r="X112" s="23"/>
-      <c r="Y112" s="23"/>
-      <c r="Z112" s="23"/>
-      <c r="AA112" s="24"/>
-      <c r="AB112" s="23"/>
-      <c r="AC112" s="24"/>
-      <c r="AD112" s="24"/>
-      <c r="AE112" s="24"/>
-      <c r="AF112" s="23"/>
-      <c r="AG112" s="24"/>
-      <c r="AH112" s="24"/>
-      <c r="AI112" s="24"/>
-      <c r="AJ112" s="23"/>
-      <c r="AK112" s="24"/>
-      <c r="AL112" s="24"/>
-      <c r="AM112" s="24"/>
-      <c r="AN112" s="44"/>
-      <c r="AO112" s="43"/>
-      <c r="AP112" s="43"/>
-      <c r="AQ112" s="43"/>
+      <c r="S112" s="23"/>
+      <c r="T112" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="U112" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="V112" s="40">
+        <v>3.0</v>
+      </c>
+      <c r="W112" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X112" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y112" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z112" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA112" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB112" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC112" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD112" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE112" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF112" s="31"/>
+      <c r="AG112" s="32"/>
+      <c r="AH112" s="32"/>
+      <c r="AI112" s="23"/>
+      <c r="AJ112" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK112" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL112" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM112" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN112" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO112" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP112" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ112" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR112" s="23"/>
       <c r="AS112" s="24"/>
       <c r="AT112" s="24"/>
       <c r="AU112" s="24"/>
-      <c r="AV112" s="45"/>
-      <c r="AW112" s="45"/>
+      <c r="AV112" s="36">
+        <v>8.64</v>
+      </c>
+      <c r="AW112" s="36">
+        <v>8.65</v>
+      </c>
     </row>
     <row r="113" ht="18.0" customHeight="1">
       <c r="A113" s="41"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="24"/>
+      <c r="B113" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I113" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J113" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="K113" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L113" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="M113" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N113" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="O113" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P113" s="23"/>
       <c r="Q113" s="24"/>
       <c r="R113" s="24"/>
-      <c r="S113" s="24"/>
-      <c r="T113" s="23"/>
-      <c r="U113" s="24"/>
-      <c r="V113" s="24"/>
-      <c r="W113" s="24"/>
-      <c r="X113" s="23"/>
-      <c r="Y113" s="23"/>
-      <c r="Z113" s="23"/>
-      <c r="AA113" s="24"/>
-      <c r="AB113" s="23"/>
-      <c r="AC113" s="24"/>
-      <c r="AD113" s="24"/>
-      <c r="AE113" s="24"/>
-      <c r="AF113" s="23"/>
-      <c r="AG113" s="24"/>
-      <c r="AH113" s="24"/>
-      <c r="AI113" s="24"/>
-      <c r="AJ113" s="23"/>
-      <c r="AK113" s="24"/>
-      <c r="AL113" s="24"/>
-      <c r="AM113" s="24"/>
-      <c r="AN113" s="44"/>
-      <c r="AO113" s="43"/>
-      <c r="AP113" s="43"/>
-      <c r="AQ113" s="43"/>
+      <c r="S113" s="23"/>
+      <c r="T113" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="U113" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="V113" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="W113" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X113" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y113" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z113" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA113" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB113" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC113" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD113" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE113" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF113" s="31"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="23"/>
+      <c r="AJ113" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK113" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL113" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM113" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN113" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO113" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP113" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ113" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR113" s="23"/>
       <c r="AS113" s="24"/>
       <c r="AT113" s="24"/>
       <c r="AU113" s="24"/>
-      <c r="AV113" s="45"/>
-      <c r="AW113" s="45"/>
+      <c r="AV113" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="AW113" s="36">
+        <v>4.77</v>
+      </c>
     </row>
     <row r="114" ht="18.0" customHeight="1">
       <c r="A114" s="23"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="43"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="24"/>
-      <c r="N114" s="24"/>
-      <c r="O114" s="24"/>
+      <c r="B114" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J114" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K114" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L114" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M114" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N114" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O114" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P114" s="23"/>
       <c r="Q114" s="24"/>
       <c r="R114" s="24"/>
-      <c r="S114" s="24"/>
-      <c r="T114" s="23"/>
-      <c r="U114" s="24"/>
-      <c r="V114" s="24"/>
-      <c r="W114" s="24"/>
-      <c r="X114" s="23"/>
-      <c r="Y114" s="23"/>
-      <c r="Z114" s="23"/>
-      <c r="AA114" s="24"/>
-      <c r="AB114" s="23"/>
-      <c r="AC114" s="24"/>
-      <c r="AD114" s="24"/>
-      <c r="AE114" s="24"/>
-      <c r="AF114" s="23"/>
-      <c r="AG114" s="24"/>
-      <c r="AH114" s="24"/>
-      <c r="AI114" s="24"/>
-      <c r="AJ114" s="23"/>
-      <c r="AK114" s="24"/>
-      <c r="AL114" s="24"/>
-      <c r="AM114" s="24"/>
-      <c r="AN114" s="44"/>
-      <c r="AO114" s="43"/>
-      <c r="AP114" s="43"/>
-      <c r="AQ114" s="43"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U114" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V114" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W114" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X114" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y114" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z114" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA114" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB114" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC114" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD114" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE114" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF114" s="31"/>
+      <c r="AG114" s="32"/>
+      <c r="AH114" s="32"/>
+      <c r="AI114" s="23"/>
+      <c r="AJ114" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK114" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL114" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM114" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN114" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO114" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP114" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ114" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR114" s="23"/>
       <c r="AS114" s="24"/>
       <c r="AT114" s="24"/>
       <c r="AU114" s="24"/>
-      <c r="AV114" s="45"/>
-      <c r="AW114" s="45"/>
+      <c r="AV114" s="36">
+        <v>6.91</v>
+      </c>
+      <c r="AW114" s="36">
+        <v>7.31</v>
+      </c>
     </row>
     <row r="115" ht="18.0" customHeight="1">
       <c r="A115" s="41"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="43"/>
-      <c r="K115" s="43"/>
-      <c r="L115" s="23"/>
-      <c r="M115" s="24"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="24"/>
+      <c r="B115" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I115" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J115" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="K115" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N115" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O115" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P115" s="23"/>
       <c r="Q115" s="24"/>
       <c r="R115" s="24"/>
-      <c r="S115" s="24"/>
-      <c r="T115" s="23"/>
-      <c r="U115" s="24"/>
-      <c r="V115" s="24"/>
-      <c r="W115" s="24"/>
-      <c r="X115" s="23"/>
-      <c r="Y115" s="23"/>
-      <c r="Z115" s="23"/>
-      <c r="AA115" s="24"/>
-      <c r="AB115" s="23"/>
-      <c r="AC115" s="24"/>
-      <c r="AD115" s="24"/>
-      <c r="AE115" s="24"/>
-      <c r="AF115" s="23"/>
-      <c r="AG115" s="24"/>
-      <c r="AH115" s="24"/>
-      <c r="AI115" s="24"/>
-      <c r="AJ115" s="23"/>
-      <c r="AK115" s="24"/>
-      <c r="AL115" s="24"/>
-      <c r="AM115" s="24"/>
-      <c r="AN115" s="44"/>
-      <c r="AO115" s="43"/>
-      <c r="AP115" s="43"/>
-      <c r="AQ115" s="43"/>
+      <c r="S115" s="23"/>
+      <c r="T115" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U115" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V115" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W115" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X115" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y115" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z115" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA115" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB115" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC115" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD115" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AE115" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF115" s="31"/>
+      <c r="AG115" s="32"/>
+      <c r="AH115" s="32"/>
+      <c r="AI115" s="23"/>
+      <c r="AJ115" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK115" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL115" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM115" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN115" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO115" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP115" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ115" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR115" s="23"/>
       <c r="AS115" s="24"/>
       <c r="AT115" s="24"/>
       <c r="AU115" s="24"/>
-      <c r="AV115" s="45"/>
-      <c r="AW115" s="45"/>
+      <c r="AV115" s="36">
+        <v>6.1</v>
+      </c>
+      <c r="AW115" s="36">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="116" ht="18.0" customHeight="1">
       <c r="A116" s="23"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="43"/>
-      <c r="K116" s="43"/>
-      <c r="L116" s="23"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="24"/>
-      <c r="O116" s="24"/>
+      <c r="B116" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H116" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I116" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K116" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L116" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M116" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N116" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O116" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P116" s="23"/>
       <c r="Q116" s="24"/>
       <c r="R116" s="24"/>
-      <c r="S116" s="24"/>
-      <c r="T116" s="23"/>
-      <c r="U116" s="24"/>
-      <c r="V116" s="24"/>
-      <c r="W116" s="24"/>
-      <c r="X116" s="23"/>
-      <c r="Y116" s="23"/>
-      <c r="Z116" s="23"/>
-      <c r="AA116" s="24"/>
-      <c r="AB116" s="23"/>
-      <c r="AC116" s="24"/>
-      <c r="AD116" s="24"/>
-      <c r="AE116" s="24"/>
-      <c r="AF116" s="23"/>
-      <c r="AG116" s="24"/>
-      <c r="AH116" s="24"/>
-      <c r="AI116" s="24"/>
-      <c r="AJ116" s="23"/>
-      <c r="AK116" s="24"/>
-      <c r="AL116" s="24"/>
-      <c r="AM116" s="24"/>
-      <c r="AN116" s="44"/>
-      <c r="AO116" s="43"/>
-      <c r="AP116" s="43"/>
-      <c r="AQ116" s="43"/>
+      <c r="S116" s="23"/>
+      <c r="T116" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U116" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="V116" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="W116" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X116" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y116" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z116" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA116" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB116" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC116" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD116" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="AE116" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF116" s="31"/>
+      <c r="AG116" s="32"/>
+      <c r="AH116" s="32"/>
+      <c r="AI116" s="23"/>
+      <c r="AJ116" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK116" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL116" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM116" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN116" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO116" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP116" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ116" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR116" s="23"/>
       <c r="AS116" s="24"/>
       <c r="AT116" s="24"/>
       <c r="AU116" s="24"/>
-      <c r="AV116" s="45"/>
-      <c r="AW116" s="45"/>
+      <c r="AV116" s="36">
+        <v>6.41</v>
+      </c>
+      <c r="AW116" s="36">
+        <v>6.98</v>
+      </c>
     </row>
     <row r="117" ht="18.0" customHeight="1">
       <c r="A117" s="41"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="43"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="24"/>
-      <c r="N117" s="24"/>
-      <c r="O117" s="24"/>
+      <c r="B117" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I117" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J117" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="K117" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L117" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M117" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N117" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O117" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="P117" s="23"/>
       <c r="Q117" s="24"/>
       <c r="R117" s="24"/>
-      <c r="S117" s="24"/>
-      <c r="T117" s="23"/>
-      <c r="U117" s="24"/>
-      <c r="V117" s="24"/>
-      <c r="W117" s="24"/>
-      <c r="X117" s="23"/>
-      <c r="Y117" s="23"/>
-      <c r="Z117" s="23"/>
-      <c r="AA117" s="24"/>
-      <c r="AB117" s="23"/>
-      <c r="AC117" s="24"/>
-      <c r="AD117" s="24"/>
-      <c r="AE117" s="24"/>
-      <c r="AF117" s="23"/>
-      <c r="AG117" s="24"/>
-      <c r="AH117" s="24"/>
-      <c r="AI117" s="24"/>
-      <c r="AJ117" s="23"/>
-      <c r="AK117" s="24"/>
-      <c r="AL117" s="24"/>
-      <c r="AM117" s="24"/>
-      <c r="AN117" s="44"/>
-      <c r="AO117" s="43"/>
-      <c r="AP117" s="43"/>
-      <c r="AQ117" s="43"/>
+      <c r="S117" s="23"/>
+      <c r="T117" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="U117" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="V117" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="W117" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X117" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y117" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z117" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA117" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB117" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC117" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD117" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="AE117" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF117" s="31"/>
+      <c r="AG117" s="32"/>
+      <c r="AH117" s="32"/>
+      <c r="AI117" s="23"/>
+      <c r="AJ117" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK117" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL117" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM117" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN117" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO117" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP117" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ117" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR117" s="23"/>
       <c r="AS117" s="24"/>
       <c r="AT117" s="24"/>
       <c r="AU117" s="24"/>
-      <c r="AV117" s="45"/>
-      <c r="AW117" s="45"/>
+      <c r="AV117" s="36">
+        <v>4.23</v>
+      </c>
+      <c r="AW117" s="36">
+        <v>4.86</v>
+      </c>
     </row>
     <row r="118" ht="18.0" customHeight="1">
       <c r="A118" s="23"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="43"/>
-      <c r="K118" s="43"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="24"/>
-      <c r="O118" s="24"/>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="24"/>
-      <c r="R118" s="24"/>
-      <c r="S118" s="24"/>
+      <c r="B118" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G118" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K118" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L118" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M118" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N118" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O118" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P118" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q118" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R118" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S118" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T118" s="23"/>
       <c r="U118" s="24"/>
       <c r="V118" s="24"/>
       <c r="W118" s="24"/>
-      <c r="X118" s="23"/>
-      <c r="Y118" s="23"/>
-      <c r="Z118" s="23"/>
-      <c r="AA118" s="24"/>
+      <c r="X118" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y118" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z118" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA118" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB118" s="23"/>
       <c r="AC118" s="24"/>
       <c r="AD118" s="24"/>
       <c r="AE118" s="24"/>
-      <c r="AF118" s="23"/>
-      <c r="AG118" s="24"/>
-      <c r="AH118" s="24"/>
-      <c r="AI118" s="24"/>
-      <c r="AJ118" s="23"/>
-      <c r="AK118" s="24"/>
-      <c r="AL118" s="24"/>
-      <c r="AM118" s="24"/>
-      <c r="AN118" s="44"/>
-      <c r="AO118" s="43"/>
-      <c r="AP118" s="43"/>
-      <c r="AQ118" s="43"/>
+      <c r="AF118" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG118" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH118" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI118" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ118" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK118" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL118" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM118" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN118" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO118" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP118" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ118" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR118" s="23"/>
       <c r="AS118" s="24"/>
       <c r="AT118" s="24"/>
       <c r="AU118" s="24"/>
-      <c r="AV118" s="45"/>
-      <c r="AW118" s="45"/>
+      <c r="AV118" s="36">
+        <v>8.32</v>
+      </c>
+      <c r="AW118" s="36">
+        <v>8.98</v>
+      </c>
     </row>
     <row r="119" ht="18.0" customHeight="1">
       <c r="A119" s="41"/>
-      <c r="B119" s="42"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="24"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="23"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
+      <c r="B119" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G119" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I119" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J119" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="K119" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L119" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="M119" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N119" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="O119" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P119" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R119" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S119" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T119" s="23"/>
       <c r="U119" s="24"/>
       <c r="V119" s="24"/>
       <c r="W119" s="24"/>
-      <c r="X119" s="23"/>
-      <c r="Y119" s="23"/>
-      <c r="Z119" s="23"/>
-      <c r="AA119" s="24"/>
+      <c r="X119" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y119" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z119" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA119" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB119" s="23"/>
       <c r="AC119" s="24"/>
       <c r="AD119" s="24"/>
       <c r="AE119" s="24"/>
-      <c r="AF119" s="23"/>
-      <c r="AG119" s="24"/>
-      <c r="AH119" s="24"/>
-      <c r="AI119" s="24"/>
-      <c r="AJ119" s="23"/>
-      <c r="AK119" s="24"/>
-      <c r="AL119" s="24"/>
-      <c r="AM119" s="24"/>
-      <c r="AN119" s="44"/>
-      <c r="AO119" s="43"/>
-      <c r="AP119" s="43"/>
-      <c r="AQ119" s="43"/>
+      <c r="AF119" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG119" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH119" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI119" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ119" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK119" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL119" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM119" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN119" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO119" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP119" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ119" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR119" s="23"/>
       <c r="AS119" s="24"/>
       <c r="AT119" s="24"/>
       <c r="AU119" s="24"/>
-      <c r="AV119" s="45"/>
-      <c r="AW119" s="45"/>
+      <c r="AV119" s="36">
+        <v>4.91</v>
+      </c>
+      <c r="AW119" s="36">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="120" ht="18.0" customHeight="1">
       <c r="A120" s="23"/>
-      <c r="B120" s="42"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="43"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="23"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="24"/>
-      <c r="P120" s="23"/>
-      <c r="Q120" s="24"/>
-      <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
+      <c r="B120" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H120" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J120" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K120" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L120" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O120" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P120" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q120" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R120" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S120" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T120" s="23"/>
       <c r="U120" s="24"/>
       <c r="V120" s="24"/>
       <c r="W120" s="24"/>
-      <c r="X120" s="23"/>
-      <c r="Y120" s="23"/>
-      <c r="Z120" s="23"/>
-      <c r="AA120" s="24"/>
+      <c r="X120" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y120" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z120" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA120" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB120" s="23"/>
       <c r="AC120" s="24"/>
       <c r="AD120" s="24"/>
       <c r="AE120" s="24"/>
-      <c r="AF120" s="23"/>
-      <c r="AG120" s="24"/>
-      <c r="AH120" s="24"/>
-      <c r="AI120" s="24"/>
-      <c r="AJ120" s="23"/>
-      <c r="AK120" s="24"/>
-      <c r="AL120" s="24"/>
-      <c r="AM120" s="24"/>
-      <c r="AN120" s="44"/>
-      <c r="AO120" s="43"/>
-      <c r="AP120" s="43"/>
-      <c r="AQ120" s="43"/>
+      <c r="AF120" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG120" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH120" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI120" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ120" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK120" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL120" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM120" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN120" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO120" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP120" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ120" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR120" s="23"/>
       <c r="AS120" s="24"/>
       <c r="AT120" s="24"/>
       <c r="AU120" s="24"/>
-      <c r="AV120" s="45"/>
-      <c r="AW120" s="45"/>
+      <c r="AV120" s="36">
+        <v>7.55</v>
+      </c>
+      <c r="AW120" s="36">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="121" ht="18.0" customHeight="1">
       <c r="A121" s="41"/>
-      <c r="B121" s="42"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="43"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="23"/>
-      <c r="M121" s="24"/>
-      <c r="N121" s="24"/>
-      <c r="O121" s="24"/>
-      <c r="P121" s="23"/>
-      <c r="Q121" s="24"/>
-      <c r="R121" s="24"/>
-      <c r="S121" s="24"/>
+      <c r="B121" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G121" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J121" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K121" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L121" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M121" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O121" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P121" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q121" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R121" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S121" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T121" s="23"/>
       <c r="U121" s="24"/>
       <c r="V121" s="24"/>
       <c r="W121" s="24"/>
-      <c r="X121" s="23"/>
-      <c r="Y121" s="23"/>
-      <c r="Z121" s="23"/>
-      <c r="AA121" s="24"/>
+      <c r="X121" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y121" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z121" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA121" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB121" s="23"/>
       <c r="AC121" s="24"/>
       <c r="AD121" s="24"/>
       <c r="AE121" s="24"/>
-      <c r="AF121" s="23"/>
-      <c r="AG121" s="24"/>
-      <c r="AH121" s="24"/>
-      <c r="AI121" s="24"/>
-      <c r="AJ121" s="23"/>
-      <c r="AK121" s="24"/>
-      <c r="AL121" s="24"/>
-      <c r="AM121" s="24"/>
-      <c r="AN121" s="44"/>
-      <c r="AO121" s="43"/>
-      <c r="AP121" s="43"/>
-      <c r="AQ121" s="43"/>
+      <c r="AF121" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG121" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH121" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI121" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ121" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK121" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL121" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM121" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN121" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO121" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP121" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ121" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR121" s="23"/>
       <c r="AS121" s="24"/>
       <c r="AT121" s="24"/>
       <c r="AU121" s="24"/>
-      <c r="AV121" s="45"/>
-      <c r="AW121" s="45"/>
+      <c r="AV121" s="36">
+        <v>9.1</v>
+      </c>
+      <c r="AW121" s="36">
+        <v>9.46</v>
+      </c>
     </row>
     <row r="122" ht="18.0" customHeight="1">
       <c r="A122" s="23"/>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="24"/>
-      <c r="O122" s="24"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24"/>
+      <c r="B122" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G122" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I122" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J122" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K122" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L122" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M122" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N122" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O122" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P122" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q122" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R122" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S122" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T122" s="23"/>
       <c r="U122" s="24"/>
       <c r="V122" s="24"/>
       <c r="W122" s="24"/>
-      <c r="X122" s="23"/>
-      <c r="Y122" s="23"/>
-      <c r="Z122" s="23"/>
-      <c r="AA122" s="24"/>
+      <c r="X122" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y122" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z122" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA122" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB122" s="23"/>
       <c r="AC122" s="24"/>
       <c r="AD122" s="24"/>
       <c r="AE122" s="24"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="24"/>
-      <c r="AI122" s="24"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="24"/>
-      <c r="AL122" s="24"/>
-      <c r="AM122" s="24"/>
-      <c r="AN122" s="44"/>
-      <c r="AO122" s="43"/>
-      <c r="AP122" s="43"/>
-      <c r="AQ122" s="43"/>
+      <c r="AF122" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG122" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH122" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI122" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ122" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK122" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL122" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM122" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN122" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO122" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP122" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ122" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR122" s="23"/>
       <c r="AS122" s="24"/>
       <c r="AT122" s="24"/>
       <c r="AU122" s="24"/>
-      <c r="AV122" s="45"/>
-      <c r="AW122" s="45"/>
+      <c r="AV122" s="36">
+        <v>6.78</v>
+      </c>
+      <c r="AW122" s="36">
+        <v>7.31</v>
+      </c>
     </row>
     <row r="123" ht="18.0" customHeight="1">
       <c r="A123" s="41"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="43"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="24"/>
-      <c r="N123" s="24"/>
-      <c r="O123" s="24"/>
-      <c r="P123" s="23"/>
-      <c r="Q123" s="24"/>
-      <c r="R123" s="24"/>
-      <c r="S123" s="24"/>
+      <c r="B123" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K123" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M123" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N123" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O123" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q123" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R123" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S123" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T123" s="23"/>
       <c r="U123" s="24"/>
       <c r="V123" s="24"/>
       <c r="W123" s="24"/>
-      <c r="X123" s="23"/>
-      <c r="Y123" s="23"/>
-      <c r="Z123" s="23"/>
-      <c r="AA123" s="24"/>
+      <c r="X123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y123" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z123" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA123" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB123" s="23"/>
       <c r="AC123" s="24"/>
       <c r="AD123" s="24"/>
       <c r="AE123" s="24"/>
-      <c r="AF123" s="23"/>
-      <c r="AG123" s="24"/>
-      <c r="AH123" s="24"/>
-      <c r="AI123" s="24"/>
-      <c r="AJ123" s="23"/>
-      <c r="AK123" s="24"/>
-      <c r="AL123" s="24"/>
-      <c r="AM123" s="24"/>
-      <c r="AN123" s="44"/>
-      <c r="AO123" s="43"/>
-      <c r="AP123" s="43"/>
-      <c r="AQ123" s="43"/>
+      <c r="AF123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG123" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH123" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI123" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ123" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK123" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL123" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM123" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN123" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO123" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP123" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ123" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR123" s="23"/>
       <c r="AS123" s="24"/>
       <c r="AT123" s="24"/>
       <c r="AU123" s="24"/>
-      <c r="AV123" s="45"/>
-      <c r="AW123" s="45"/>
+      <c r="AV123" s="36">
+        <v>8.28</v>
+      </c>
+      <c r="AW123" s="36">
+        <v>8.79</v>
+      </c>
     </row>
     <row r="124" ht="18.0" customHeight="1">
       <c r="A124" s="23"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="23"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="24"/>
-      <c r="P124" s="23"/>
-      <c r="Q124" s="24"/>
-      <c r="R124" s="24"/>
-      <c r="S124" s="24"/>
+      <c r="B124" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I124" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J124" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="K124" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L124" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="M124" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N124" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="O124" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P124" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q124" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="R124" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="S124" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T124" s="23"/>
       <c r="U124" s="24"/>
       <c r="V124" s="24"/>
       <c r="W124" s="24"/>
-      <c r="X124" s="23"/>
-      <c r="Y124" s="23"/>
-      <c r="Z124" s="23"/>
-      <c r="AA124" s="24"/>
+      <c r="X124" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y124" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z124" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA124" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB124" s="23"/>
       <c r="AC124" s="24"/>
       <c r="AD124" s="24"/>
       <c r="AE124" s="24"/>
-      <c r="AF124" s="23"/>
-      <c r="AG124" s="24"/>
-      <c r="AH124" s="24"/>
-      <c r="AI124" s="24"/>
-      <c r="AJ124" s="23"/>
-      <c r="AK124" s="24"/>
-      <c r="AL124" s="24"/>
-      <c r="AM124" s="24"/>
-      <c r="AN124" s="44"/>
-      <c r="AO124" s="43"/>
-      <c r="AP124" s="43"/>
-      <c r="AQ124" s="43"/>
+      <c r="AF124" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG124" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH124" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI124" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ124" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK124" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL124" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM124" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN124" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO124" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP124" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ124" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR124" s="23"/>
       <c r="AS124" s="24"/>
       <c r="AT124" s="24"/>
       <c r="AU124" s="24"/>
-      <c r="AV124" s="45"/>
-      <c r="AW124" s="45"/>
+      <c r="AV124" s="36">
+        <v>3.96</v>
+      </c>
+      <c r="AW124" s="36">
+        <v>5.91</v>
+      </c>
     </row>
     <row r="125" ht="18.0" customHeight="1">
       <c r="A125" s="41"/>
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="43"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="24"/>
-      <c r="N125" s="24"/>
-      <c r="O125" s="24"/>
-      <c r="P125" s="23"/>
-      <c r="Q125" s="24"/>
-      <c r="R125" s="24"/>
-      <c r="S125" s="24"/>
+      <c r="B125" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I125" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K125" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M125" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O125" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q125" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R125" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S125" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T125" s="23"/>
       <c r="U125" s="24"/>
       <c r="V125" s="24"/>
       <c r="W125" s="24"/>
-      <c r="X125" s="23"/>
-      <c r="Y125" s="23"/>
-      <c r="Z125" s="23"/>
-      <c r="AA125" s="24"/>
+      <c r="X125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y125" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z125" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA125" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB125" s="23"/>
       <c r="AC125" s="24"/>
       <c r="AD125" s="24"/>
       <c r="AE125" s="24"/>
-      <c r="AF125" s="23"/>
-      <c r="AG125" s="24"/>
-      <c r="AH125" s="24"/>
-      <c r="AI125" s="24"/>
-      <c r="AJ125" s="23"/>
-      <c r="AK125" s="24"/>
-      <c r="AL125" s="24"/>
-      <c r="AM125" s="24"/>
-      <c r="AN125" s="44"/>
-      <c r="AO125" s="43"/>
-      <c r="AP125" s="43"/>
-      <c r="AQ125" s="43"/>
+      <c r="AF125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG125" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH125" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI125" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ125" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK125" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL125" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM125" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN125" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO125" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP125" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ125" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR125" s="23"/>
       <c r="AS125" s="24"/>
       <c r="AT125" s="24"/>
       <c r="AU125" s="24"/>
-      <c r="AV125" s="45"/>
-      <c r="AW125" s="45"/>
+      <c r="AV125" s="36">
+        <v>7.41</v>
+      </c>
+      <c r="AW125" s="36">
+        <v>8.05</v>
+      </c>
     </row>
     <row r="126" ht="18.0" customHeight="1">
       <c r="A126" s="23"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="23"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="24"/>
-      <c r="P126" s="23"/>
-      <c r="Q126" s="24"/>
-      <c r="R126" s="24"/>
-      <c r="S126" s="24"/>
+      <c r="B126" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K126" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L126" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M126" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N126" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O126" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P126" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q126" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R126" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S126" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T126" s="23"/>
       <c r="U126" s="24"/>
       <c r="V126" s="24"/>
       <c r="W126" s="24"/>
-      <c r="X126" s="23"/>
-      <c r="Y126" s="23"/>
-      <c r="Z126" s="23"/>
-      <c r="AA126" s="24"/>
+      <c r="X126" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y126" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z126" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA126" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB126" s="23"/>
       <c r="AC126" s="24"/>
       <c r="AD126" s="24"/>
       <c r="AE126" s="24"/>
-      <c r="AF126" s="23"/>
-      <c r="AG126" s="24"/>
-      <c r="AH126" s="24"/>
-      <c r="AI126" s="24"/>
-      <c r="AJ126" s="23"/>
-      <c r="AK126" s="24"/>
-      <c r="AL126" s="24"/>
-      <c r="AM126" s="24"/>
-      <c r="AN126" s="44"/>
-      <c r="AO126" s="43"/>
-      <c r="AP126" s="43"/>
-      <c r="AQ126" s="43"/>
+      <c r="AF126" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG126" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH126" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI126" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ126" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK126" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL126" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM126" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN126" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO126" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP126" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ126" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR126" s="23"/>
       <c r="AS126" s="24"/>
       <c r="AT126" s="24"/>
       <c r="AU126" s="24"/>
-      <c r="AV126" s="45"/>
-      <c r="AW126" s="45"/>
+      <c r="AV126" s="36">
+        <v>8.05</v>
+      </c>
+      <c r="AW126" s="36">
+        <v>8.34</v>
+      </c>
     </row>
     <row r="127" ht="18.0" customHeight="1">
       <c r="A127" s="41"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="43"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
-      <c r="O127" s="24"/>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="24"/>
-      <c r="R127" s="24"/>
-      <c r="S127" s="24"/>
+      <c r="B127" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I127" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J127" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K127" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O127" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P127" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q127" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="R127" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="S127" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T127" s="23"/>
       <c r="U127" s="24"/>
       <c r="V127" s="24"/>
       <c r="W127" s="24"/>
-      <c r="X127" s="23"/>
-      <c r="Y127" s="23"/>
-      <c r="Z127" s="23"/>
-      <c r="AA127" s="24"/>
+      <c r="X127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y127" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z127" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA127" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB127" s="23"/>
       <c r="AC127" s="24"/>
       <c r="AD127" s="24"/>
       <c r="AE127" s="24"/>
-      <c r="AF127" s="23"/>
-      <c r="AG127" s="24"/>
-      <c r="AH127" s="24"/>
-      <c r="AI127" s="24"/>
-      <c r="AJ127" s="23"/>
-      <c r="AK127" s="24"/>
-      <c r="AL127" s="24"/>
-      <c r="AM127" s="24"/>
-      <c r="AN127" s="44"/>
-      <c r="AO127" s="43"/>
-      <c r="AP127" s="43"/>
-      <c r="AQ127" s="43"/>
+      <c r="AF127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG127" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH127" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI127" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ127" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK127" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL127" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM127" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN127" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO127" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP127" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ127" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR127" s="23"/>
       <c r="AS127" s="24"/>
       <c r="AT127" s="24"/>
       <c r="AU127" s="24"/>
-      <c r="AV127" s="45"/>
-      <c r="AW127" s="45"/>
+      <c r="AV127" s="36">
+        <v>6.41</v>
+      </c>
+      <c r="AW127" s="36">
+        <v>7.22</v>
+      </c>
     </row>
     <row r="128" ht="18.0" customHeight="1">
       <c r="A128" s="23"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="43"/>
-      <c r="K128" s="43"/>
-      <c r="L128" s="23"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="24"/>
-      <c r="O128" s="24"/>
-      <c r="P128" s="23"/>
-      <c r="Q128" s="24"/>
-      <c r="R128" s="24"/>
-      <c r="S128" s="24"/>
+      <c r="B128" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J128" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K128" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M128" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N128" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O128" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q128" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R128" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S128" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T128" s="23"/>
       <c r="U128" s="24"/>
       <c r="V128" s="24"/>
       <c r="W128" s="24"/>
-      <c r="X128" s="23"/>
-      <c r="Y128" s="23"/>
-      <c r="Z128" s="23"/>
-      <c r="AA128" s="24"/>
+      <c r="X128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y128" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z128" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA128" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB128" s="28"/>
       <c r="AC128" s="29"/>
       <c r="AD128" s="29"/>
       <c r="AE128" s="24"/>
-      <c r="AF128" s="23"/>
-      <c r="AG128" s="24"/>
-      <c r="AH128" s="24"/>
-      <c r="AI128" s="24"/>
-      <c r="AJ128" s="23"/>
-      <c r="AK128" s="24"/>
-      <c r="AL128" s="24"/>
-      <c r="AM128" s="24"/>
-      <c r="AN128" s="44"/>
-      <c r="AO128" s="43"/>
-      <c r="AP128" s="43"/>
-      <c r="AQ128" s="43"/>
+      <c r="AF128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG128" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH128" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI128" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ128" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK128" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL128" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM128" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN128" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO128" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP128" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ128" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR128" s="23"/>
       <c r="AS128" s="24"/>
       <c r="AT128" s="24"/>
       <c r="AU128" s="24"/>
-      <c r="AV128" s="45"/>
-      <c r="AW128" s="45"/>
+      <c r="AV128" s="36">
+        <v>7.82</v>
+      </c>
+      <c r="AW128" s="36">
+        <v>8.72</v>
+      </c>
     </row>
     <row r="129" ht="18.0" customHeight="1">
       <c r="A129" s="41"/>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="23"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="23"/>
-      <c r="Q129" s="24"/>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
+      <c r="B129" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J129" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="K129" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M129" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" s="32">
+        <v>4.0</v>
+      </c>
+      <c r="O129" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P129" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q129" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R129" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="S129" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="T129" s="23"/>
       <c r="U129" s="24"/>
       <c r="V129" s="24"/>
       <c r="W129" s="24"/>
-      <c r="X129" s="23"/>
-      <c r="Y129" s="23"/>
-      <c r="Z129" s="23"/>
-      <c r="AA129" s="24"/>
+      <c r="X129" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y129" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z129" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="AA129" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="AB129" s="23"/>
       <c r="AC129" s="24"/>
       <c r="AD129" s="24"/>
       <c r="AE129" s="24"/>
-      <c r="AF129" s="23"/>
-      <c r="AG129" s="24"/>
-      <c r="AH129" s="24"/>
-      <c r="AI129" s="24"/>
-      <c r="AJ129" s="23"/>
-      <c r="AK129" s="24"/>
-      <c r="AL129" s="24"/>
-      <c r="AM129" s="24"/>
-      <c r="AN129" s="44"/>
-      <c r="AO129" s="43"/>
-      <c r="AP129" s="43"/>
-      <c r="AQ129" s="43"/>
+      <c r="AF129" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG129" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH129" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AI129" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ129" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK129" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL129" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="AM129" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN129" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO129" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP129" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="AQ129" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="AR129" s="23"/>
       <c r="AS129" s="24"/>
       <c r="AT129" s="24"/>
       <c r="AU129" s="24"/>
-      <c r="AV129" s="45"/>
-      <c r="AW129" s="45"/>
+      <c r="AV129" s="36">
+        <v>7.55</v>
+      </c>
+      <c r="AW129" s="36">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="130" ht="18.0" customHeight="1">
-      <c r="A130" s="23"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="42"/>
       <c r="C130" s="42"/>
       <c r="D130" s="23"/>
@@ -16448,7 +17896,7 @@
       <c r="AW130" s="45"/>
     </row>
     <row r="131" ht="18.0" customHeight="1">
-      <c r="A131" s="41"/>
+      <c r="A131" s="23"/>
       <c r="B131" s="42"/>
       <c r="C131" s="42"/>
       <c r="D131" s="23"/>
@@ -16499,7 +17947,7 @@
       <c r="AW131" s="45"/>
     </row>
     <row r="132" ht="18.0" customHeight="1">
-      <c r="A132" s="23"/>
+      <c r="A132" s="41"/>
       <c r="B132" s="42"/>
       <c r="C132" s="42"/>
       <c r="D132" s="23"/>
@@ -16550,7 +17998,7 @@
       <c r="AW132" s="45"/>
     </row>
     <row r="133" ht="18.0" customHeight="1">
-      <c r="A133" s="41"/>
+      <c r="A133" s="23"/>
       <c r="B133" s="42"/>
       <c r="C133" s="42"/>
       <c r="D133" s="23"/>
@@ -16601,7 +18049,7 @@
       <c r="AW133" s="45"/>
     </row>
     <row r="134" ht="18.0" customHeight="1">
-      <c r="A134" s="23"/>
+      <c r="A134" s="41"/>
       <c r="B134" s="42"/>
       <c r="C134" s="42"/>
       <c r="D134" s="23"/>
@@ -16652,7 +18100,7 @@
       <c r="AW134" s="45"/>
     </row>
     <row r="135" ht="18.0" customHeight="1">
-      <c r="A135" s="41"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="42"/>
       <c r="C135" s="42"/>
       <c r="D135" s="23"/>
@@ -16703,7 +18151,7 @@
       <c r="AW135" s="45"/>
     </row>
     <row r="136" ht="18.0" customHeight="1">
-      <c r="A136" s="23"/>
+      <c r="A136" s="41"/>
       <c r="B136" s="42"/>
       <c r="C136" s="42"/>
       <c r="D136" s="23"/>
@@ -16754,7 +18202,7 @@
       <c r="AW136" s="45"/>
     </row>
     <row r="137" ht="18.0" customHeight="1">
-      <c r="A137" s="41"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="42"/>
       <c r="C137" s="42"/>
       <c r="D137" s="23"/>
@@ -16805,7 +18253,7 @@
       <c r="AW137" s="45"/>
     </row>
     <row r="138" ht="18.0" customHeight="1">
-      <c r="A138" s="23"/>
+      <c r="A138" s="41"/>
       <c r="B138" s="42"/>
       <c r="C138" s="42"/>
       <c r="D138" s="23"/>
@@ -16856,7 +18304,7 @@
       <c r="AW138" s="45"/>
     </row>
     <row r="139" ht="18.0" customHeight="1">
-      <c r="A139" s="41"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="42"/>
       <c r="C139" s="42"/>
       <c r="D139" s="23"/>
@@ -16907,7 +18355,7 @@
       <c r="AW139" s="45"/>
     </row>
     <row r="140" ht="18.0" customHeight="1">
-      <c r="A140" s="23"/>
+      <c r="A140" s="41"/>
       <c r="B140" s="42"/>
       <c r="C140" s="42"/>
       <c r="D140" s="23"/>
@@ -16958,7 +18406,7 @@
       <c r="AW140" s="45"/>
     </row>
     <row r="141" ht="18.0" customHeight="1">
-      <c r="A141" s="41"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="42"/>
       <c r="C141" s="42"/>
       <c r="D141" s="23"/>
@@ -17009,7 +18457,7 @@
       <c r="AW141" s="45"/>
     </row>
     <row r="142" ht="18.0" customHeight="1">
-      <c r="A142" s="23"/>
+      <c r="A142" s="41"/>
       <c r="B142" s="42"/>
       <c r="C142" s="42"/>
       <c r="D142" s="23"/>
@@ -17044,9 +18492,9 @@
       <c r="AG142" s="24"/>
       <c r="AH142" s="24"/>
       <c r="AI142" s="24"/>
-      <c r="AJ142" s="23"/>
-      <c r="AK142" s="24"/>
-      <c r="AL142" s="24"/>
+      <c r="AJ142" s="28"/>
+      <c r="AK142" s="29"/>
+      <c r="AL142" s="29"/>
       <c r="AM142" s="24"/>
       <c r="AN142" s="44"/>
       <c r="AO142" s="43"/>
@@ -17060,7 +18508,7 @@
       <c r="AW142" s="45"/>
     </row>
     <row r="143" ht="18.0" customHeight="1">
-      <c r="A143" s="41"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42"/>
       <c r="D143" s="23"/>
@@ -17095,9 +18543,9 @@
       <c r="AG143" s="24"/>
       <c r="AH143" s="24"/>
       <c r="AI143" s="24"/>
-      <c r="AJ143" s="28"/>
-      <c r="AK143" s="29"/>
-      <c r="AL143" s="29"/>
+      <c r="AJ143" s="23"/>
+      <c r="AK143" s="24"/>
+      <c r="AL143" s="24"/>
       <c r="AM143" s="24"/>
       <c r="AN143" s="44"/>
       <c r="AO143" s="43"/>
@@ -17111,7 +18559,7 @@
       <c r="AW143" s="45"/>
     </row>
     <row r="144" ht="18.0" customHeight="1">
-      <c r="A144" s="23"/>
+      <c r="A144" s="41"/>
       <c r="B144" s="42"/>
       <c r="C144" s="42"/>
       <c r="D144" s="23"/>
@@ -17162,7 +18610,7 @@
       <c r="AW144" s="45"/>
     </row>
     <row r="145" ht="18.0" customHeight="1">
-      <c r="A145" s="41"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="42"/>
       <c r="C145" s="42"/>
       <c r="D145" s="23"/>
@@ -17213,7 +18661,7 @@
       <c r="AW145" s="45"/>
     </row>
     <row r="146" ht="18.0" customHeight="1">
-      <c r="A146" s="23"/>
+      <c r="A146" s="41"/>
       <c r="B146" s="42"/>
       <c r="C146" s="42"/>
       <c r="D146" s="23"/>
@@ -17264,7 +18712,7 @@
       <c r="AW146" s="45"/>
     </row>
     <row r="147" ht="18.0" customHeight="1">
-      <c r="A147" s="41"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42"/>
       <c r="D147" s="23"/>
@@ -17315,7 +18763,7 @@
       <c r="AW147" s="45"/>
     </row>
     <row r="148" ht="18.0" customHeight="1">
-      <c r="A148" s="23"/>
+      <c r="A148" s="41"/>
       <c r="B148" s="42"/>
       <c r="C148" s="42"/>
       <c r="D148" s="23"/>
@@ -17366,7 +18814,7 @@
       <c r="AW148" s="45"/>
     </row>
     <row r="149" ht="18.0" customHeight="1">
-      <c r="A149" s="41"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42"/>
       <c r="D149" s="23"/>
@@ -17417,7 +18865,7 @@
       <c r="AW149" s="45"/>
     </row>
     <row r="150" ht="18.0" customHeight="1">
-      <c r="A150" s="23"/>
+      <c r="A150" s="41"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42"/>
       <c r="D150" s="23"/>
@@ -17468,7 +18916,7 @@
       <c r="AW150" s="45"/>
     </row>
     <row r="151" ht="18.0" customHeight="1">
-      <c r="A151" s="41"/>
+      <c r="A151" s="23"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42"/>
       <c r="D151" s="23"/>
@@ -17519,7 +18967,7 @@
       <c r="AW151" s="45"/>
     </row>
     <row r="152" ht="18.0" customHeight="1">
-      <c r="A152" s="23"/>
+      <c r="A152" s="41"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42"/>
       <c r="D152" s="23"/>
@@ -17570,7 +19018,7 @@
       <c r="AW152" s="45"/>
     </row>
     <row r="153" ht="18.0" customHeight="1">
-      <c r="A153" s="41"/>
+      <c r="A153" s="23"/>
       <c r="B153" s="42"/>
       <c r="C153" s="42"/>
       <c r="D153" s="23"/>
@@ -17621,7 +19069,7 @@
       <c r="AW153" s="45"/>
     </row>
     <row r="154" ht="18.0" customHeight="1">
-      <c r="A154" s="23"/>
+      <c r="A154" s="41"/>
       <c r="B154" s="42"/>
       <c r="C154" s="42"/>
       <c r="D154" s="23"/>
@@ -17672,7 +19120,7 @@
       <c r="AW154" s="45"/>
     </row>
     <row r="155" ht="18.0" customHeight="1">
-      <c r="A155" s="41"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42"/>
       <c r="D155" s="23"/>
@@ -17723,7 +19171,7 @@
       <c r="AW155" s="45"/>
     </row>
     <row r="156" ht="18.0" customHeight="1">
-      <c r="A156" s="23"/>
+      <c r="A156" s="41"/>
       <c r="B156" s="42"/>
       <c r="C156" s="42"/>
       <c r="D156" s="23"/>
@@ -17774,7 +19222,7 @@
       <c r="AW156" s="45"/>
     </row>
     <row r="157" ht="18.0" customHeight="1">
-      <c r="A157" s="41"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="42"/>
       <c r="C157" s="42"/>
       <c r="D157" s="23"/>
@@ -17825,7 +19273,7 @@
       <c r="AW157" s="45"/>
     </row>
     <row r="158" ht="18.0" customHeight="1">
-      <c r="A158" s="23"/>
+      <c r="A158" s="41"/>
       <c r="B158" s="42"/>
       <c r="C158" s="42"/>
       <c r="D158" s="23"/>
@@ -17876,7 +19324,7 @@
       <c r="AW158" s="45"/>
     </row>
     <row r="159" ht="18.0" customHeight="1">
-      <c r="A159" s="41"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="42"/>
       <c r="C159" s="42"/>
       <c r="D159" s="23"/>
@@ -17927,7 +19375,7 @@
       <c r="AW159" s="45"/>
     </row>
     <row r="160" ht="18.0" customHeight="1">
-      <c r="A160" s="23"/>
+      <c r="A160" s="41"/>
       <c r="B160" s="42"/>
       <c r="C160" s="42"/>
       <c r="D160" s="23"/>
@@ -17978,7 +19426,7 @@
       <c r="AW160" s="45"/>
     </row>
     <row r="161" ht="18.0" customHeight="1">
-      <c r="A161" s="41"/>
+      <c r="A161" s="23"/>
       <c r="B161" s="42"/>
       <c r="C161" s="42"/>
       <c r="D161" s="23"/>
@@ -18029,7 +19477,7 @@
       <c r="AW161" s="45"/>
     </row>
     <row r="162" ht="18.0" customHeight="1">
-      <c r="A162" s="23"/>
+      <c r="A162" s="41"/>
       <c r="B162" s="42"/>
       <c r="C162" s="42"/>
       <c r="D162" s="23"/>
@@ -18080,7 +19528,7 @@
       <c r="AW162" s="45"/>
     </row>
     <row r="163" ht="18.0" customHeight="1">
-      <c r="A163" s="41"/>
+      <c r="A163" s="23"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42"/>
       <c r="D163" s="23"/>
@@ -18131,7 +19579,7 @@
       <c r="AW163" s="45"/>
     </row>
     <row r="164" ht="18.0" customHeight="1">
-      <c r="A164" s="23"/>
+      <c r="A164" s="41"/>
       <c r="B164" s="42"/>
       <c r="C164" s="42"/>
       <c r="D164" s="23"/>
@@ -18182,7 +19630,7 @@
       <c r="AW164" s="45"/>
     </row>
     <row r="165" ht="18.0" customHeight="1">
-      <c r="A165" s="41"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="42"/>
       <c r="C165" s="42"/>
       <c r="D165" s="23"/>
@@ -18233,7 +19681,7 @@
       <c r="AW165" s="45"/>
     </row>
     <row r="166" ht="18.0" customHeight="1">
-      <c r="A166" s="23"/>
+      <c r="A166" s="41"/>
       <c r="B166" s="42"/>
       <c r="C166" s="42"/>
       <c r="D166" s="23"/>
@@ -18284,7 +19732,7 @@
       <c r="AW166" s="45"/>
     </row>
     <row r="167" ht="18.0" customHeight="1">
-      <c r="A167" s="41"/>
+      <c r="A167" s="23"/>
       <c r="B167" s="42"/>
       <c r="C167" s="42"/>
       <c r="D167" s="23"/>
@@ -18311,9 +19759,9 @@
       <c r="Y167" s="23"/>
       <c r="Z167" s="23"/>
       <c r="AA167" s="24"/>
-      <c r="AB167" s="23"/>
-      <c r="AC167" s="24"/>
-      <c r="AD167" s="24"/>
+      <c r="AB167" s="28"/>
+      <c r="AC167" s="29"/>
+      <c r="AD167" s="29"/>
       <c r="AE167" s="24"/>
       <c r="AF167" s="23"/>
       <c r="AG167" s="24"/>
@@ -18335,7 +19783,7 @@
       <c r="AW167" s="45"/>
     </row>
     <row r="168" ht="18.0" customHeight="1">
-      <c r="A168" s="23"/>
+      <c r="A168" s="41"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42"/>
       <c r="D168" s="23"/>
@@ -18362,9 +19810,9 @@
       <c r="Y168" s="23"/>
       <c r="Z168" s="23"/>
       <c r="AA168" s="24"/>
-      <c r="AB168" s="28"/>
-      <c r="AC168" s="29"/>
-      <c r="AD168" s="29"/>
+      <c r="AB168" s="23"/>
+      <c r="AC168" s="24"/>
+      <c r="AD168" s="24"/>
       <c r="AE168" s="24"/>
       <c r="AF168" s="23"/>
       <c r="AG168" s="24"/>
@@ -18386,7 +19834,7 @@
       <c r="AW168" s="45"/>
     </row>
     <row r="169" ht="18.0" customHeight="1">
-      <c r="A169" s="41"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42"/>
       <c r="D169" s="23"/>
@@ -18437,7 +19885,7 @@
       <c r="AW169" s="45"/>
     </row>
     <row r="170" ht="18.0" customHeight="1">
-      <c r="A170" s="23"/>
+      <c r="A170" s="41"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42"/>
       <c r="D170" s="23"/>
@@ -18488,7 +19936,7 @@
       <c r="AW170" s="45"/>
     </row>
     <row r="171" ht="18.0" customHeight="1">
-      <c r="A171" s="41"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42"/>
       <c r="D171" s="23"/>
@@ -18539,7 +19987,7 @@
       <c r="AW171" s="45"/>
     </row>
     <row r="172" ht="18.0" customHeight="1">
-      <c r="A172" s="23"/>
+      <c r="A172" s="41"/>
       <c r="B172" s="42"/>
       <c r="C172" s="42"/>
       <c r="D172" s="23"/>
@@ -18590,7 +20038,7 @@
       <c r="AW172" s="45"/>
     </row>
     <row r="173" ht="18.0" customHeight="1">
-      <c r="A173" s="41"/>
+      <c r="A173" s="23"/>
       <c r="B173" s="42"/>
       <c r="C173" s="42"/>
       <c r="D173" s="23"/>
@@ -18641,7 +20089,7 @@
       <c r="AW173" s="45"/>
     </row>
     <row r="174" ht="18.0" customHeight="1">
-      <c r="A174" s="23"/>
+      <c r="A174" s="41"/>
       <c r="B174" s="42"/>
       <c r="C174" s="42"/>
       <c r="D174" s="23"/>
@@ -18692,7 +20140,7 @@
       <c r="AW174" s="45"/>
     </row>
     <row r="175" ht="18.0" customHeight="1">
-      <c r="A175" s="41"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="42"/>
       <c r="C175" s="42"/>
       <c r="D175" s="23"/>
@@ -18743,7 +20191,7 @@
       <c r="AW175" s="45"/>
     </row>
     <row r="176" ht="18.0" customHeight="1">
-      <c r="A176" s="23"/>
+      <c r="A176" s="41"/>
       <c r="B176" s="42"/>
       <c r="C176" s="42"/>
       <c r="D176" s="23"/>
@@ -18794,9 +20242,9 @@
       <c r="AW176" s="45"/>
     </row>
     <row r="177" ht="18.0" customHeight="1">
-      <c r="A177" s="41"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="42"/>
-      <c r="C177" s="42"/>
+      <c r="C177" s="46"/>
       <c r="D177" s="23"/>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
@@ -18845,9 +20293,9 @@
       <c r="AW177" s="45"/>
     </row>
     <row r="178" ht="18.0" customHeight="1">
-      <c r="A178" s="23"/>
+      <c r="A178" s="41"/>
       <c r="B178" s="42"/>
-      <c r="C178" s="46"/>
+      <c r="C178" s="42"/>
       <c r="D178" s="23"/>
       <c r="E178" s="24"/>
       <c r="F178" s="24"/>
@@ -18896,7 +20344,7 @@
       <c r="AW178" s="45"/>
     </row>
     <row r="179" ht="18.0" customHeight="1">
-      <c r="A179" s="41"/>
+      <c r="A179" s="23"/>
       <c r="B179" s="42"/>
       <c r="C179" s="42"/>
       <c r="D179" s="23"/>
@@ -18947,7 +20395,7 @@
       <c r="AW179" s="45"/>
     </row>
     <row r="180" ht="18.0" customHeight="1">
-      <c r="A180" s="23"/>
+      <c r="A180" s="41"/>
       <c r="B180" s="42"/>
       <c r="C180" s="42"/>
       <c r="D180" s="23"/>
@@ -18998,7 +20446,7 @@
       <c r="AW180" s="45"/>
     </row>
     <row r="181" ht="18.0" customHeight="1">
-      <c r="A181" s="41"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="42"/>
       <c r="C181" s="42"/>
       <c r="D181" s="23"/>
@@ -19049,7 +20497,7 @@
       <c r="AW181" s="45"/>
     </row>
     <row r="182" ht="18.0" customHeight="1">
-      <c r="A182" s="23"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="42"/>
       <c r="C182" s="42"/>
       <c r="D182" s="23"/>
@@ -19100,7 +20548,7 @@
       <c r="AW182" s="45"/>
     </row>
     <row r="183" ht="18.0" customHeight="1">
-      <c r="A183" s="41"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="42"/>
       <c r="C183" s="42"/>
       <c r="D183" s="23"/>
@@ -19151,7 +20599,7 @@
       <c r="AW183" s="45"/>
     </row>
     <row r="184" ht="18.0" customHeight="1">
-      <c r="A184" s="23"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="42"/>
       <c r="C184" s="42"/>
       <c r="D184" s="23"/>
@@ -19202,7 +20650,7 @@
       <c r="AW184" s="45"/>
     </row>
     <row r="185" ht="18.0" customHeight="1">
-      <c r="A185" s="41"/>
+      <c r="A185" s="23"/>
       <c r="B185" s="42"/>
       <c r="C185" s="42"/>
       <c r="D185" s="23"/>
@@ -19253,7 +20701,7 @@
       <c r="AW185" s="45"/>
     </row>
     <row r="186" ht="18.0" customHeight="1">
-      <c r="A186" s="23"/>
+      <c r="A186" s="41"/>
       <c r="B186" s="42"/>
       <c r="C186" s="42"/>
       <c r="D186" s="23"/>
@@ -19304,7 +20752,7 @@
       <c r="AW186" s="45"/>
     </row>
     <row r="187" ht="18.0" customHeight="1">
-      <c r="A187" s="41"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="42"/>
       <c r="C187" s="42"/>
       <c r="D187" s="23"/>
@@ -19331,21 +20779,21 @@
       <c r="Y187" s="23"/>
       <c r="Z187" s="23"/>
       <c r="AA187" s="24"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="24"/>
-      <c r="AD187" s="24"/>
+      <c r="AB187" s="28"/>
+      <c r="AC187" s="29"/>
+      <c r="AD187" s="29"/>
       <c r="AE187" s="24"/>
-      <c r="AF187" s="23"/>
+      <c r="AF187" s="28"/>
       <c r="AG187" s="24"/>
       <c r="AH187" s="24"/>
       <c r="AI187" s="24"/>
-      <c r="AJ187" s="23"/>
-      <c r="AK187" s="24"/>
-      <c r="AL187" s="24"/>
+      <c r="AJ187" s="28"/>
+      <c r="AK187" s="29"/>
+      <c r="AL187" s="29"/>
       <c r="AM187" s="24"/>
-      <c r="AN187" s="44"/>
-      <c r="AO187" s="43"/>
-      <c r="AP187" s="43"/>
+      <c r="AN187" s="47"/>
+      <c r="AO187" s="48"/>
+      <c r="AP187" s="48"/>
       <c r="AQ187" s="43"/>
       <c r="AR187" s="23"/>
       <c r="AS187" s="24"/>
@@ -19355,7 +20803,7 @@
       <c r="AW187" s="45"/>
     </row>
     <row r="188" ht="18.0" customHeight="1">
-      <c r="A188" s="23"/>
+      <c r="A188" s="41"/>
       <c r="B188" s="42"/>
       <c r="C188" s="42"/>
       <c r="D188" s="23"/>
@@ -19382,21 +20830,21 @@
       <c r="Y188" s="23"/>
       <c r="Z188" s="23"/>
       <c r="AA188" s="24"/>
-      <c r="AB188" s="28"/>
-      <c r="AC188" s="29"/>
-      <c r="AD188" s="29"/>
+      <c r="AB188" s="23"/>
+      <c r="AC188" s="24"/>
+      <c r="AD188" s="24"/>
       <c r="AE188" s="24"/>
-      <c r="AF188" s="28"/>
+      <c r="AF188" s="23"/>
       <c r="AG188" s="24"/>
       <c r="AH188" s="24"/>
       <c r="AI188" s="24"/>
-      <c r="AJ188" s="28"/>
-      <c r="AK188" s="29"/>
-      <c r="AL188" s="29"/>
+      <c r="AJ188" s="23"/>
+      <c r="AK188" s="24"/>
+      <c r="AL188" s="24"/>
       <c r="AM188" s="24"/>
-      <c r="AN188" s="47"/>
-      <c r="AO188" s="48"/>
-      <c r="AP188" s="48"/>
+      <c r="AN188" s="44"/>
+      <c r="AO188" s="43"/>
+      <c r="AP188" s="43"/>
       <c r="AQ188" s="43"/>
       <c r="AR188" s="23"/>
       <c r="AS188" s="24"/>
@@ -19406,7 +20854,7 @@
       <c r="AW188" s="45"/>
     </row>
     <row r="189" ht="18.0" customHeight="1">
-      <c r="A189" s="41"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="42"/>
       <c r="C189" s="42"/>
       <c r="D189" s="23"/>
@@ -19457,7 +20905,7 @@
       <c r="AW189" s="45"/>
     </row>
     <row r="190" ht="18.0" customHeight="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="41"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42"/>
       <c r="D190" s="23"/>
@@ -19508,7 +20956,7 @@
       <c r="AW190" s="45"/>
     </row>
     <row r="191" ht="18.0" customHeight="1">
-      <c r="A191" s="41"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="42"/>
       <c r="C191" s="42"/>
       <c r="D191" s="23"/>
@@ -19559,7 +21007,7 @@
       <c r="AW191" s="45"/>
     </row>
     <row r="192" ht="18.0" customHeight="1">
-      <c r="A192" s="23"/>
+      <c r="A192" s="41"/>
       <c r="B192" s="42"/>
       <c r="C192" s="42"/>
       <c r="D192" s="23"/>
@@ -19610,7 +21058,7 @@
       <c r="AW192" s="45"/>
     </row>
     <row r="193" ht="18.0" customHeight="1">
-      <c r="A193" s="41"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="42"/>
       <c r="C193" s="42"/>
       <c r="D193" s="23"/>
@@ -19661,7 +21109,7 @@
       <c r="AW193" s="45"/>
     </row>
     <row r="194" ht="18.0" customHeight="1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="42"/>
       <c r="C194" s="42"/>
       <c r="D194" s="23"/>
@@ -19712,7 +21160,7 @@
       <c r="AW194" s="45"/>
     </row>
     <row r="195" ht="18.0" customHeight="1">
-      <c r="A195" s="41"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="42"/>
       <c r="C195" s="42"/>
       <c r="D195" s="23"/>
@@ -19763,7 +21211,7 @@
       <c r="AW195" s="45"/>
     </row>
     <row r="196" ht="18.0" customHeight="1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="41"/>
       <c r="B196" s="42"/>
       <c r="C196" s="42"/>
       <c r="D196" s="23"/>
@@ -19814,7 +21262,7 @@
       <c r="AW196" s="45"/>
     </row>
     <row r="197" ht="18.0" customHeight="1">
-      <c r="A197" s="41"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="42"/>
       <c r="C197" s="42"/>
       <c r="D197" s="23"/>
@@ -19865,7 +21313,7 @@
       <c r="AW197" s="45"/>
     </row>
     <row r="198" ht="18.0" customHeight="1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="41"/>
       <c r="B198" s="42"/>
       <c r="C198" s="42"/>
       <c r="D198" s="23"/>
@@ -19916,7 +21364,7 @@
       <c r="AW198" s="45"/>
     </row>
     <row r="199" ht="18.0" customHeight="1">
-      <c r="A199" s="41"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="42"/>
       <c r="C199" s="42"/>
       <c r="D199" s="23"/>
@@ -19967,7 +21415,7 @@
       <c r="AW199" s="45"/>
     </row>
     <row r="200" ht="18.0" customHeight="1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="41"/>
       <c r="B200" s="42"/>
       <c r="C200" s="42"/>
       <c r="D200" s="23"/>
@@ -20018,7 +21466,7 @@
       <c r="AW200" s="45"/>
     </row>
     <row r="201" ht="18.0" customHeight="1">
-      <c r="A201" s="41"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="42"/>
       <c r="C201" s="42"/>
       <c r="D201" s="23"/>
@@ -20069,109 +21517,109 @@
       <c r="AW201" s="45"/>
     </row>
     <row r="202" ht="18.0" customHeight="1">
-      <c r="A202" s="23"/>
-      <c r="B202" s="42"/>
-      <c r="C202" s="42"/>
-      <c r="D202" s="23"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24"/>
+      <c r="A202" s="41"/>
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="49"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
       <c r="G202" s="24"/>
-      <c r="H202" s="23"/>
-      <c r="I202" s="24"/>
-      <c r="J202" s="43"/>
+      <c r="H202" s="49"/>
+      <c r="I202" s="50"/>
+      <c r="J202" s="51"/>
       <c r="K202" s="43"/>
-      <c r="L202" s="23"/>
-      <c r="M202" s="24"/>
-      <c r="N202" s="24"/>
+      <c r="L202" s="49"/>
+      <c r="M202" s="50"/>
+      <c r="N202" s="50"/>
       <c r="O202" s="24"/>
-      <c r="P202" s="23"/>
-      <c r="Q202" s="24"/>
-      <c r="R202" s="24"/>
-      <c r="S202" s="24"/>
-      <c r="T202" s="23"/>
-      <c r="U202" s="24"/>
-      <c r="V202" s="24"/>
-      <c r="W202" s="24"/>
-      <c r="X202" s="23"/>
+      <c r="P202" s="49"/>
+      <c r="Q202" s="50"/>
+      <c r="R202" s="50"/>
+      <c r="S202" s="50"/>
+      <c r="T202" s="49"/>
+      <c r="U202" s="50"/>
+      <c r="V202" s="50"/>
+      <c r="W202" s="50"/>
+      <c r="X202" s="49"/>
       <c r="Y202" s="23"/>
-      <c r="Z202" s="23"/>
+      <c r="Z202" s="49"/>
       <c r="AA202" s="24"/>
-      <c r="AB202" s="23"/>
-      <c r="AC202" s="24"/>
-      <c r="AD202" s="24"/>
+      <c r="AB202" s="49"/>
+      <c r="AC202" s="50"/>
+      <c r="AD202" s="50"/>
       <c r="AE202" s="24"/>
-      <c r="AF202" s="23"/>
-      <c r="AG202" s="24"/>
-      <c r="AH202" s="24"/>
+      <c r="AF202" s="49"/>
+      <c r="AG202" s="50"/>
+      <c r="AH202" s="50"/>
       <c r="AI202" s="24"/>
-      <c r="AJ202" s="23"/>
-      <c r="AK202" s="24"/>
-      <c r="AL202" s="24"/>
+      <c r="AJ202" s="49"/>
+      <c r="AK202" s="50"/>
+      <c r="AL202" s="50"/>
       <c r="AM202" s="24"/>
-      <c r="AN202" s="44"/>
-      <c r="AO202" s="43"/>
-      <c r="AP202" s="43"/>
+      <c r="AN202" s="52"/>
+      <c r="AO202" s="51"/>
+      <c r="AP202" s="51"/>
       <c r="AQ202" s="43"/>
-      <c r="AR202" s="23"/>
-      <c r="AS202" s="24"/>
-      <c r="AT202" s="24"/>
+      <c r="AR202" s="49"/>
+      <c r="AS202" s="50"/>
+      <c r="AT202" s="50"/>
       <c r="AU202" s="24"/>
       <c r="AV202" s="45"/>
       <c r="AW202" s="45"/>
     </row>
     <row r="203" ht="18.0" customHeight="1">
-      <c r="A203" s="41"/>
-      <c r="B203" s="46"/>
-      <c r="C203" s="46"/>
-      <c r="D203" s="49"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="50"/>
+      <c r="A203" s="23"/>
+      <c r="B203" s="42"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
       <c r="G203" s="24"/>
-      <c r="H203" s="49"/>
-      <c r="I203" s="50"/>
-      <c r="J203" s="51"/>
+      <c r="H203" s="23"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="43"/>
       <c r="K203" s="43"/>
-      <c r="L203" s="49"/>
-      <c r="M203" s="50"/>
-      <c r="N203" s="50"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="24"/>
+      <c r="N203" s="24"/>
       <c r="O203" s="24"/>
-      <c r="P203" s="49"/>
-      <c r="Q203" s="50"/>
-      <c r="R203" s="50"/>
-      <c r="S203" s="50"/>
-      <c r="T203" s="49"/>
-      <c r="U203" s="50"/>
-      <c r="V203" s="50"/>
-      <c r="W203" s="50"/>
-      <c r="X203" s="49"/>
+      <c r="P203" s="23"/>
+      <c r="Q203" s="24"/>
+      <c r="R203" s="24"/>
+      <c r="S203" s="24"/>
+      <c r="T203" s="23"/>
+      <c r="U203" s="24"/>
+      <c r="V203" s="24"/>
+      <c r="W203" s="24"/>
+      <c r="X203" s="23"/>
       <c r="Y203" s="23"/>
-      <c r="Z203" s="49"/>
+      <c r="Z203" s="23"/>
       <c r="AA203" s="24"/>
-      <c r="AB203" s="49"/>
-      <c r="AC203" s="50"/>
-      <c r="AD203" s="50"/>
+      <c r="AB203" s="23"/>
+      <c r="AC203" s="24"/>
+      <c r="AD203" s="24"/>
       <c r="AE203" s="24"/>
-      <c r="AF203" s="49"/>
-      <c r="AG203" s="50"/>
-      <c r="AH203" s="50"/>
+      <c r="AF203" s="23"/>
+      <c r="AG203" s="24"/>
+      <c r="AH203" s="24"/>
       <c r="AI203" s="24"/>
-      <c r="AJ203" s="49"/>
-      <c r="AK203" s="50"/>
-      <c r="AL203" s="50"/>
+      <c r="AJ203" s="23"/>
+      <c r="AK203" s="24"/>
+      <c r="AL203" s="24"/>
       <c r="AM203" s="24"/>
-      <c r="AN203" s="52"/>
-      <c r="AO203" s="51"/>
-      <c r="AP203" s="51"/>
+      <c r="AN203" s="44"/>
+      <c r="AO203" s="43"/>
+      <c r="AP203" s="43"/>
       <c r="AQ203" s="43"/>
-      <c r="AR203" s="49"/>
-      <c r="AS203" s="50"/>
-      <c r="AT203" s="50"/>
+      <c r="AR203" s="23"/>
+      <c r="AS203" s="24"/>
+      <c r="AT203" s="24"/>
       <c r="AU203" s="24"/>
       <c r="AV203" s="45"/>
       <c r="AW203" s="45"/>
     </row>
     <row r="204" ht="18.0" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="41"/>
       <c r="B204" s="42"/>
       <c r="C204" s="42"/>
       <c r="D204" s="23"/>
@@ -20222,7 +21670,7 @@
       <c r="AW204" s="45"/>
     </row>
     <row r="205" ht="18.0" customHeight="1">
-      <c r="A205" s="41"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="42"/>
       <c r="C205" s="42"/>
       <c r="D205" s="23"/>
@@ -20273,7 +21721,7 @@
       <c r="AW205" s="45"/>
     </row>
     <row r="206" ht="18.0" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="41"/>
       <c r="B206" s="42"/>
       <c r="C206" s="42"/>
       <c r="D206" s="23"/>
@@ -20324,7 +21772,7 @@
       <c r="AW206" s="45"/>
     </row>
     <row r="207" ht="18.0" customHeight="1">
-      <c r="A207" s="41"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="42"/>
       <c r="C207" s="42"/>
       <c r="D207" s="23"/>
@@ -20375,7 +21823,7 @@
       <c r="AW207" s="45"/>
     </row>
     <row r="208" ht="18.0" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="41"/>
       <c r="B208" s="42"/>
       <c r="C208" s="42"/>
       <c r="D208" s="23"/>
@@ -20426,7 +21874,7 @@
       <c r="AW208" s="45"/>
     </row>
     <row r="209" ht="18.0" customHeight="1">
-      <c r="A209" s="41"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="42"/>
       <c r="C209" s="42"/>
       <c r="D209" s="23"/>
@@ -20477,7 +21925,7 @@
       <c r="AW209" s="45"/>
     </row>
     <row r="210" ht="18.0" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="41"/>
       <c r="B210" s="42"/>
       <c r="C210" s="42"/>
       <c r="D210" s="23"/>
@@ -20528,7 +21976,7 @@
       <c r="AW210" s="45"/>
     </row>
     <row r="211" ht="18.0" customHeight="1">
-      <c r="A211" s="41"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="42"/>
       <c r="C211" s="42"/>
       <c r="D211" s="23"/>
@@ -20579,7 +22027,7 @@
       <c r="AW211" s="45"/>
     </row>
     <row r="212" ht="18.0" customHeight="1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="41"/>
       <c r="B212" s="42"/>
       <c r="C212" s="42"/>
       <c r="D212" s="23"/>
@@ -20598,9 +22046,9 @@
       <c r="Q212" s="24"/>
       <c r="R212" s="24"/>
       <c r="S212" s="24"/>
-      <c r="T212" s="23"/>
-      <c r="U212" s="24"/>
-      <c r="V212" s="24"/>
+      <c r="T212" s="28"/>
+      <c r="U212" s="29"/>
+      <c r="V212" s="29"/>
       <c r="W212" s="24"/>
       <c r="X212" s="23"/>
       <c r="Y212" s="23"/>
@@ -20630,7 +22078,7 @@
       <c r="AW212" s="45"/>
     </row>
     <row r="213" ht="18.0" customHeight="1">
-      <c r="A213" s="41"/>
+      <c r="A213" s="23"/>
       <c r="B213" s="42"/>
       <c r="C213" s="42"/>
       <c r="D213" s="23"/>
@@ -20649,9 +22097,9 @@
       <c r="Q213" s="24"/>
       <c r="R213" s="24"/>
       <c r="S213" s="24"/>
-      <c r="T213" s="28"/>
-      <c r="U213" s="29"/>
-      <c r="V213" s="29"/>
+      <c r="T213" s="23"/>
+      <c r="U213" s="24"/>
+      <c r="V213" s="24"/>
       <c r="W213" s="24"/>
       <c r="X213" s="23"/>
       <c r="Y213" s="23"/>
@@ -20681,7 +22129,7 @@
       <c r="AW213" s="45"/>
     </row>
     <row r="214" ht="18.0" customHeight="1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="41"/>
       <c r="B214" s="42"/>
       <c r="C214" s="42"/>
       <c r="D214" s="23"/>
@@ -20732,7 +22180,7 @@
       <c r="AW214" s="45"/>
     </row>
     <row r="215" ht="18.0" customHeight="1">
-      <c r="A215" s="41"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42"/>
       <c r="D215" s="23"/>
@@ -20751,9 +22199,9 @@
       <c r="Q215" s="24"/>
       <c r="R215" s="24"/>
       <c r="S215" s="24"/>
-      <c r="T215" s="23"/>
-      <c r="U215" s="24"/>
-      <c r="V215" s="24"/>
+      <c r="T215" s="28"/>
+      <c r="U215" s="29"/>
+      <c r="V215" s="29"/>
       <c r="W215" s="24"/>
       <c r="X215" s="23"/>
       <c r="Y215" s="23"/>
@@ -20783,7 +22231,7 @@
       <c r="AW215" s="45"/>
     </row>
     <row r="216" ht="18.0" customHeight="1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="41"/>
       <c r="B216" s="42"/>
       <c r="C216" s="42"/>
       <c r="D216" s="23"/>
@@ -20802,9 +22250,9 @@
       <c r="Q216" s="24"/>
       <c r="R216" s="24"/>
       <c r="S216" s="24"/>
-      <c r="T216" s="28"/>
-      <c r="U216" s="29"/>
-      <c r="V216" s="29"/>
+      <c r="T216" s="23"/>
+      <c r="U216" s="24"/>
+      <c r="V216" s="24"/>
       <c r="W216" s="24"/>
       <c r="X216" s="23"/>
       <c r="Y216" s="23"/>
@@ -20834,7 +22282,7 @@
       <c r="AW216" s="45"/>
     </row>
     <row r="217" ht="18.0" customHeight="1">
-      <c r="A217" s="41"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="42"/>
       <c r="C217" s="42"/>
       <c r="D217" s="23"/>
@@ -20885,7 +22333,7 @@
       <c r="AW217" s="45"/>
     </row>
     <row r="218" ht="18.0" customHeight="1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="41"/>
       <c r="B218" s="42"/>
       <c r="C218" s="42"/>
       <c r="D218" s="23"/>
@@ -20936,7 +22384,7 @@
       <c r="AW218" s="45"/>
     </row>
     <row r="219" ht="18.0" customHeight="1">
-      <c r="A219" s="41"/>
+      <c r="A219" s="23"/>
       <c r="B219" s="42"/>
       <c r="C219" s="42"/>
       <c r="D219" s="23"/>
@@ -20987,7 +22435,7 @@
       <c r="AW219" s="45"/>
     </row>
     <row r="220" ht="18.0" customHeight="1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="41"/>
       <c r="B220" s="42"/>
       <c r="C220" s="42"/>
       <c r="D220" s="23"/>
@@ -21038,7 +22486,7 @@
       <c r="AW220" s="45"/>
     </row>
     <row r="221" ht="18.0" customHeight="1">
-      <c r="A221" s="41"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="42"/>
       <c r="C221" s="42"/>
       <c r="D221" s="23"/>
@@ -21089,7 +22537,7 @@
       <c r="AW221" s="45"/>
     </row>
     <row r="222" ht="18.0" customHeight="1">
-      <c r="A222" s="23"/>
+      <c r="A222" s="41"/>
       <c r="B222" s="42"/>
       <c r="C222" s="42"/>
       <c r="D222" s="23"/>
@@ -21140,7 +22588,7 @@
       <c r="AW222" s="45"/>
     </row>
     <row r="223" ht="18.0" customHeight="1">
-      <c r="A223" s="41"/>
+      <c r="A223" s="23"/>
       <c r="B223" s="42"/>
       <c r="C223" s="42"/>
       <c r="D223" s="23"/>
@@ -21160,8 +22608,8 @@
       <c r="R223" s="24"/>
       <c r="S223" s="24"/>
       <c r="T223" s="23"/>
-      <c r="U223" s="24"/>
-      <c r="V223" s="24"/>
+      <c r="U223" s="29"/>
+      <c r="V223" s="29"/>
       <c r="W223" s="24"/>
       <c r="X223" s="23"/>
       <c r="Y223" s="23"/>
@@ -21191,7 +22639,7 @@
       <c r="AW223" s="45"/>
     </row>
     <row r="224" ht="18.0" customHeight="1">
-      <c r="A224" s="23"/>
+      <c r="A224" s="41"/>
       <c r="B224" s="42"/>
       <c r="C224" s="42"/>
       <c r="D224" s="23"/>
@@ -21211,8 +22659,8 @@
       <c r="R224" s="24"/>
       <c r="S224" s="24"/>
       <c r="T224" s="23"/>
-      <c r="U224" s="29"/>
-      <c r="V224" s="29"/>
+      <c r="U224" s="24"/>
+      <c r="V224" s="24"/>
       <c r="W224" s="24"/>
       <c r="X224" s="23"/>
       <c r="Y224" s="23"/>
@@ -21242,7 +22690,7 @@
       <c r="AW224" s="45"/>
     </row>
     <row r="225" ht="18.0" customHeight="1">
-      <c r="A225" s="41"/>
+      <c r="A225" s="23"/>
       <c r="B225" s="42"/>
       <c r="C225" s="42"/>
       <c r="D225" s="23"/>
@@ -21293,7 +22741,7 @@
       <c r="AW225" s="45"/>
     </row>
     <row r="226" ht="18.0" customHeight="1">
-      <c r="A226" s="23"/>
+      <c r="A226" s="41"/>
       <c r="B226" s="42"/>
       <c r="C226" s="42"/>
       <c r="D226" s="23"/>
@@ -21344,7 +22792,7 @@
       <c r="AW226" s="45"/>
     </row>
     <row r="227" ht="18.0" customHeight="1">
-      <c r="A227" s="41"/>
+      <c r="A227" s="23"/>
       <c r="B227" s="42"/>
       <c r="C227" s="42"/>
       <c r="D227" s="23"/>
@@ -21395,7 +22843,7 @@
       <c r="AW227" s="45"/>
     </row>
     <row r="228" ht="18.0" customHeight="1">
-      <c r="A228" s="23"/>
+      <c r="A228" s="41"/>
       <c r="B228" s="42"/>
       <c r="C228" s="42"/>
       <c r="D228" s="23"/>
@@ -21446,7 +22894,7 @@
       <c r="AW228" s="45"/>
     </row>
     <row r="229" ht="18.0" customHeight="1">
-      <c r="A229" s="41"/>
+      <c r="A229" s="23"/>
       <c r="B229" s="42"/>
       <c r="C229" s="42"/>
       <c r="D229" s="23"/>
@@ -21497,7 +22945,7 @@
       <c r="AW229" s="45"/>
     </row>
     <row r="230" ht="18.0" customHeight="1">
-      <c r="A230" s="23"/>
+      <c r="A230" s="41"/>
       <c r="B230" s="42"/>
       <c r="C230" s="42"/>
       <c r="D230" s="23"/>
@@ -21522,7 +22970,7 @@
       <c r="W230" s="24"/>
       <c r="X230" s="23"/>
       <c r="Y230" s="23"/>
-      <c r="Z230" s="23"/>
+      <c r="Z230" s="49"/>
       <c r="AA230" s="24"/>
       <c r="AB230" s="23"/>
       <c r="AC230" s="24"/>
@@ -21548,7 +22996,7 @@
       <c r="AW230" s="45"/>
     </row>
     <row r="231" ht="18.0" customHeight="1">
-      <c r="A231" s="41"/>
+      <c r="A231" s="23"/>
       <c r="B231" s="42"/>
       <c r="C231" s="42"/>
       <c r="D231" s="23"/>
@@ -21599,7 +23047,7 @@
       <c r="AW231" s="45"/>
     </row>
     <row r="232" ht="18.0" customHeight="1">
-      <c r="A232" s="23"/>
+      <c r="A232" s="41"/>
       <c r="B232" s="42"/>
       <c r="C232" s="42"/>
       <c r="D232" s="23"/>
@@ -21650,7 +23098,7 @@
       <c r="AW232" s="45"/>
     </row>
     <row r="233" ht="18.0" customHeight="1">
-      <c r="A233" s="41"/>
+      <c r="A233" s="23"/>
       <c r="B233" s="42"/>
       <c r="C233" s="42"/>
       <c r="D233" s="23"/>
@@ -21701,7 +23149,7 @@
       <c r="AW233" s="45"/>
     </row>
     <row r="234" ht="18.0" customHeight="1">
-      <c r="A234" s="23"/>
+      <c r="A234" s="41"/>
       <c r="B234" s="42"/>
       <c r="C234" s="42"/>
       <c r="D234" s="23"/>
@@ -21752,7 +23200,7 @@
       <c r="AW234" s="45"/>
     </row>
     <row r="235" ht="18.0" customHeight="1">
-      <c r="A235" s="41"/>
+      <c r="A235" s="23"/>
       <c r="B235" s="42"/>
       <c r="C235" s="42"/>
       <c r="D235" s="23"/>
@@ -21803,7 +23251,7 @@
       <c r="AW235" s="45"/>
     </row>
     <row r="236" ht="18.0" customHeight="1">
-      <c r="A236" s="23"/>
+      <c r="A236" s="41"/>
       <c r="B236" s="42"/>
       <c r="C236" s="42"/>
       <c r="D236" s="23"/>
@@ -21854,7 +23302,7 @@
       <c r="AW236" s="45"/>
     </row>
     <row r="237" ht="18.0" customHeight="1">
-      <c r="A237" s="41"/>
+      <c r="A237" s="23"/>
       <c r="B237" s="42"/>
       <c r="C237" s="42"/>
       <c r="D237" s="23"/>
@@ -21905,7 +23353,7 @@
       <c r="AW237" s="45"/>
     </row>
     <row r="238" ht="18.0" customHeight="1">
-      <c r="A238" s="23"/>
+      <c r="A238" s="41"/>
       <c r="B238" s="42"/>
       <c r="C238" s="42"/>
       <c r="D238" s="23"/>
@@ -21956,7 +23404,7 @@
       <c r="AW238" s="45"/>
     </row>
     <row r="239" ht="18.0" customHeight="1">
-      <c r="A239" s="41"/>
+      <c r="A239" s="23"/>
       <c r="B239" s="42"/>
       <c r="C239" s="42"/>
       <c r="D239" s="23"/>
@@ -22007,7 +23455,7 @@
       <c r="AW239" s="45"/>
     </row>
     <row r="240" ht="18.0" customHeight="1">
-      <c r="A240" s="23"/>
+      <c r="A240" s="41"/>
       <c r="B240" s="42"/>
       <c r="C240" s="42"/>
       <c r="D240" s="23"/>
@@ -22058,7 +23506,7 @@
       <c r="AW240" s="45"/>
     </row>
     <row r="241" ht="18.0" customHeight="1">
-      <c r="A241" s="41"/>
+      <c r="A241" s="23"/>
       <c r="B241" s="42"/>
       <c r="C241" s="42"/>
       <c r="D241" s="23"/>
@@ -22109,7 +23557,7 @@
       <c r="AW241" s="45"/>
     </row>
     <row r="242" ht="18.0" customHeight="1">
-      <c r="A242" s="23"/>
+      <c r="A242" s="41"/>
       <c r="B242" s="42"/>
       <c r="C242" s="42"/>
       <c r="D242" s="23"/>
@@ -22160,7 +23608,7 @@
       <c r="AW242" s="45"/>
     </row>
     <row r="243" ht="18.0" customHeight="1">
-      <c r="A243" s="41"/>
+      <c r="A243" s="23"/>
       <c r="B243" s="42"/>
       <c r="C243" s="42"/>
       <c r="D243" s="23"/>
@@ -22211,7 +23659,7 @@
       <c r="AW243" s="45"/>
     </row>
     <row r="244" ht="18.0" customHeight="1">
-      <c r="A244" s="23"/>
+      <c r="A244" s="41"/>
       <c r="B244" s="42"/>
       <c r="C244" s="42"/>
       <c r="D244" s="23"/>
@@ -22262,7 +23710,7 @@
       <c r="AW244" s="45"/>
     </row>
     <row r="245" ht="18.0" customHeight="1">
-      <c r="A245" s="41"/>
+      <c r="A245" s="23"/>
       <c r="B245" s="42"/>
       <c r="C245" s="42"/>
       <c r="D245" s="23"/>
@@ -22313,7 +23761,7 @@
       <c r="AW245" s="45"/>
     </row>
     <row r="246" ht="18.0" customHeight="1">
-      <c r="A246" s="23"/>
+      <c r="A246" s="41"/>
       <c r="B246" s="42"/>
       <c r="C246" s="42"/>
       <c r="D246" s="23"/>
@@ -22364,7 +23812,7 @@
       <c r="AW246" s="45"/>
     </row>
     <row r="247" ht="18.0" customHeight="1">
-      <c r="A247" s="41"/>
+      <c r="A247" s="23"/>
       <c r="B247" s="42"/>
       <c r="C247" s="42"/>
       <c r="D247" s="23"/>
@@ -22415,7 +23863,7 @@
       <c r="AW247" s="45"/>
     </row>
     <row r="248" ht="18.0" customHeight="1">
-      <c r="A248" s="23"/>
+      <c r="A248" s="41"/>
       <c r="B248" s="42"/>
       <c r="C248" s="42"/>
       <c r="D248" s="23"/>
@@ -22466,7 +23914,7 @@
       <c r="AW248" s="45"/>
     </row>
     <row r="249" ht="18.0" customHeight="1">
-      <c r="A249" s="41"/>
+      <c r="A249" s="23"/>
       <c r="B249" s="42"/>
       <c r="C249" s="42"/>
       <c r="D249" s="23"/>
@@ -22517,7 +23965,7 @@
       <c r="AW249" s="45"/>
     </row>
     <row r="250" ht="18.0" customHeight="1">
-      <c r="A250" s="23"/>
+      <c r="A250" s="41"/>
       <c r="B250" s="42"/>
       <c r="C250" s="42"/>
       <c r="D250" s="23"/>
@@ -22568,7 +24016,7 @@
       <c r="AW250" s="45"/>
     </row>
     <row r="251" ht="18.0" customHeight="1">
-      <c r="A251" s="41"/>
+      <c r="A251" s="23"/>
       <c r="B251" s="42"/>
       <c r="C251" s="42"/>
       <c r="D251" s="23"/>
@@ -22619,7 +24067,7 @@
       <c r="AW251" s="45"/>
     </row>
     <row r="252" ht="18.0" customHeight="1">
-      <c r="A252" s="23"/>
+      <c r="A252" s="41"/>
       <c r="B252" s="42"/>
       <c r="C252" s="42"/>
       <c r="D252" s="23"/>
@@ -22670,7 +24118,7 @@
       <c r="AW252" s="45"/>
     </row>
     <row r="253" ht="18.0" customHeight="1">
-      <c r="A253" s="41"/>
+      <c r="A253" s="23"/>
       <c r="B253" s="42"/>
       <c r="C253" s="42"/>
       <c r="D253" s="23"/>
@@ -22721,7 +24169,7 @@
       <c r="AW253" s="45"/>
     </row>
     <row r="254" ht="18.0" customHeight="1">
-      <c r="A254" s="23"/>
+      <c r="A254" s="41"/>
       <c r="B254" s="42"/>
       <c r="C254" s="42"/>
       <c r="D254" s="23"/>
@@ -22772,7 +24220,7 @@
       <c r="AW254" s="45"/>
     </row>
     <row r="255" ht="18.0" customHeight="1">
-      <c r="A255" s="41"/>
+      <c r="A255" s="23"/>
       <c r="B255" s="42"/>
       <c r="C255" s="42"/>
       <c r="D255" s="23"/>
@@ -22823,7 +24271,7 @@
       <c r="AW255" s="45"/>
     </row>
     <row r="256" ht="18.0" customHeight="1">
-      <c r="A256" s="23"/>
+      <c r="A256" s="41"/>
       <c r="B256" s="42"/>
       <c r="C256" s="42"/>
       <c r="D256" s="23"/>
@@ -22874,7 +24322,7 @@
       <c r="AW256" s="45"/>
     </row>
     <row r="257" ht="18.0" customHeight="1">
-      <c r="A257" s="41"/>
+      <c r="A257" s="23"/>
       <c r="B257" s="42"/>
       <c r="C257" s="42"/>
       <c r="D257" s="23"/>
@@ -22925,9 +24373,9 @@
       <c r="AW257" s="45"/>
     </row>
     <row r="258" ht="18.0" customHeight="1">
-      <c r="A258" s="23"/>
+      <c r="A258" s="41"/>
       <c r="B258" s="42"/>
-      <c r="C258" s="42"/>
+      <c r="C258" s="46"/>
       <c r="D258" s="23"/>
       <c r="E258" s="24"/>
       <c r="F258" s="24"/>
@@ -22976,9 +24424,9 @@
       <c r="AW258" s="45"/>
     </row>
     <row r="259" ht="18.0" customHeight="1">
-      <c r="A259" s="41"/>
+      <c r="A259" s="23"/>
       <c r="B259" s="42"/>
-      <c r="C259" s="46"/>
+      <c r="C259" s="42"/>
       <c r="D259" s="23"/>
       <c r="E259" s="24"/>
       <c r="F259" s="24"/>
@@ -23027,7 +24475,7 @@
       <c r="AW259" s="45"/>
     </row>
     <row r="260" ht="18.0" customHeight="1">
-      <c r="A260" s="23"/>
+      <c r="A260" s="41"/>
       <c r="B260" s="42"/>
       <c r="C260" s="42"/>
       <c r="D260" s="23"/>
@@ -23078,7 +24526,7 @@
       <c r="AW260" s="45"/>
     </row>
     <row r="261" ht="18.0" customHeight="1">
-      <c r="A261" s="41"/>
+      <c r="A261" s="23"/>
       <c r="B261" s="42"/>
       <c r="C261" s="42"/>
       <c r="D261" s="23"/>
@@ -23129,7 +24577,7 @@
       <c r="AW261" s="45"/>
     </row>
     <row r="262" ht="18.0" customHeight="1">
-      <c r="A262" s="23"/>
+      <c r="A262" s="41"/>
       <c r="B262" s="42"/>
       <c r="C262" s="42"/>
       <c r="D262" s="23"/>
@@ -23180,7 +24628,7 @@
       <c r="AW262" s="45"/>
     </row>
     <row r="263" ht="18.0" customHeight="1">
-      <c r="A263" s="41"/>
+      <c r="A263" s="23"/>
       <c r="B263" s="42"/>
       <c r="C263" s="42"/>
       <c r="D263" s="23"/>
@@ -23231,7 +24679,7 @@
       <c r="AW263" s="45"/>
     </row>
     <row r="264" ht="18.0" customHeight="1">
-      <c r="A264" s="23"/>
+      <c r="A264" s="41"/>
       <c r="B264" s="42"/>
       <c r="C264" s="42"/>
       <c r="D264" s="23"/>
@@ -23282,7 +24730,7 @@
       <c r="AW264" s="45"/>
     </row>
     <row r="265" ht="18.0" customHeight="1">
-      <c r="A265" s="41"/>
+      <c r="A265" s="23"/>
       <c r="B265" s="42"/>
       <c r="C265" s="42"/>
       <c r="D265" s="23"/>
@@ -23333,7 +24781,7 @@
       <c r="AW265" s="45"/>
     </row>
     <row r="266" ht="18.0" customHeight="1">
-      <c r="A266" s="23"/>
+      <c r="A266" s="41"/>
       <c r="B266" s="42"/>
       <c r="C266" s="42"/>
       <c r="D266" s="23"/>
@@ -23384,7 +24832,7 @@
       <c r="AW266" s="45"/>
     </row>
     <row r="267" ht="18.0" customHeight="1">
-      <c r="A267" s="41"/>
+      <c r="A267" s="23"/>
       <c r="B267" s="42"/>
       <c r="C267" s="42"/>
       <c r="D267" s="23"/>
@@ -23435,7 +24883,7 @@
       <c r="AW267" s="45"/>
     </row>
     <row r="268" ht="18.0" customHeight="1">
-      <c r="A268" s="23"/>
+      <c r="A268" s="41"/>
       <c r="B268" s="42"/>
       <c r="C268" s="42"/>
       <c r="D268" s="23"/>
@@ -23486,7 +24934,7 @@
       <c r="AW268" s="45"/>
     </row>
     <row r="269" ht="18.0" customHeight="1">
-      <c r="A269" s="41"/>
+      <c r="A269" s="23"/>
       <c r="B269" s="42"/>
       <c r="C269" s="42"/>
       <c r="D269" s="23"/>
@@ -23537,7 +24985,7 @@
       <c r="AW269" s="45"/>
     </row>
     <row r="270" ht="18.0" customHeight="1">
-      <c r="A270" s="23"/>
+      <c r="A270" s="41"/>
       <c r="B270" s="42"/>
       <c r="C270" s="42"/>
       <c r="D270" s="23"/>
@@ -23588,7 +25036,7 @@
       <c r="AW270" s="45"/>
     </row>
     <row r="271" ht="18.0" customHeight="1">
-      <c r="A271" s="41"/>
+      <c r="A271" s="23"/>
       <c r="B271" s="42"/>
       <c r="C271" s="42"/>
       <c r="D271" s="23"/>
@@ -23639,7 +25087,7 @@
       <c r="AW271" s="45"/>
     </row>
     <row r="272" ht="18.0" customHeight="1">
-      <c r="A272" s="23"/>
+      <c r="A272" s="41"/>
       <c r="B272" s="42"/>
       <c r="C272" s="42"/>
       <c r="D272" s="23"/>
@@ -23690,7 +25138,7 @@
       <c r="AW272" s="45"/>
     </row>
     <row r="273" ht="18.0" customHeight="1">
-      <c r="A273" s="41"/>
+      <c r="A273" s="23"/>
       <c r="B273" s="42"/>
       <c r="C273" s="42"/>
       <c r="D273" s="23"/>
@@ -23741,7 +25189,7 @@
       <c r="AW273" s="45"/>
     </row>
     <row r="274" ht="18.0" customHeight="1">
-      <c r="A274" s="23"/>
+      <c r="A274" s="41"/>
       <c r="B274" s="42"/>
       <c r="C274" s="42"/>
       <c r="D274" s="23"/>
@@ -23792,7 +25240,7 @@
       <c r="AW274" s="45"/>
     </row>
     <row r="275" ht="18.0" customHeight="1">
-      <c r="A275" s="41"/>
+      <c r="A275" s="23"/>
       <c r="B275" s="42"/>
       <c r="C275" s="42"/>
       <c r="D275" s="23"/>
@@ -23843,7 +25291,7 @@
       <c r="AW275" s="45"/>
     </row>
     <row r="276" ht="18.0" customHeight="1">
-      <c r="A276" s="23"/>
+      <c r="A276" s="41"/>
       <c r="B276" s="42"/>
       <c r="C276" s="42"/>
       <c r="D276" s="23"/>
@@ -23894,7 +25342,7 @@
       <c r="AW276" s="45"/>
     </row>
     <row r="277" ht="18.0" customHeight="1">
-      <c r="A277" s="41"/>
+      <c r="A277" s="23"/>
       <c r="B277" s="42"/>
       <c r="C277" s="42"/>
       <c r="D277" s="23"/>
@@ -23945,7 +25393,7 @@
       <c r="AW277" s="45"/>
     </row>
     <row r="278" ht="18.0" customHeight="1">
-      <c r="A278" s="23"/>
+      <c r="A278" s="41"/>
       <c r="B278" s="42"/>
       <c r="C278" s="42"/>
       <c r="D278" s="23"/>
@@ -23996,7 +25444,7 @@
       <c r="AW278" s="45"/>
     </row>
     <row r="279" ht="18.0" customHeight="1">
-      <c r="A279" s="41"/>
+      <c r="A279" s="23"/>
       <c r="B279" s="42"/>
       <c r="C279" s="42"/>
       <c r="D279" s="23"/>
@@ -24047,7 +25495,7 @@
       <c r="AW279" s="45"/>
     </row>
     <row r="280" ht="18.0" customHeight="1">
-      <c r="A280" s="23"/>
+      <c r="A280" s="41"/>
       <c r="B280" s="42"/>
       <c r="C280" s="42"/>
       <c r="D280" s="23"/>
@@ -24098,7 +25546,7 @@
       <c r="AW280" s="45"/>
     </row>
     <row r="281" ht="18.0" customHeight="1">
-      <c r="A281" s="41"/>
+      <c r="A281" s="23"/>
       <c r="B281" s="42"/>
       <c r="C281" s="42"/>
       <c r="D281" s="23"/>
@@ -24149,7 +25597,7 @@
       <c r="AW281" s="45"/>
     </row>
     <row r="282" ht="18.0" customHeight="1">
-      <c r="A282" s="23"/>
+      <c r="A282" s="41"/>
       <c r="B282" s="42"/>
       <c r="C282" s="42"/>
       <c r="D282" s="23"/>
@@ -24200,7 +25648,7 @@
       <c r="AW282" s="45"/>
     </row>
     <row r="283" ht="18.0" customHeight="1">
-      <c r="A283" s="41"/>
+      <c r="A283" s="23"/>
       <c r="B283" s="42"/>
       <c r="C283" s="42"/>
       <c r="D283" s="23"/>
@@ -24251,7 +25699,7 @@
       <c r="AW283" s="45"/>
     </row>
     <row r="284" ht="18.0" customHeight="1">
-      <c r="A284" s="23"/>
+      <c r="A284" s="41"/>
       <c r="B284" s="42"/>
       <c r="C284" s="42"/>
       <c r="D284" s="23"/>
@@ -24302,7 +25750,7 @@
       <c r="AW284" s="45"/>
     </row>
     <row r="285" ht="18.0" customHeight="1">
-      <c r="A285" s="41"/>
+      <c r="A285" s="23"/>
       <c r="B285" s="42"/>
       <c r="C285" s="42"/>
       <c r="D285" s="23"/>
@@ -24353,7 +25801,7 @@
       <c r="AW285" s="45"/>
     </row>
     <row r="286" ht="18.0" customHeight="1">
-      <c r="A286" s="23"/>
+      <c r="A286" s="41"/>
       <c r="B286" s="42"/>
       <c r="C286" s="42"/>
       <c r="D286" s="23"/>
@@ -24404,7 +25852,7 @@
       <c r="AW286" s="45"/>
     </row>
     <row r="287" ht="18.0" customHeight="1">
-      <c r="A287" s="41"/>
+      <c r="A287" s="23"/>
       <c r="B287" s="42"/>
       <c r="C287" s="42"/>
       <c r="D287" s="23"/>
@@ -24455,7 +25903,7 @@
       <c r="AW287" s="45"/>
     </row>
     <row r="288" ht="18.0" customHeight="1">
-      <c r="A288" s="23"/>
+      <c r="A288" s="41"/>
       <c r="B288" s="42"/>
       <c r="C288" s="42"/>
       <c r="D288" s="23"/>
@@ -24506,7 +25954,7 @@
       <c r="AW288" s="45"/>
     </row>
     <row r="289" ht="18.0" customHeight="1">
-      <c r="A289" s="41"/>
+      <c r="A289" s="23"/>
       <c r="B289" s="42"/>
       <c r="C289" s="42"/>
       <c r="D289" s="23"/>
@@ -24557,7 +26005,7 @@
       <c r="AW289" s="45"/>
     </row>
     <row r="290" ht="18.0" customHeight="1">
-      <c r="A290" s="23"/>
+      <c r="A290" s="41"/>
       <c r="B290" s="42"/>
       <c r="C290" s="42"/>
       <c r="D290" s="23"/>
@@ -24608,7 +26056,7 @@
       <c r="AW290" s="45"/>
     </row>
     <row r="291" ht="18.0" customHeight="1">
-      <c r="A291" s="41"/>
+      <c r="A291" s="23"/>
       <c r="B291" s="42"/>
       <c r="C291" s="42"/>
       <c r="D291" s="23"/>
@@ -24659,7 +26107,7 @@
       <c r="AW291" s="45"/>
     </row>
     <row r="292" ht="18.0" customHeight="1">
-      <c r="A292" s="23"/>
+      <c r="A292" s="41"/>
       <c r="B292" s="42"/>
       <c r="C292" s="42"/>
       <c r="D292" s="23"/>
@@ -24710,7 +26158,7 @@
       <c r="AW292" s="45"/>
     </row>
     <row r="293" ht="18.0" customHeight="1">
-      <c r="A293" s="41"/>
+      <c r="A293" s="23"/>
       <c r="B293" s="42"/>
       <c r="C293" s="42"/>
       <c r="D293" s="23"/>
@@ -24761,7 +26209,7 @@
       <c r="AW293" s="45"/>
     </row>
     <row r="294" ht="18.0" customHeight="1">
-      <c r="A294" s="23"/>
+      <c r="A294" s="41"/>
       <c r="B294" s="42"/>
       <c r="C294" s="42"/>
       <c r="D294" s="23"/>
@@ -24812,7 +26260,7 @@
       <c r="AW294" s="45"/>
     </row>
     <row r="295" ht="18.0" customHeight="1">
-      <c r="A295" s="41"/>
+      <c r="A295" s="23"/>
       <c r="B295" s="42"/>
       <c r="C295" s="42"/>
       <c r="D295" s="23"/>
@@ -24863,7 +26311,7 @@
       <c r="AW295" s="45"/>
     </row>
     <row r="296" ht="18.0" customHeight="1">
-      <c r="A296" s="23"/>
+      <c r="A296" s="41"/>
       <c r="B296" s="42"/>
       <c r="C296" s="42"/>
       <c r="D296" s="23"/>
@@ -24914,7 +26362,7 @@
       <c r="AW296" s="45"/>
     </row>
     <row r="297" ht="18.0" customHeight="1">
-      <c r="A297" s="41"/>
+      <c r="A297" s="23"/>
       <c r="B297" s="42"/>
       <c r="C297" s="42"/>
       <c r="D297" s="23"/>
@@ -24965,7 +26413,7 @@
       <c r="AW297" s="45"/>
     </row>
     <row r="298" ht="18.0" customHeight="1">
-      <c r="A298" s="23"/>
+      <c r="A298" s="41"/>
       <c r="B298" s="42"/>
       <c r="C298" s="42"/>
       <c r="D298" s="23"/>
@@ -25016,7 +26464,7 @@
       <c r="AW298" s="45"/>
     </row>
     <row r="299" ht="18.0" customHeight="1">
-      <c r="A299" s="41"/>
+      <c r="A299" s="23"/>
       <c r="B299" s="42"/>
       <c r="C299" s="42"/>
       <c r="D299" s="23"/>
@@ -25027,9 +26475,9 @@
       <c r="I299" s="24"/>
       <c r="J299" s="43"/>
       <c r="K299" s="43"/>
-      <c r="L299" s="23"/>
-      <c r="M299" s="24"/>
-      <c r="N299" s="24"/>
+      <c r="L299" s="28"/>
+      <c r="M299" s="29"/>
+      <c r="N299" s="29"/>
       <c r="O299" s="24"/>
       <c r="P299" s="23"/>
       <c r="Q299" s="24"/>
@@ -25067,7 +26515,7 @@
       <c r="AW299" s="45"/>
     </row>
     <row r="300" ht="18.0" customHeight="1">
-      <c r="A300" s="23"/>
+      <c r="A300" s="41"/>
       <c r="B300" s="42"/>
       <c r="C300" s="42"/>
       <c r="D300" s="23"/>
@@ -25078,9 +26526,9 @@
       <c r="I300" s="24"/>
       <c r="J300" s="43"/>
       <c r="K300" s="43"/>
-      <c r="L300" s="28"/>
-      <c r="M300" s="29"/>
-      <c r="N300" s="29"/>
+      <c r="L300" s="23"/>
+      <c r="M300" s="24"/>
+      <c r="N300" s="24"/>
       <c r="O300" s="24"/>
       <c r="P300" s="23"/>
       <c r="Q300" s="24"/>
@@ -25118,7 +26566,7 @@
       <c r="AW300" s="45"/>
     </row>
     <row r="301" ht="18.0" customHeight="1">
-      <c r="A301" s="41"/>
+      <c r="A301" s="23"/>
       <c r="B301" s="42"/>
       <c r="C301" s="42"/>
       <c r="D301" s="23"/>
@@ -25169,7 +26617,7 @@
       <c r="AW301" s="45"/>
     </row>
     <row r="302" ht="18.0" customHeight="1">
-      <c r="A302" s="23"/>
+      <c r="A302" s="41"/>
       <c r="B302" s="42"/>
       <c r="C302" s="42"/>
       <c r="D302" s="23"/>
@@ -25220,7 +26668,7 @@
       <c r="AW302" s="45"/>
     </row>
     <row r="303" ht="18.0" customHeight="1">
-      <c r="A303" s="41"/>
+      <c r="A303" s="23"/>
       <c r="B303" s="42"/>
       <c r="C303" s="42"/>
       <c r="D303" s="23"/>
@@ -25271,7 +26719,7 @@
       <c r="AW303" s="45"/>
     </row>
     <row r="304" ht="18.0" customHeight="1">
-      <c r="A304" s="23"/>
+      <c r="A304" s="41"/>
       <c r="B304" s="42"/>
       <c r="C304" s="42"/>
       <c r="D304" s="23"/>
@@ -25322,7 +26770,7 @@
       <c r="AW304" s="45"/>
     </row>
     <row r="305" ht="18.0" customHeight="1">
-      <c r="A305" s="41"/>
+      <c r="A305" s="23"/>
       <c r="B305" s="42"/>
       <c r="C305" s="42"/>
       <c r="D305" s="23"/>
@@ -25373,7 +26821,7 @@
       <c r="AW305" s="45"/>
     </row>
     <row r="306" ht="18.0" customHeight="1">
-      <c r="A306" s="23"/>
+      <c r="A306" s="41"/>
       <c r="B306" s="42"/>
       <c r="C306" s="42"/>
       <c r="D306" s="23"/>
@@ -25424,7 +26872,7 @@
       <c r="AW306" s="45"/>
     </row>
     <row r="307" ht="18.0" customHeight="1">
-      <c r="A307" s="41"/>
+      <c r="A307" s="23"/>
       <c r="B307" s="42"/>
       <c r="C307" s="42"/>
       <c r="D307" s="23"/>
@@ -25475,7 +26923,7 @@
       <c r="AW307" s="45"/>
     </row>
     <row r="308" ht="18.0" customHeight="1">
-      <c r="A308" s="23"/>
+      <c r="A308" s="41"/>
       <c r="B308" s="42"/>
       <c r="C308" s="42"/>
       <c r="D308" s="23"/>
@@ -25526,7 +26974,7 @@
       <c r="AW308" s="45"/>
     </row>
     <row r="309" ht="18.0" customHeight="1">
-      <c r="A309" s="41"/>
+      <c r="A309" s="23"/>
       <c r="B309" s="42"/>
       <c r="C309" s="42"/>
       <c r="D309" s="23"/>
@@ -25577,7 +27025,7 @@
       <c r="AW309" s="45"/>
     </row>
     <row r="310" ht="18.0" customHeight="1">
-      <c r="A310" s="23"/>
+      <c r="A310" s="41"/>
       <c r="B310" s="42"/>
       <c r="C310" s="42"/>
       <c r="D310" s="23"/>
@@ -25628,7 +27076,7 @@
       <c r="AW310" s="45"/>
     </row>
     <row r="311" ht="18.0" customHeight="1">
-      <c r="A311" s="41"/>
+      <c r="A311" s="23"/>
       <c r="B311" s="42"/>
       <c r="C311" s="42"/>
       <c r="D311" s="23"/>
@@ -25679,7 +27127,7 @@
       <c r="AW311" s="45"/>
     </row>
     <row r="312" ht="18.0" customHeight="1">
-      <c r="A312" s="23"/>
+      <c r="A312" s="41"/>
       <c r="B312" s="42"/>
       <c r="C312" s="42"/>
       <c r="D312" s="23"/>
@@ -25730,7 +27178,7 @@
       <c r="AW312" s="45"/>
     </row>
     <row r="313" ht="18.0" customHeight="1">
-      <c r="A313" s="41"/>
+      <c r="A313" s="23"/>
       <c r="B313" s="42"/>
       <c r="C313" s="42"/>
       <c r="D313" s="23"/>
@@ -25781,7 +27229,7 @@
       <c r="AW313" s="45"/>
     </row>
     <row r="314" ht="18.0" customHeight="1">
-      <c r="A314" s="23"/>
+      <c r="A314" s="41"/>
       <c r="B314" s="42"/>
       <c r="C314" s="42"/>
       <c r="D314" s="23"/>
@@ -25832,7 +27280,7 @@
       <c r="AW314" s="45"/>
     </row>
     <row r="315" ht="18.0" customHeight="1">
-      <c r="A315" s="41"/>
+      <c r="A315" s="23"/>
       <c r="B315" s="42"/>
       <c r="C315" s="42"/>
       <c r="D315" s="23"/>
@@ -25855,9 +27303,9 @@
       <c r="U315" s="24"/>
       <c r="V315" s="24"/>
       <c r="W315" s="24"/>
-      <c r="X315" s="23"/>
-      <c r="Y315" s="23"/>
-      <c r="Z315" s="49"/>
+      <c r="X315" s="28"/>
+      <c r="Y315" s="28"/>
+      <c r="Z315" s="53"/>
       <c r="AA315" s="24"/>
       <c r="AB315" s="23"/>
       <c r="AC315" s="24"/>
@@ -25883,7 +27331,7 @@
       <c r="AW315" s="45"/>
     </row>
     <row r="316" ht="18.0" customHeight="1">
-      <c r="A316" s="23"/>
+      <c r="A316" s="41"/>
       <c r="B316" s="42"/>
       <c r="C316" s="42"/>
       <c r="D316" s="23"/>
@@ -25906,9 +27354,9 @@
       <c r="U316" s="24"/>
       <c r="V316" s="24"/>
       <c r="W316" s="24"/>
-      <c r="X316" s="28"/>
-      <c r="Y316" s="28"/>
-      <c r="Z316" s="53"/>
+      <c r="X316" s="23"/>
+      <c r="Y316" s="23"/>
+      <c r="Z316" s="49"/>
       <c r="AA316" s="24"/>
       <c r="AB316" s="23"/>
       <c r="AC316" s="24"/>
@@ -25934,7 +27382,7 @@
       <c r="AW316" s="45"/>
     </row>
     <row r="317" ht="18.0" customHeight="1">
-      <c r="A317" s="41"/>
+      <c r="A317" s="23"/>
       <c r="B317" s="42"/>
       <c r="C317" s="42"/>
       <c r="D317" s="23"/>
@@ -25985,7 +27433,7 @@
       <c r="AW317" s="45"/>
     </row>
     <row r="318" ht="18.0" customHeight="1">
-      <c r="A318" s="23"/>
+      <c r="A318" s="41"/>
       <c r="B318" s="42"/>
       <c r="C318" s="42"/>
       <c r="D318" s="23"/>
@@ -26036,7 +27484,7 @@
       <c r="AW318" s="45"/>
     </row>
     <row r="319" ht="18.0" customHeight="1">
-      <c r="A319" s="41"/>
+      <c r="A319" s="23"/>
       <c r="B319" s="42"/>
       <c r="C319" s="42"/>
       <c r="D319" s="23"/>
@@ -26087,7 +27535,7 @@
       <c r="AW319" s="45"/>
     </row>
     <row r="320" ht="18.0" customHeight="1">
-      <c r="A320" s="23"/>
+      <c r="A320" s="41"/>
       <c r="B320" s="42"/>
       <c r="C320" s="42"/>
       <c r="D320" s="23"/>
@@ -26138,7 +27586,7 @@
       <c r="AW320" s="45"/>
     </row>
     <row r="321" ht="18.0" customHeight="1">
-      <c r="A321" s="41"/>
+      <c r="A321" s="23"/>
       <c r="B321" s="42"/>
       <c r="C321" s="42"/>
       <c r="D321" s="23"/>
@@ -26189,7 +27637,7 @@
       <c r="AW321" s="45"/>
     </row>
     <row r="322" ht="18.0" customHeight="1">
-      <c r="A322" s="23"/>
+      <c r="A322" s="41"/>
       <c r="B322" s="42"/>
       <c r="C322" s="42"/>
       <c r="D322" s="23"/>
@@ -26240,7 +27688,7 @@
       <c r="AW322" s="45"/>
     </row>
     <row r="323" ht="18.0" customHeight="1">
-      <c r="A323" s="41"/>
+      <c r="A323" s="23"/>
       <c r="B323" s="42"/>
       <c r="C323" s="42"/>
       <c r="D323" s="23"/>
@@ -26291,7 +27739,7 @@
       <c r="AW323" s="45"/>
     </row>
     <row r="324" ht="18.0" customHeight="1">
-      <c r="A324" s="23"/>
+      <c r="A324" s="41"/>
       <c r="B324" s="42"/>
       <c r="C324" s="42"/>
       <c r="D324" s="23"/>
@@ -26342,7 +27790,7 @@
       <c r="AW324" s="45"/>
     </row>
     <row r="325" ht="18.0" customHeight="1">
-      <c r="A325" s="41"/>
+      <c r="A325" s="23"/>
       <c r="B325" s="42"/>
       <c r="C325" s="42"/>
       <c r="D325" s="23"/>
@@ -26393,7 +27841,7 @@
       <c r="AW325" s="45"/>
     </row>
     <row r="326" ht="18.0" customHeight="1">
-      <c r="A326" s="23"/>
+      <c r="A326" s="41"/>
       <c r="B326" s="42"/>
       <c r="C326" s="42"/>
       <c r="D326" s="23"/>
@@ -26444,7 +27892,7 @@
       <c r="AW326" s="45"/>
     </row>
     <row r="327" ht="18.0" customHeight="1">
-      <c r="A327" s="41"/>
+      <c r="A327" s="23"/>
       <c r="B327" s="42"/>
       <c r="C327" s="42"/>
       <c r="D327" s="23"/>
@@ -26495,7 +27943,7 @@
       <c r="AW327" s="45"/>
     </row>
     <row r="328" ht="18.0" customHeight="1">
-      <c r="A328" s="23"/>
+      <c r="A328" s="41"/>
       <c r="B328" s="42"/>
       <c r="C328" s="42"/>
       <c r="D328" s="23"/>
@@ -26546,7 +27994,7 @@
       <c r="AW328" s="45"/>
     </row>
     <row r="329" ht="18.0" customHeight="1">
-      <c r="A329" s="41"/>
+      <c r="A329" s="23"/>
       <c r="B329" s="42"/>
       <c r="C329" s="42"/>
       <c r="D329" s="23"/>
@@ -26597,7 +28045,7 @@
       <c r="AW329" s="45"/>
     </row>
     <row r="330" ht="18.0" customHeight="1">
-      <c r="A330" s="23"/>
+      <c r="A330" s="41"/>
       <c r="B330" s="42"/>
       <c r="C330" s="42"/>
       <c r="D330" s="23"/>
@@ -26648,7 +28096,7 @@
       <c r="AW330" s="45"/>
     </row>
     <row r="331" ht="18.0" customHeight="1">
-      <c r="A331" s="41"/>
+      <c r="A331" s="23"/>
       <c r="B331" s="42"/>
       <c r="C331" s="42"/>
       <c r="D331" s="23"/>
@@ -26699,7 +28147,7 @@
       <c r="AW331" s="45"/>
     </row>
     <row r="332" ht="18.0" customHeight="1">
-      <c r="A332" s="23"/>
+      <c r="A332" s="41"/>
       <c r="B332" s="42"/>
       <c r="C332" s="42"/>
       <c r="D332" s="23"/>
@@ -26750,7 +28198,7 @@
       <c r="AW332" s="45"/>
     </row>
     <row r="333" ht="18.0" customHeight="1">
-      <c r="A333" s="41"/>
+      <c r="A333" s="23"/>
       <c r="B333" s="42"/>
       <c r="C333" s="42"/>
       <c r="D333" s="23"/>
@@ -26801,7 +28249,7 @@
       <c r="AW333" s="45"/>
     </row>
     <row r="334" ht="18.0" customHeight="1">
-      <c r="A334" s="23"/>
+      <c r="A334" s="41"/>
       <c r="B334" s="42"/>
       <c r="C334" s="42"/>
       <c r="D334" s="23"/>
@@ -26852,7 +28300,7 @@
       <c r="AW334" s="45"/>
     </row>
     <row r="335" ht="18.0" customHeight="1">
-      <c r="A335" s="41"/>
+      <c r="A335" s="23"/>
       <c r="B335" s="42"/>
       <c r="C335" s="42"/>
       <c r="D335" s="23"/>
@@ -26903,7 +28351,7 @@
       <c r="AW335" s="45"/>
     </row>
     <row r="336" ht="18.0" customHeight="1">
-      <c r="A336" s="23"/>
+      <c r="A336" s="41"/>
       <c r="B336" s="42"/>
       <c r="C336" s="42"/>
       <c r="D336" s="23"/>
@@ -26954,7 +28402,7 @@
       <c r="AW336" s="45"/>
     </row>
     <row r="337" ht="18.0" customHeight="1">
-      <c r="A337" s="41"/>
+      <c r="A337" s="23"/>
       <c r="B337" s="42"/>
       <c r="C337" s="42"/>
       <c r="D337" s="23"/>
@@ -27005,7 +28453,7 @@
       <c r="AW337" s="45"/>
     </row>
     <row r="338" ht="18.0" customHeight="1">
-      <c r="A338" s="23"/>
+      <c r="A338" s="41"/>
       <c r="B338" s="42"/>
       <c r="C338" s="42"/>
       <c r="D338" s="23"/>
@@ -27056,7 +28504,7 @@
       <c r="AW338" s="45"/>
     </row>
     <row r="339" ht="18.0" customHeight="1">
-      <c r="A339" s="41"/>
+      <c r="A339" s="23"/>
       <c r="B339" s="42"/>
       <c r="C339" s="42"/>
       <c r="D339" s="23"/>
@@ -27107,7 +28555,7 @@
       <c r="AW339" s="45"/>
     </row>
     <row r="340" ht="18.0" customHeight="1">
-      <c r="A340" s="23"/>
+      <c r="A340" s="41"/>
       <c r="B340" s="42"/>
       <c r="C340" s="42"/>
       <c r="D340" s="23"/>
@@ -27158,9 +28606,9 @@
       <c r="AW340" s="45"/>
     </row>
     <row r="341" ht="18.0" customHeight="1">
-      <c r="A341" s="41"/>
+      <c r="A341" s="23"/>
       <c r="B341" s="42"/>
-      <c r="C341" s="42"/>
+      <c r="C341" s="46"/>
       <c r="D341" s="23"/>
       <c r="E341" s="24"/>
       <c r="F341" s="24"/>
@@ -27209,9 +28657,9 @@
       <c r="AW341" s="45"/>
     </row>
     <row r="342" ht="18.0" customHeight="1">
-      <c r="A342" s="23"/>
+      <c r="A342" s="41"/>
       <c r="B342" s="42"/>
-      <c r="C342" s="46"/>
+      <c r="C342" s="42"/>
       <c r="D342" s="23"/>
       <c r="E342" s="24"/>
       <c r="F342" s="24"/>
@@ -27260,7 +28708,7 @@
       <c r="AW342" s="45"/>
     </row>
     <row r="343" ht="18.0" customHeight="1">
-      <c r="A343" s="41"/>
+      <c r="A343" s="23"/>
       <c r="B343" s="42"/>
       <c r="C343" s="42"/>
       <c r="D343" s="23"/>
@@ -27311,9 +28759,9 @@
       <c r="AW343" s="45"/>
     </row>
     <row r="344" ht="18.0" customHeight="1">
-      <c r="A344" s="23"/>
+      <c r="A344" s="41"/>
       <c r="B344" s="42"/>
-      <c r="C344" s="42"/>
+      <c r="C344" s="46"/>
       <c r="D344" s="23"/>
       <c r="E344" s="24"/>
       <c r="F344" s="24"/>
@@ -27362,9 +28810,9 @@
       <c r="AW344" s="45"/>
     </row>
     <row r="345" ht="18.0" customHeight="1">
-      <c r="A345" s="41"/>
+      <c r="A345" s="23"/>
       <c r="B345" s="42"/>
-      <c r="C345" s="46"/>
+      <c r="C345" s="42"/>
       <c r="D345" s="23"/>
       <c r="E345" s="24"/>
       <c r="F345" s="24"/>
@@ -27413,7 +28861,7 @@
       <c r="AW345" s="45"/>
     </row>
     <row r="346" ht="18.0" customHeight="1">
-      <c r="A346" s="23"/>
+      <c r="A346" s="41"/>
       <c r="B346" s="42"/>
       <c r="C346" s="42"/>
       <c r="D346" s="23"/>
@@ -27464,7 +28912,7 @@
       <c r="AW346" s="45"/>
     </row>
     <row r="347" ht="18.0" customHeight="1">
-      <c r="A347" s="41"/>
+      <c r="A347" s="23"/>
       <c r="B347" s="42"/>
       <c r="C347" s="42"/>
       <c r="D347" s="23"/>
@@ -27515,7 +28963,7 @@
       <c r="AW347" s="45"/>
     </row>
     <row r="348" ht="18.0" customHeight="1">
-      <c r="A348" s="23"/>
+      <c r="A348" s="41"/>
       <c r="B348" s="42"/>
       <c r="C348" s="42"/>
       <c r="D348" s="23"/>
@@ -27566,7 +29014,7 @@
       <c r="AW348" s="45"/>
     </row>
     <row r="349" ht="18.0" customHeight="1">
-      <c r="A349" s="41"/>
+      <c r="A349" s="23"/>
       <c r="B349" s="42"/>
       <c r="C349" s="42"/>
       <c r="D349" s="23"/>
@@ -27617,7 +29065,7 @@
       <c r="AW349" s="45"/>
     </row>
     <row r="350" ht="18.0" customHeight="1">
-      <c r="A350" s="23"/>
+      <c r="A350" s="41"/>
       <c r="B350" s="42"/>
       <c r="C350" s="42"/>
       <c r="D350" s="23"/>
@@ -27668,7 +29116,7 @@
       <c r="AW350" s="45"/>
     </row>
     <row r="351" ht="18.0" customHeight="1">
-      <c r="A351" s="41"/>
+      <c r="A351" s="23"/>
       <c r="B351" s="42"/>
       <c r="C351" s="42"/>
       <c r="D351" s="23"/>
@@ -27719,7 +29167,7 @@
       <c r="AW351" s="45"/>
     </row>
     <row r="352" ht="18.0" customHeight="1">
-      <c r="A352" s="23"/>
+      <c r="A352" s="41"/>
       <c r="B352" s="42"/>
       <c r="C352" s="42"/>
       <c r="D352" s="23"/>
@@ -27770,7 +29218,7 @@
       <c r="AW352" s="45"/>
     </row>
     <row r="353" ht="18.0" customHeight="1">
-      <c r="A353" s="41"/>
+      <c r="A353" s="23"/>
       <c r="B353" s="42"/>
       <c r="C353" s="42"/>
       <c r="D353" s="23"/>
@@ -27821,7 +29269,7 @@
       <c r="AW353" s="45"/>
     </row>
     <row r="354" ht="18.0" customHeight="1">
-      <c r="A354" s="23"/>
+      <c r="A354" s="41"/>
       <c r="B354" s="42"/>
       <c r="C354" s="42"/>
       <c r="D354" s="23"/>
@@ -27872,7 +29320,7 @@
       <c r="AW354" s="45"/>
     </row>
     <row r="355" ht="18.0" customHeight="1">
-      <c r="A355" s="41"/>
+      <c r="A355" s="23"/>
       <c r="B355" s="42"/>
       <c r="C355" s="42"/>
       <c r="D355" s="23"/>
@@ -27923,7 +29371,7 @@
       <c r="AW355" s="45"/>
     </row>
     <row r="356" ht="18.0" customHeight="1">
-      <c r="A356" s="23"/>
+      <c r="A356" s="41"/>
       <c r="B356" s="42"/>
       <c r="C356" s="42"/>
       <c r="D356" s="23"/>
@@ -27974,7 +29422,7 @@
       <c r="AW356" s="45"/>
     </row>
     <row r="357" ht="18.0" customHeight="1">
-      <c r="A357" s="41"/>
+      <c r="A357" s="23"/>
       <c r="B357" s="42"/>
       <c r="C357" s="42"/>
       <c r="D357" s="23"/>
@@ -28025,7 +29473,7 @@
       <c r="AW357" s="45"/>
     </row>
     <row r="358" ht="18.0" customHeight="1">
-      <c r="A358" s="23"/>
+      <c r="A358" s="41"/>
       <c r="B358" s="42"/>
       <c r="C358" s="42"/>
       <c r="D358" s="23"/>
@@ -28076,7 +29524,7 @@
       <c r="AW358" s="45"/>
     </row>
     <row r="359" ht="18.0" customHeight="1">
-      <c r="A359" s="41"/>
+      <c r="A359" s="23"/>
       <c r="B359" s="42"/>
       <c r="C359" s="42"/>
       <c r="D359" s="23"/>
@@ -28127,7 +29575,7 @@
       <c r="AW359" s="45"/>
     </row>
     <row r="360" ht="18.0" customHeight="1">
-      <c r="A360" s="23"/>
+      <c r="A360" s="41"/>
       <c r="B360" s="42"/>
       <c r="C360" s="42"/>
       <c r="D360" s="23"/>
@@ -28178,7 +29626,7 @@
       <c r="AW360" s="45"/>
     </row>
     <row r="361" ht="18.0" customHeight="1">
-      <c r="A361" s="41"/>
+      <c r="A361" s="23"/>
       <c r="B361" s="42"/>
       <c r="C361" s="42"/>
       <c r="D361" s="23"/>
@@ -28229,7 +29677,7 @@
       <c r="AW361" s="45"/>
     </row>
     <row r="362" ht="18.0" customHeight="1">
-      <c r="A362" s="23"/>
+      <c r="A362" s="41"/>
       <c r="B362" s="42"/>
       <c r="C362" s="42"/>
       <c r="D362" s="23"/>
@@ -28280,7 +29728,7 @@
       <c r="AW362" s="45"/>
     </row>
     <row r="363" ht="18.0" customHeight="1">
-      <c r="A363" s="41"/>
+      <c r="A363" s="23"/>
       <c r="B363" s="42"/>
       <c r="C363" s="42"/>
       <c r="D363" s="23"/>
@@ -28331,7 +29779,7 @@
       <c r="AW363" s="45"/>
     </row>
     <row r="364" ht="18.0" customHeight="1">
-      <c r="A364" s="23"/>
+      <c r="A364" s="41"/>
       <c r="B364" s="42"/>
       <c r="C364" s="42"/>
       <c r="D364" s="23"/>
@@ -28382,7 +29830,7 @@
       <c r="AW364" s="45"/>
     </row>
     <row r="365" ht="18.0" customHeight="1">
-      <c r="A365" s="41"/>
+      <c r="A365" s="23"/>
       <c r="B365" s="42"/>
       <c r="C365" s="42"/>
       <c r="D365" s="23"/>
@@ -28433,7 +29881,7 @@
       <c r="AW365" s="45"/>
     </row>
     <row r="366" ht="18.0" customHeight="1">
-      <c r="A366" s="23"/>
+      <c r="A366" s="41"/>
       <c r="B366" s="42"/>
       <c r="C366" s="42"/>
       <c r="D366" s="23"/>
@@ -28484,7 +29932,7 @@
       <c r="AW366" s="45"/>
     </row>
     <row r="367" ht="18.0" customHeight="1">
-      <c r="A367" s="41"/>
+      <c r="A367" s="23"/>
       <c r="B367" s="42"/>
       <c r="C367" s="42"/>
       <c r="D367" s="23"/>
@@ -28535,7 +29983,7 @@
       <c r="AW367" s="45"/>
     </row>
     <row r="368" ht="18.0" customHeight="1">
-      <c r="A368" s="23"/>
+      <c r="A368" s="41"/>
       <c r="B368" s="42"/>
       <c r="C368" s="42"/>
       <c r="D368" s="23"/>
@@ -28586,7 +30034,7 @@
       <c r="AW368" s="45"/>
     </row>
     <row r="369" ht="18.0" customHeight="1">
-      <c r="A369" s="41"/>
+      <c r="A369" s="23"/>
       <c r="B369" s="42"/>
       <c r="C369" s="42"/>
       <c r="D369" s="23"/>
@@ -28637,7 +30085,7 @@
       <c r="AW369" s="45"/>
     </row>
     <row r="370" ht="18.0" customHeight="1">
-      <c r="A370" s="23"/>
+      <c r="A370" s="41"/>
       <c r="B370" s="42"/>
       <c r="C370" s="42"/>
       <c r="D370" s="23"/>
@@ -28688,7 +30136,7 @@
       <c r="AW370" s="45"/>
     </row>
     <row r="371" ht="18.0" customHeight="1">
-      <c r="A371" s="41"/>
+      <c r="A371" s="23"/>
       <c r="B371" s="42"/>
       <c r="C371" s="42"/>
       <c r="D371" s="23"/>
@@ -28739,7 +30187,7 @@
       <c r="AW371" s="45"/>
     </row>
     <row r="372" ht="18.0" customHeight="1">
-      <c r="A372" s="23"/>
+      <c r="A372" s="41"/>
       <c r="B372" s="42"/>
       <c r="C372" s="42"/>
       <c r="D372" s="23"/>
@@ -28790,7 +30238,7 @@
       <c r="AW372" s="45"/>
     </row>
     <row r="373" ht="18.0" customHeight="1">
-      <c r="A373" s="41"/>
+      <c r="A373" s="23"/>
       <c r="B373" s="42"/>
       <c r="C373" s="42"/>
       <c r="D373" s="23"/>
@@ -28841,7 +30289,7 @@
       <c r="AW373" s="45"/>
     </row>
     <row r="374" ht="18.0" customHeight="1">
-      <c r="A374" s="23"/>
+      <c r="A374" s="41"/>
       <c r="B374" s="42"/>
       <c r="C374" s="42"/>
       <c r="D374" s="23"/>
@@ -28892,7 +30340,7 @@
       <c r="AW374" s="45"/>
     </row>
     <row r="375" ht="18.0" customHeight="1">
-      <c r="A375" s="41"/>
+      <c r="A375" s="23"/>
       <c r="B375" s="42"/>
       <c r="C375" s="42"/>
       <c r="D375" s="23"/>
@@ -28943,7 +30391,7 @@
       <c r="AW375" s="45"/>
     </row>
     <row r="376" ht="18.0" customHeight="1">
-      <c r="A376" s="23"/>
+      <c r="A376" s="41"/>
       <c r="B376" s="42"/>
       <c r="C376" s="42"/>
       <c r="D376" s="23"/>
@@ -28994,7 +30442,7 @@
       <c r="AW376" s="45"/>
     </row>
     <row r="377" ht="18.0" customHeight="1">
-      <c r="A377" s="41"/>
+      <c r="A377" s="23"/>
       <c r="B377" s="42"/>
       <c r="C377" s="42"/>
       <c r="D377" s="23"/>
@@ -29045,7 +30493,7 @@
       <c r="AW377" s="45"/>
     </row>
     <row r="378" ht="18.0" customHeight="1">
-      <c r="A378" s="23"/>
+      <c r="A378" s="41"/>
       <c r="B378" s="42"/>
       <c r="C378" s="42"/>
       <c r="D378" s="23"/>
@@ -29096,7 +30544,7 @@
       <c r="AW378" s="45"/>
     </row>
     <row r="379" ht="18.0" customHeight="1">
-      <c r="A379" s="41"/>
+      <c r="A379" s="23"/>
       <c r="B379" s="42"/>
       <c r="C379" s="42"/>
       <c r="D379" s="23"/>
@@ -29147,7 +30595,7 @@
       <c r="AW379" s="45"/>
     </row>
     <row r="380" ht="18.0" customHeight="1">
-      <c r="A380" s="23"/>
+      <c r="A380" s="41"/>
       <c r="B380" s="42"/>
       <c r="C380" s="42"/>
       <c r="D380" s="23"/>
@@ -29198,7 +30646,7 @@
       <c r="AW380" s="45"/>
     </row>
     <row r="381" ht="18.0" customHeight="1">
-      <c r="A381" s="41"/>
+      <c r="A381" s="23"/>
       <c r="B381" s="42"/>
       <c r="C381" s="42"/>
       <c r="D381" s="23"/>
@@ -29249,7 +30697,7 @@
       <c r="AW381" s="45"/>
     </row>
     <row r="382" ht="18.0" customHeight="1">
-      <c r="A382" s="23"/>
+      <c r="A382" s="41"/>
       <c r="B382" s="42"/>
       <c r="C382" s="42"/>
       <c r="D382" s="23"/>
@@ -29300,7 +30748,7 @@
       <c r="AW382" s="45"/>
     </row>
     <row r="383" ht="18.0" customHeight="1">
-      <c r="A383" s="41"/>
+      <c r="A383" s="23"/>
       <c r="B383" s="42"/>
       <c r="C383" s="42"/>
       <c r="D383" s="23"/>
@@ -29351,7 +30799,7 @@
       <c r="AW383" s="45"/>
     </row>
     <row r="384" ht="18.0" customHeight="1">
-      <c r="A384" s="23"/>
+      <c r="A384" s="41"/>
       <c r="B384" s="42"/>
       <c r="C384" s="42"/>
       <c r="D384" s="23"/>
@@ -29402,7 +30850,7 @@
       <c r="AW384" s="45"/>
     </row>
     <row r="385" ht="18.0" customHeight="1">
-      <c r="A385" s="41"/>
+      <c r="A385" s="23"/>
       <c r="B385" s="42"/>
       <c r="C385" s="42"/>
       <c r="D385" s="23"/>
@@ -29453,7 +30901,7 @@
       <c r="AW385" s="45"/>
     </row>
     <row r="386" ht="18.0" customHeight="1">
-      <c r="A386" s="23"/>
+      <c r="A386" s="41"/>
       <c r="B386" s="42"/>
       <c r="C386" s="42"/>
       <c r="D386" s="23"/>
@@ -29504,7 +30952,7 @@
       <c r="AW386" s="45"/>
     </row>
     <row r="387" ht="18.0" customHeight="1">
-      <c r="A387" s="41"/>
+      <c r="A387" s="23"/>
       <c r="B387" s="42"/>
       <c r="C387" s="42"/>
       <c r="D387" s="23"/>
@@ -29555,7 +31003,7 @@
       <c r="AW387" s="45"/>
     </row>
     <row r="388" ht="18.0" customHeight="1">
-      <c r="A388" s="23"/>
+      <c r="A388" s="41"/>
       <c r="B388" s="42"/>
       <c r="C388" s="42"/>
       <c r="D388" s="23"/>
@@ -29606,7 +31054,7 @@
       <c r="AW388" s="45"/>
     </row>
     <row r="389" ht="18.0" customHeight="1">
-      <c r="A389" s="41"/>
+      <c r="A389" s="23"/>
       <c r="B389" s="42"/>
       <c r="C389" s="42"/>
       <c r="D389" s="23"/>
@@ -29657,7 +31105,7 @@
       <c r="AW389" s="45"/>
     </row>
     <row r="390" ht="18.0" customHeight="1">
-      <c r="A390" s="23"/>
+      <c r="A390" s="41"/>
       <c r="B390" s="42"/>
       <c r="C390" s="42"/>
       <c r="D390" s="23"/>
@@ -29708,7 +31156,7 @@
       <c r="AW390" s="45"/>
     </row>
     <row r="391" ht="18.0" customHeight="1">
-      <c r="A391" s="41"/>
+      <c r="A391" s="23"/>
       <c r="B391" s="42"/>
       <c r="C391" s="42"/>
       <c r="D391" s="23"/>
@@ -29759,7 +31207,7 @@
       <c r="AW391" s="45"/>
     </row>
     <row r="392" ht="18.0" customHeight="1">
-      <c r="A392" s="23"/>
+      <c r="A392" s="41"/>
       <c r="B392" s="42"/>
       <c r="C392" s="42"/>
       <c r="D392" s="23"/>
@@ -29810,7 +31258,7 @@
       <c r="AW392" s="45"/>
     </row>
     <row r="393" ht="18.0" customHeight="1">
-      <c r="A393" s="41"/>
+      <c r="A393" s="23"/>
       <c r="B393" s="42"/>
       <c r="C393" s="42"/>
       <c r="D393" s="23"/>
@@ -29861,7 +31309,7 @@
       <c r="AW393" s="45"/>
     </row>
     <row r="394" ht="18.0" customHeight="1">
-      <c r="A394" s="23"/>
+      <c r="A394" s="41"/>
       <c r="B394" s="42"/>
       <c r="C394" s="42"/>
       <c r="D394" s="23"/>
@@ -29912,7 +31360,7 @@
       <c r="AW394" s="45"/>
     </row>
     <row r="395" ht="18.0" customHeight="1">
-      <c r="A395" s="41"/>
+      <c r="A395" s="23"/>
       <c r="B395" s="42"/>
       <c r="C395" s="42"/>
       <c r="D395" s="23"/>
@@ -29963,7 +31411,7 @@
       <c r="AW395" s="45"/>
     </row>
     <row r="396" ht="18.0" customHeight="1">
-      <c r="A396" s="23"/>
+      <c r="A396" s="41"/>
       <c r="B396" s="42"/>
       <c r="C396" s="42"/>
       <c r="D396" s="23"/>
@@ -30014,7 +31462,7 @@
       <c r="AW396" s="45"/>
     </row>
     <row r="397" ht="18.0" customHeight="1">
-      <c r="A397" s="41"/>
+      <c r="A397" s="23"/>
       <c r="B397" s="42"/>
       <c r="C397" s="42"/>
       <c r="D397" s="23"/>
@@ -30065,7 +31513,7 @@
       <c r="AW397" s="45"/>
     </row>
     <row r="398" ht="18.0" customHeight="1">
-      <c r="A398" s="23"/>
+      <c r="A398" s="41"/>
       <c r="B398" s="42"/>
       <c r="C398" s="42"/>
       <c r="D398" s="23"/>
@@ -30116,7 +31564,7 @@
       <c r="AW398" s="45"/>
     </row>
     <row r="399" ht="18.0" customHeight="1">
-      <c r="A399" s="41"/>
+      <c r="A399" s="23"/>
       <c r="B399" s="42"/>
       <c r="C399" s="42"/>
       <c r="D399" s="23"/>
@@ -30167,7 +31615,7 @@
       <c r="AW399" s="45"/>
     </row>
     <row r="400" ht="18.0" customHeight="1">
-      <c r="A400" s="23"/>
+      <c r="A400" s="41"/>
       <c r="B400" s="42"/>
       <c r="C400" s="42"/>
       <c r="D400" s="23"/>
@@ -30218,7 +31666,7 @@
       <c r="AW400" s="45"/>
     </row>
     <row r="401" ht="18.0" customHeight="1">
-      <c r="A401" s="41"/>
+      <c r="A401" s="23"/>
       <c r="B401" s="42"/>
       <c r="C401" s="42"/>
       <c r="D401" s="23"/>
@@ -30269,7 +31717,7 @@
       <c r="AW401" s="45"/>
     </row>
     <row r="402" ht="18.0" customHeight="1">
-      <c r="A402" s="23"/>
+      <c r="A402" s="41"/>
       <c r="B402" s="42"/>
       <c r="C402" s="42"/>
       <c r="D402" s="23"/>
@@ -30320,7 +31768,7 @@
       <c r="AW402" s="45"/>
     </row>
     <row r="403" ht="18.0" customHeight="1">
-      <c r="A403" s="41"/>
+      <c r="A403" s="23"/>
       <c r="B403" s="42"/>
       <c r="C403" s="42"/>
       <c r="D403" s="23"/>
@@ -30371,7 +31819,7 @@
       <c r="AW403" s="45"/>
     </row>
     <row r="404" ht="18.0" customHeight="1">
-      <c r="A404" s="23"/>
+      <c r="A404" s="41"/>
       <c r="B404" s="42"/>
       <c r="C404" s="42"/>
       <c r="D404" s="23"/>
@@ -30394,8 +31842,8 @@
       <c r="U404" s="24"/>
       <c r="V404" s="24"/>
       <c r="W404" s="24"/>
-      <c r="X404" s="23"/>
-      <c r="Y404" s="23"/>
+      <c r="X404" s="28"/>
+      <c r="Y404" s="28"/>
       <c r="Z404" s="49"/>
       <c r="AA404" s="24"/>
       <c r="AB404" s="23"/>
@@ -30422,7 +31870,7 @@
       <c r="AW404" s="45"/>
     </row>
     <row r="405" ht="18.0" customHeight="1">
-      <c r="A405" s="41"/>
+      <c r="A405" s="23"/>
       <c r="B405" s="42"/>
       <c r="C405" s="42"/>
       <c r="D405" s="23"/>
@@ -30445,8 +31893,8 @@
       <c r="U405" s="24"/>
       <c r="V405" s="24"/>
       <c r="W405" s="24"/>
-      <c r="X405" s="28"/>
-      <c r="Y405" s="28"/>
+      <c r="X405" s="23"/>
+      <c r="Y405" s="23"/>
       <c r="Z405" s="49"/>
       <c r="AA405" s="24"/>
       <c r="AB405" s="23"/>
@@ -30473,7 +31921,7 @@
       <c r="AW405" s="45"/>
     </row>
     <row r="406" ht="18.0" customHeight="1">
-      <c r="A406" s="23"/>
+      <c r="A406" s="41"/>
       <c r="B406" s="42"/>
       <c r="C406" s="42"/>
       <c r="D406" s="23"/>
@@ -30524,7 +31972,7 @@
       <c r="AW406" s="45"/>
     </row>
     <row r="407" ht="18.0" customHeight="1">
-      <c r="A407" s="41"/>
+      <c r="A407" s="23"/>
       <c r="B407" s="42"/>
       <c r="C407" s="42"/>
       <c r="D407" s="23"/>
@@ -30575,7 +32023,7 @@
       <c r="AW407" s="45"/>
     </row>
     <row r="408" ht="18.0" customHeight="1">
-      <c r="A408" s="23"/>
+      <c r="A408" s="41"/>
       <c r="B408" s="42"/>
       <c r="C408" s="42"/>
       <c r="D408" s="23"/>
@@ -30626,7 +32074,7 @@
       <c r="AW408" s="45"/>
     </row>
     <row r="409" ht="18.0" customHeight="1">
-      <c r="A409" s="41"/>
+      <c r="A409" s="23"/>
       <c r="B409" s="42"/>
       <c r="C409" s="42"/>
       <c r="D409" s="23"/>
@@ -30677,7 +32125,7 @@
       <c r="AW409" s="45"/>
     </row>
     <row r="410" ht="18.0" customHeight="1">
-      <c r="A410" s="23"/>
+      <c r="A410" s="41"/>
       <c r="B410" s="42"/>
       <c r="C410" s="42"/>
       <c r="D410" s="23"/>
@@ -30728,7 +32176,7 @@
       <c r="AW410" s="45"/>
     </row>
     <row r="411" ht="18.0" customHeight="1">
-      <c r="A411" s="41"/>
+      <c r="A411" s="23"/>
       <c r="B411" s="42"/>
       <c r="C411" s="42"/>
       <c r="D411" s="23"/>
@@ -30779,7 +32227,7 @@
       <c r="AW411" s="45"/>
     </row>
     <row r="412" ht="18.0" customHeight="1">
-      <c r="A412" s="23"/>
+      <c r="A412" s="41"/>
       <c r="B412" s="42"/>
       <c r="C412" s="42"/>
       <c r="D412" s="23"/>
@@ -30830,7 +32278,7 @@
       <c r="AW412" s="45"/>
     </row>
     <row r="413" ht="18.0" customHeight="1">
-      <c r="A413" s="41"/>
+      <c r="A413" s="23"/>
       <c r="B413" s="42"/>
       <c r="C413" s="42"/>
       <c r="D413" s="23"/>
@@ -30881,7 +32329,7 @@
       <c r="AW413" s="45"/>
     </row>
     <row r="414" ht="18.0" customHeight="1">
-      <c r="A414" s="23"/>
+      <c r="A414" s="41"/>
       <c r="B414" s="42"/>
       <c r="C414" s="42"/>
       <c r="D414" s="23"/>
@@ -30932,7 +32380,7 @@
       <c r="AW414" s="45"/>
     </row>
     <row r="415" ht="18.0" customHeight="1">
-      <c r="A415" s="41"/>
+      <c r="A415" s="23"/>
       <c r="B415" s="42"/>
       <c r="C415" s="42"/>
       <c r="D415" s="23"/>
@@ -30983,7 +32431,7 @@
       <c r="AW415" s="45"/>
     </row>
     <row r="416" ht="18.0" customHeight="1">
-      <c r="A416" s="23"/>
+      <c r="A416" s="41"/>
       <c r="B416" s="42"/>
       <c r="C416" s="42"/>
       <c r="D416" s="23"/>
@@ -31034,7 +32482,7 @@
       <c r="AW416" s="45"/>
     </row>
     <row r="417" ht="18.0" customHeight="1">
-      <c r="A417" s="41"/>
+      <c r="A417" s="23"/>
       <c r="B417" s="42"/>
       <c r="C417" s="42"/>
       <c r="D417" s="23"/>
@@ -31085,7 +32533,7 @@
       <c r="AW417" s="45"/>
     </row>
     <row r="418" ht="18.0" customHeight="1">
-      <c r="A418" s="23"/>
+      <c r="A418" s="41"/>
       <c r="B418" s="42"/>
       <c r="C418" s="42"/>
       <c r="D418" s="23"/>
@@ -31136,7 +32584,7 @@
       <c r="AW418" s="45"/>
     </row>
     <row r="419" ht="18.0" customHeight="1">
-      <c r="A419" s="41"/>
+      <c r="A419" s="23"/>
       <c r="B419" s="42"/>
       <c r="C419" s="42"/>
       <c r="D419" s="23"/>
@@ -31187,7 +32635,7 @@
       <c r="AW419" s="45"/>
     </row>
     <row r="420" ht="18.0" customHeight="1">
-      <c r="A420" s="23"/>
+      <c r="A420" s="41"/>
       <c r="B420" s="42"/>
       <c r="C420" s="42"/>
       <c r="D420" s="23"/>
@@ -31238,7 +32686,7 @@
       <c r="AW420" s="45"/>
     </row>
     <row r="421" ht="18.0" customHeight="1">
-      <c r="A421" s="41"/>
+      <c r="A421" s="23"/>
       <c r="B421" s="42"/>
       <c r="C421" s="42"/>
       <c r="D421" s="23"/>
@@ -31289,7 +32737,7 @@
       <c r="AW421" s="45"/>
     </row>
     <row r="422" ht="18.0" customHeight="1">
-      <c r="A422" s="23"/>
+      <c r="A422" s="41"/>
       <c r="B422" s="42"/>
       <c r="C422" s="42"/>
       <c r="D422" s="23"/>
@@ -31340,7 +32788,7 @@
       <c r="AW422" s="45"/>
     </row>
     <row r="423" ht="18.0" customHeight="1">
-      <c r="A423" s="41"/>
+      <c r="A423" s="23"/>
       <c r="B423" s="42"/>
       <c r="C423" s="42"/>
       <c r="D423" s="23"/>
@@ -31391,7 +32839,7 @@
       <c r="AW423" s="45"/>
     </row>
     <row r="424" ht="18.0" customHeight="1">
-      <c r="A424" s="23"/>
+      <c r="A424" s="41"/>
       <c r="B424" s="42"/>
       <c r="C424" s="42"/>
       <c r="D424" s="23"/>
@@ -31442,7 +32890,7 @@
       <c r="AW424" s="45"/>
     </row>
     <row r="425" ht="18.0" customHeight="1">
-      <c r="A425" s="41"/>
+      <c r="A425" s="23"/>
       <c r="B425" s="42"/>
       <c r="C425" s="42"/>
       <c r="D425" s="23"/>
@@ -31493,7 +32941,7 @@
       <c r="AW425" s="45"/>
     </row>
     <row r="426" ht="18.0" customHeight="1">
-      <c r="A426" s="23"/>
+      <c r="A426" s="41"/>
       <c r="B426" s="42"/>
       <c r="C426" s="42"/>
       <c r="D426" s="23"/>
@@ -31544,9 +32992,9 @@
       <c r="AW426" s="45"/>
     </row>
     <row r="427" ht="18.0" customHeight="1">
-      <c r="A427" s="41"/>
+      <c r="A427" s="23"/>
       <c r="B427" s="42"/>
-      <c r="C427" s="42"/>
+      <c r="C427" s="46"/>
       <c r="D427" s="23"/>
       <c r="E427" s="24"/>
       <c r="F427" s="24"/>
@@ -31595,9 +33043,9 @@
       <c r="AW427" s="45"/>
     </row>
     <row r="428" ht="18.0" customHeight="1">
-      <c r="A428" s="23"/>
+      <c r="A428" s="41"/>
       <c r="B428" s="42"/>
-      <c r="C428" s="46"/>
+      <c r="C428" s="42"/>
       <c r="D428" s="23"/>
       <c r="E428" s="24"/>
       <c r="F428" s="24"/>
@@ -31646,7 +33094,7 @@
       <c r="AW428" s="45"/>
     </row>
     <row r="429" ht="18.0" customHeight="1">
-      <c r="A429" s="41"/>
+      <c r="A429" s="23"/>
       <c r="B429" s="42"/>
       <c r="C429" s="42"/>
       <c r="D429" s="23"/>
@@ -31697,7 +33145,7 @@
       <c r="AW429" s="45"/>
     </row>
     <row r="430" ht="18.0" customHeight="1">
-      <c r="A430" s="23"/>
+      <c r="A430" s="41"/>
       <c r="B430" s="42"/>
       <c r="C430" s="42"/>
       <c r="D430" s="23"/>
@@ -31748,7 +33196,7 @@
       <c r="AW430" s="45"/>
     </row>
     <row r="431" ht="18.0" customHeight="1">
-      <c r="A431" s="41"/>
+      <c r="A431" s="23"/>
       <c r="B431" s="42"/>
       <c r="C431" s="42"/>
       <c r="D431" s="23"/>
@@ -31799,7 +33247,7 @@
       <c r="AW431" s="45"/>
     </row>
     <row r="432" ht="18.0" customHeight="1">
-      <c r="A432" s="23"/>
+      <c r="A432" s="41"/>
       <c r="B432" s="42"/>
       <c r="C432" s="42"/>
       <c r="D432" s="23"/>
@@ -31850,7 +33298,7 @@
       <c r="AW432" s="45"/>
     </row>
     <row r="433" ht="18.0" customHeight="1">
-      <c r="A433" s="41"/>
+      <c r="A433" s="23"/>
       <c r="B433" s="42"/>
       <c r="C433" s="42"/>
       <c r="D433" s="23"/>
@@ -31901,7 +33349,7 @@
       <c r="AW433" s="45"/>
     </row>
     <row r="434" ht="18.0" customHeight="1">
-      <c r="A434" s="23"/>
+      <c r="A434" s="41"/>
       <c r="B434" s="42"/>
       <c r="C434" s="42"/>
       <c r="D434" s="23"/>
@@ -31952,7 +33400,7 @@
       <c r="AW434" s="45"/>
     </row>
     <row r="435" ht="18.0" customHeight="1">
-      <c r="A435" s="41"/>
+      <c r="A435" s="23"/>
       <c r="B435" s="42"/>
       <c r="C435" s="42"/>
       <c r="D435" s="23"/>
@@ -32003,7 +33451,7 @@
       <c r="AW435" s="45"/>
     </row>
     <row r="436" ht="18.0" customHeight="1">
-      <c r="A436" s="23"/>
+      <c r="A436" s="41"/>
       <c r="B436" s="42"/>
       <c r="C436" s="42"/>
       <c r="D436" s="23"/>
@@ -32054,7 +33502,7 @@
       <c r="AW436" s="45"/>
     </row>
     <row r="437" ht="18.0" customHeight="1">
-      <c r="A437" s="41"/>
+      <c r="A437" s="23"/>
       <c r="B437" s="42"/>
       <c r="C437" s="42"/>
       <c r="D437" s="23"/>
@@ -32105,7 +33553,7 @@
       <c r="AW437" s="45"/>
     </row>
     <row r="438" ht="18.0" customHeight="1">
-      <c r="A438" s="23"/>
+      <c r="A438" s="41"/>
       <c r="B438" s="42"/>
       <c r="C438" s="42"/>
       <c r="D438" s="23"/>
@@ -32156,7 +33604,7 @@
       <c r="AW438" s="45"/>
     </row>
     <row r="439" ht="18.0" customHeight="1">
-      <c r="A439" s="41"/>
+      <c r="A439" s="23"/>
       <c r="B439" s="42"/>
       <c r="C439" s="42"/>
       <c r="D439" s="23"/>
@@ -32207,7 +33655,7 @@
       <c r="AW439" s="45"/>
     </row>
     <row r="440" ht="18.0" customHeight="1">
-      <c r="A440" s="23"/>
+      <c r="A440" s="41"/>
       <c r="B440" s="42"/>
       <c r="C440" s="42"/>
       <c r="D440" s="23"/>
@@ -32234,31 +33682,31 @@
       <c r="Y440" s="23"/>
       <c r="Z440" s="49"/>
       <c r="AA440" s="24"/>
-      <c r="AB440" s="23"/>
-      <c r="AC440" s="24"/>
-      <c r="AD440" s="24"/>
+      <c r="AB440" s="28"/>
+      <c r="AC440" s="29"/>
+      <c r="AD440" s="29"/>
       <c r="AE440" s="24"/>
       <c r="AF440" s="23"/>
       <c r="AG440" s="24"/>
       <c r="AH440" s="24"/>
       <c r="AI440" s="24"/>
-      <c r="AJ440" s="23"/>
-      <c r="AK440" s="24"/>
-      <c r="AL440" s="24"/>
+      <c r="AJ440" s="28"/>
+      <c r="AK440" s="29"/>
+      <c r="AL440" s="29"/>
       <c r="AM440" s="24"/>
-      <c r="AN440" s="44"/>
-      <c r="AO440" s="43"/>
-      <c r="AP440" s="43"/>
+      <c r="AN440" s="47"/>
+      <c r="AO440" s="48"/>
+      <c r="AP440" s="48"/>
       <c r="AQ440" s="43"/>
-      <c r="AR440" s="23"/>
-      <c r="AS440" s="24"/>
-      <c r="AT440" s="24"/>
+      <c r="AR440" s="28"/>
+      <c r="AS440" s="29"/>
+      <c r="AT440" s="29"/>
       <c r="AU440" s="24"/>
       <c r="AV440" s="45"/>
       <c r="AW440" s="45"/>
     </row>
     <row r="441" ht="18.0" customHeight="1">
-      <c r="A441" s="41"/>
+      <c r="A441" s="23"/>
       <c r="B441" s="42"/>
       <c r="C441" s="42"/>
       <c r="D441" s="23"/>
@@ -32285,31 +33733,31 @@
       <c r="Y441" s="23"/>
       <c r="Z441" s="49"/>
       <c r="AA441" s="24"/>
-      <c r="AB441" s="28"/>
-      <c r="AC441" s="29"/>
-      <c r="AD441" s="29"/>
+      <c r="AB441" s="23"/>
+      <c r="AC441" s="24"/>
+      <c r="AD441" s="24"/>
       <c r="AE441" s="24"/>
       <c r="AF441" s="23"/>
       <c r="AG441" s="24"/>
       <c r="AH441" s="24"/>
       <c r="AI441" s="24"/>
-      <c r="AJ441" s="28"/>
-      <c r="AK441" s="29"/>
-      <c r="AL441" s="29"/>
+      <c r="AJ441" s="23"/>
+      <c r="AK441" s="24"/>
+      <c r="AL441" s="24"/>
       <c r="AM441" s="24"/>
-      <c r="AN441" s="47"/>
-      <c r="AO441" s="48"/>
-      <c r="AP441" s="48"/>
+      <c r="AN441" s="44"/>
+      <c r="AO441" s="43"/>
+      <c r="AP441" s="43"/>
       <c r="AQ441" s="43"/>
-      <c r="AR441" s="28"/>
-      <c r="AS441" s="29"/>
-      <c r="AT441" s="29"/>
+      <c r="AR441" s="23"/>
+      <c r="AS441" s="24"/>
+      <c r="AT441" s="24"/>
       <c r="AU441" s="24"/>
       <c r="AV441" s="45"/>
       <c r="AW441" s="45"/>
     </row>
     <row r="442" ht="18.0" customHeight="1">
-      <c r="A442" s="23"/>
+      <c r="A442" s="41"/>
       <c r="B442" s="42"/>
       <c r="C442" s="42"/>
       <c r="D442" s="23"/>
@@ -32360,7 +33808,7 @@
       <c r="AW442" s="45"/>
     </row>
     <row r="443" ht="18.0" customHeight="1">
-      <c r="A443" s="41"/>
+      <c r="A443" s="23"/>
       <c r="B443" s="42"/>
       <c r="C443" s="42"/>
       <c r="D443" s="23"/>
@@ -32411,7 +33859,7 @@
       <c r="AW443" s="45"/>
     </row>
     <row r="444" ht="18.0" customHeight="1">
-      <c r="A444" s="23"/>
+      <c r="A444" s="41"/>
       <c r="B444" s="42"/>
       <c r="C444" s="42"/>
       <c r="D444" s="23"/>
@@ -32462,7 +33910,7 @@
       <c r="AW444" s="45"/>
     </row>
     <row r="445" ht="18.0" customHeight="1">
-      <c r="A445" s="41"/>
+      <c r="A445" s="23"/>
       <c r="B445" s="42"/>
       <c r="C445" s="42"/>
       <c r="D445" s="23"/>
@@ -32513,7 +33961,7 @@
       <c r="AW445" s="45"/>
     </row>
     <row r="446" ht="18.0" customHeight="1">
-      <c r="A446" s="23"/>
+      <c r="A446" s="41"/>
       <c r="B446" s="42"/>
       <c r="C446" s="42"/>
       <c r="D446" s="23"/>
@@ -32564,7 +34012,7 @@
       <c r="AW446" s="45"/>
     </row>
     <row r="447" ht="18.0" customHeight="1">
-      <c r="A447" s="41"/>
+      <c r="A447" s="23"/>
       <c r="B447" s="42"/>
       <c r="C447" s="42"/>
       <c r="D447" s="23"/>
@@ -32615,7 +34063,7 @@
       <c r="AW447" s="45"/>
     </row>
     <row r="448" ht="18.0" customHeight="1">
-      <c r="A448" s="23"/>
+      <c r="A448" s="41"/>
       <c r="B448" s="42"/>
       <c r="C448" s="42"/>
       <c r="D448" s="23"/>
@@ -32666,7 +34114,7 @@
       <c r="AW448" s="45"/>
     </row>
     <row r="449" ht="18.0" customHeight="1">
-      <c r="A449" s="41"/>
+      <c r="A449" s="23"/>
       <c r="B449" s="42"/>
       <c r="C449" s="42"/>
       <c r="D449" s="23"/>
@@ -32717,7 +34165,7 @@
       <c r="AW449" s="45"/>
     </row>
     <row r="450" ht="18.0" customHeight="1">
-      <c r="A450" s="23"/>
+      <c r="A450" s="41"/>
       <c r="B450" s="42"/>
       <c r="C450" s="42"/>
       <c r="D450" s="23"/>
@@ -32768,7 +34216,7 @@
       <c r="AW450" s="45"/>
     </row>
     <row r="451" ht="18.0" customHeight="1">
-      <c r="A451" s="41"/>
+      <c r="A451" s="23"/>
       <c r="B451" s="42"/>
       <c r="C451" s="42"/>
       <c r="D451" s="23"/>
@@ -32819,7 +34267,7 @@
       <c r="AW451" s="45"/>
     </row>
     <row r="452" ht="18.0" customHeight="1">
-      <c r="A452" s="23"/>
+      <c r="A452" s="41"/>
       <c r="B452" s="42"/>
       <c r="C452" s="42"/>
       <c r="D452" s="23"/>
@@ -32846,79 +34294,68 @@
       <c r="Y452" s="23"/>
       <c r="Z452" s="49"/>
       <c r="AA452" s="24"/>
-      <c r="AB452" s="23"/>
-      <c r="AC452" s="24"/>
-      <c r="AD452" s="24"/>
+      <c r="AB452" s="28"/>
+      <c r="AC452" s="29"/>
+      <c r="AD452" s="29"/>
       <c r="AE452" s="24"/>
       <c r="AF452" s="23"/>
       <c r="AG452" s="24"/>
       <c r="AH452" s="24"/>
       <c r="AI452" s="24"/>
-      <c r="AJ452" s="23"/>
-      <c r="AK452" s="24"/>
-      <c r="AL452" s="24"/>
+      <c r="AJ452" s="28"/>
+      <c r="AK452" s="29"/>
+      <c r="AL452" s="29"/>
       <c r="AM452" s="24"/>
-      <c r="AN452" s="44"/>
-      <c r="AO452" s="43"/>
-      <c r="AP452" s="43"/>
+      <c r="AN452" s="47"/>
+      <c r="AO452" s="48"/>
+      <c r="AP452" s="48"/>
       <c r="AQ452" s="43"/>
-      <c r="AR452" s="23"/>
-      <c r="AS452" s="24"/>
-      <c r="AT452" s="24"/>
+      <c r="AR452" s="28"/>
+      <c r="AS452" s="29"/>
+      <c r="AT452" s="29"/>
       <c r="AU452" s="24"/>
       <c r="AV452" s="45"/>
       <c r="AW452" s="45"/>
     </row>
-    <row r="453" ht="18.0" customHeight="1">
-      <c r="A453" s="41"/>
-      <c r="B453" s="42"/>
-      <c r="C453" s="42"/>
-      <c r="D453" s="23"/>
-      <c r="E453" s="24"/>
-      <c r="F453" s="24"/>
-      <c r="G453" s="24"/>
-      <c r="H453" s="23"/>
-      <c r="I453" s="24"/>
-      <c r="J453" s="43"/>
-      <c r="K453" s="43"/>
-      <c r="L453" s="23"/>
-      <c r="M453" s="24"/>
-      <c r="N453" s="24"/>
-      <c r="O453" s="24"/>
-      <c r="P453" s="23"/>
-      <c r="Q453" s="24"/>
-      <c r="R453" s="24"/>
-      <c r="S453" s="24"/>
-      <c r="T453" s="23"/>
-      <c r="U453" s="24"/>
-      <c r="V453" s="24"/>
-      <c r="W453" s="24"/>
-      <c r="X453" s="23"/>
-      <c r="Y453" s="23"/>
-      <c r="Z453" s="49"/>
-      <c r="AA453" s="24"/>
-      <c r="AB453" s="28"/>
-      <c r="AC453" s="29"/>
-      <c r="AD453" s="29"/>
-      <c r="AE453" s="24"/>
-      <c r="AF453" s="23"/>
-      <c r="AG453" s="24"/>
-      <c r="AH453" s="24"/>
-      <c r="AI453" s="24"/>
-      <c r="AJ453" s="28"/>
-      <c r="AK453" s="29"/>
-      <c r="AL453" s="29"/>
-      <c r="AM453" s="24"/>
-      <c r="AN453" s="47"/>
-      <c r="AO453" s="48"/>
-      <c r="AP453" s="48"/>
-      <c r="AQ453" s="43"/>
-      <c r="AR453" s="28"/>
-      <c r="AS453" s="29"/>
-      <c r="AT453" s="29"/>
-      <c r="AU453" s="24"/>
-      <c r="AV453" s="45"/>
-      <c r="AW453" s="45"/>
+    <row r="453" ht="17.25" customHeight="1">
+      <c r="A453" s="54"/>
+      <c r="E453" s="55"/>
+      <c r="F453" s="55"/>
+      <c r="G453" s="55"/>
+      <c r="I453" s="55"/>
+      <c r="J453" s="55"/>
+      <c r="K453" s="55"/>
+      <c r="M453" s="55"/>
+      <c r="N453" s="55"/>
+      <c r="O453" s="55"/>
+      <c r="Q453" s="55"/>
+      <c r="R453" s="55"/>
+      <c r="S453" s="55"/>
+      <c r="U453" s="55"/>
+      <c r="V453" s="55"/>
+      <c r="W453" s="55"/>
+      <c r="AA453" s="55"/>
+      <c r="AB453" s="54"/>
+      <c r="AC453" s="56"/>
+      <c r="AD453" s="56"/>
+      <c r="AE453" s="56"/>
+      <c r="AF453" s="54"/>
+      <c r="AG453" s="56"/>
+      <c r="AH453" s="56"/>
+      <c r="AI453" s="56"/>
+      <c r="AJ453" s="54"/>
+      <c r="AK453" s="56"/>
+      <c r="AL453" s="56"/>
+      <c r="AM453" s="56"/>
+      <c r="AO453" s="55"/>
+      <c r="AP453" s="55"/>
+      <c r="AQ453" s="55"/>
+      <c r="AR453" s="57"/>
+      <c r="AS453" s="56"/>
+      <c r="AT453" s="56"/>
+      <c r="AU453" s="56"/>
+      <c r="AV453" s="58"/>
+      <c r="AW453" s="58"/>
     </row>
     <row r="454" ht="17.25" customHeight="1">
       <c r="A454" s="54"/>
@@ -54760,46 +56197,6 @@
       <c r="AV999" s="58"/>
       <c r="AW999" s="58"/>
     </row>
-    <row r="1000" ht="17.25" customHeight="1">
-      <c r="A1000" s="54"/>
-      <c r="E1000" s="55"/>
-      <c r="F1000" s="55"/>
-      <c r="G1000" s="55"/>
-      <c r="I1000" s="55"/>
-      <c r="J1000" s="55"/>
-      <c r="K1000" s="55"/>
-      <c r="M1000" s="55"/>
-      <c r="N1000" s="55"/>
-      <c r="O1000" s="55"/>
-      <c r="Q1000" s="55"/>
-      <c r="R1000" s="55"/>
-      <c r="S1000" s="55"/>
-      <c r="U1000" s="55"/>
-      <c r="V1000" s="55"/>
-      <c r="W1000" s="55"/>
-      <c r="AA1000" s="55"/>
-      <c r="AB1000" s="54"/>
-      <c r="AC1000" s="56"/>
-      <c r="AD1000" s="56"/>
-      <c r="AE1000" s="56"/>
-      <c r="AF1000" s="54"/>
-      <c r="AG1000" s="56"/>
-      <c r="AH1000" s="56"/>
-      <c r="AI1000" s="56"/>
-      <c r="AJ1000" s="54"/>
-      <c r="AK1000" s="56"/>
-      <c r="AL1000" s="56"/>
-      <c r="AM1000" s="56"/>
-      <c r="AO1000" s="55"/>
-      <c r="AP1000" s="55"/>
-      <c r="AQ1000" s="55"/>
-      <c r="AR1000" s="57"/>
-      <c r="AS1000" s="56"/>
-      <c r="AT1000" s="56"/>
-      <c r="AU1000" s="56"/>
-      <c r="AV1000" s="58"/>
-      <c r="AW1000" s="58"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF1:AI1"/>

--- a/Result_Regular.xlsx
+++ b/Result_Regular.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="454">
   <si>
     <t>Sl.No</t>
   </si>
@@ -1355,6 +1355,30 @@
   <si>
     <t>C SRINITYA</t>
   </si>
+  <si>
+    <t>2401100CSE0079</t>
+  </si>
+  <si>
+    <t>GANTA KOUSHIK REDDY</t>
+  </si>
+  <si>
+    <t>2401100CSE0118</t>
+  </si>
+  <si>
+    <t>BACHU GNANA PRASUNA</t>
+  </si>
+  <si>
+    <t>24011CSEAI0026</t>
+  </si>
+  <si>
+    <t>KANDUKOORI ANUDEEP</t>
+  </si>
+  <si>
+    <t>24011CSEAI0033</t>
+  </si>
+  <si>
+    <t>MAHAJAN SANKEERTHANA</t>
+  </si>
 </sst>
 </file>
 
@@ -20792,1208 +20816,1504 @@
       </c>
     </row>
     <row r="152" ht="18.0" customHeight="1">
-      <c r="A152" s="35">
+      <c r="A152" s="34">
         <v>150.0</v>
       </c>
-      <c r="B152" s="36" t="s">
+      <c r="B152" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C152" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="D152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" s="37" t="s">
+      <c r="D152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F152" s="37">
+      <c r="F152" s="27">
         <v>4.0</v>
       </c>
-      <c r="G152" s="37" t="s">
+      <c r="G152" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I152" s="37" t="s">
+      <c r="H152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J152" s="38">
+      <c r="J152" s="28">
         <v>3.0</v>
       </c>
-      <c r="K152" s="38" t="s">
+      <c r="K152" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M152" s="37" t="s">
+      <c r="L152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M152" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N152" s="37">
+      <c r="N152" s="27">
         <v>4.0</v>
       </c>
-      <c r="O152" s="37" t="s">
+      <c r="O152" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P152" s="39"/>
-      <c r="Q152" s="39"/>
-      <c r="R152" s="39"/>
-      <c r="S152" s="39"/>
-      <c r="T152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="U152" s="37" t="s">
+      <c r="P152" s="21"/>
+      <c r="Q152" s="21"/>
+      <c r="R152" s="21"/>
+      <c r="S152" s="21"/>
+      <c r="T152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U152" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="V152" s="37">
+      <c r="V152" s="27">
         <v>3.0</v>
       </c>
-      <c r="W152" s="37" t="s">
+      <c r="W152" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y152" s="37" t="s">
+      <c r="X152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y152" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z152" s="37">
+      <c r="Z152" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA152" s="37" t="s">
+      <c r="AA152" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC152" s="37" t="s">
+      <c r="AB152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC152" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AD152" s="37">
+      <c r="AD152" s="27">
         <v>2.0</v>
       </c>
-      <c r="AE152" s="37" t="s">
+      <c r="AE152" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AF152" s="39"/>
-      <c r="AG152" s="39"/>
-      <c r="AH152" s="39"/>
-      <c r="AI152" s="39"/>
-      <c r="AJ152" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK152" s="37" t="s">
+      <c r="AF152" s="21"/>
+      <c r="AG152" s="21"/>
+      <c r="AH152" s="21"/>
+      <c r="AI152" s="21"/>
+      <c r="AJ152" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK152" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AL152" s="37">
+      <c r="AL152" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM152" s="37" t="s">
+      <c r="AM152" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN152" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO152" s="38" t="s">
+      <c r="AN152" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO152" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AP152" s="38">
+      <c r="AP152" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ152" s="38" t="s">
+      <c r="AQ152" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR152" s="39"/>
-      <c r="AS152" s="39"/>
-      <c r="AT152" s="39"/>
-      <c r="AU152" s="39"/>
-      <c r="AV152" s="40">
+      <c r="AR152" s="21"/>
+      <c r="AS152" s="21"/>
+      <c r="AT152" s="21"/>
+      <c r="AU152" s="21"/>
+      <c r="AV152" s="30">
         <v>9.14</v>
       </c>
-      <c r="AW152" s="40">
+      <c r="AW152" s="30">
         <v>9.48</v>
       </c>
     </row>
     <row r="153" ht="18.0" customHeight="1">
-      <c r="A153" s="35">
+      <c r="A153" s="34">
         <v>151.0</v>
       </c>
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="C153" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="D153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="37" t="s">
+      <c r="D153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F153" s="37">
+      <c r="F153" s="27">
         <v>4.0</v>
       </c>
-      <c r="G153" s="37" t="s">
+      <c r="G153" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I153" s="37" t="s">
+      <c r="H153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J153" s="38">
+      <c r="J153" s="28">
         <v>3.0</v>
       </c>
-      <c r="K153" s="38" t="s">
+      <c r="K153" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M153" s="37" t="s">
+      <c r="L153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="N153" s="37">
+      <c r="N153" s="27">
         <v>4.0</v>
       </c>
-      <c r="O153" s="37" t="s">
+      <c r="O153" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P153" s="39"/>
-      <c r="Q153" s="39"/>
-      <c r="R153" s="39"/>
-      <c r="S153" s="39"/>
-      <c r="T153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="U153" s="37" t="s">
+      <c r="P153" s="21"/>
+      <c r="Q153" s="21"/>
+      <c r="R153" s="21"/>
+      <c r="S153" s="21"/>
+      <c r="T153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U153" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="V153" s="37">
+      <c r="V153" s="27">
         <v>3.0</v>
       </c>
-      <c r="W153" s="37" t="s">
+      <c r="W153" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y153" s="37" t="s">
+      <c r="X153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y153" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z153" s="37">
+      <c r="Z153" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA153" s="37" t="s">
+      <c r="AA153" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC153" s="37" t="s">
+      <c r="AB153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC153" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AD153" s="37">
+      <c r="AD153" s="27">
         <v>2.0</v>
       </c>
-      <c r="AE153" s="37" t="s">
+      <c r="AE153" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AF153" s="39"/>
-      <c r="AG153" s="39"/>
-      <c r="AH153" s="39"/>
-      <c r="AI153" s="39"/>
-      <c r="AJ153" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK153" s="37" t="s">
+      <c r="AF153" s="21"/>
+      <c r="AG153" s="21"/>
+      <c r="AH153" s="21"/>
+      <c r="AI153" s="21"/>
+      <c r="AJ153" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK153" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL153" s="37">
+      <c r="AL153" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM153" s="37" t="s">
+      <c r="AM153" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN153" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO153" s="38" t="s">
+      <c r="AN153" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO153" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AP153" s="38">
+      <c r="AP153" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ153" s="38" t="s">
+      <c r="AQ153" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR153" s="39"/>
-      <c r="AS153" s="39"/>
-      <c r="AT153" s="39"/>
-      <c r="AU153" s="39"/>
-      <c r="AV153" s="40">
+      <c r="AR153" s="21"/>
+      <c r="AS153" s="21"/>
+      <c r="AT153" s="21"/>
+      <c r="AU153" s="21"/>
+      <c r="AV153" s="30">
         <v>7.46</v>
       </c>
-      <c r="AW153" s="40">
+      <c r="AW153" s="30">
         <v>7.72</v>
       </c>
     </row>
     <row r="154" ht="18.0" customHeight="1">
-      <c r="A154" s="35">
+      <c r="A154" s="34">
         <v>152.0</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="C154" s="36" t="s">
+      <c r="C154" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="D154" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154" s="37" t="s">
+      <c r="D154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F154" s="37">
+      <c r="F154" s="27">
         <v>4.0</v>
       </c>
-      <c r="G154" s="37" t="s">
+      <c r="G154" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H154" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I154" s="37" t="s">
+      <c r="H154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J154" s="38">
+      <c r="J154" s="28">
         <v>3.0</v>
       </c>
-      <c r="K154" s="38" t="s">
+      <c r="K154" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L154" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M154" s="37" t="s">
+      <c r="L154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M154" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="N154" s="37">
+      <c r="N154" s="27">
         <v>4.0</v>
       </c>
-      <c r="O154" s="37" t="s">
+      <c r="O154" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P154" s="39"/>
-      <c r="Q154" s="39"/>
-      <c r="R154" s="39"/>
-      <c r="S154" s="39"/>
-      <c r="T154" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="U154" s="37" t="s">
+      <c r="P154" s="21"/>
+      <c r="Q154" s="21"/>
+      <c r="R154" s="21"/>
+      <c r="S154" s="21"/>
+      <c r="T154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U154" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="V154" s="37">
+      <c r="V154" s="27">
         <v>3.0</v>
       </c>
-      <c r="W154" s="37" t="s">
+      <c r="W154" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="X154" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y154" s="37" t="s">
+      <c r="X154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y154" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z154" s="37">
+      <c r="Z154" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA154" s="37" t="s">
+      <c r="AA154" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB154" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC154" s="37" t="s">
+      <c r="AB154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC154" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AD154" s="37">
+      <c r="AD154" s="27">
         <v>2.0</v>
       </c>
-      <c r="AE154" s="37" t="s">
+      <c r="AE154" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AF154" s="39"/>
-      <c r="AG154" s="39"/>
-      <c r="AH154" s="39"/>
-      <c r="AI154" s="39"/>
-      <c r="AJ154" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK154" s="37" t="s">
+      <c r="AF154" s="21"/>
+      <c r="AG154" s="21"/>
+      <c r="AH154" s="21"/>
+      <c r="AI154" s="21"/>
+      <c r="AJ154" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK154" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL154" s="37">
+      <c r="AL154" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM154" s="37" t="s">
+      <c r="AM154" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN154" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO154" s="38" t="s">
+      <c r="AN154" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO154" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AP154" s="38">
+      <c r="AP154" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ154" s="38" t="s">
+      <c r="AQ154" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR154" s="39"/>
-      <c r="AS154" s="39"/>
-      <c r="AT154" s="39"/>
-      <c r="AU154" s="39"/>
-      <c r="AV154" s="40">
+      <c r="AR154" s="21"/>
+      <c r="AS154" s="21"/>
+      <c r="AT154" s="21"/>
+      <c r="AU154" s="21"/>
+      <c r="AV154" s="30">
         <v>7.55</v>
       </c>
-      <c r="AW154" s="40">
+      <c r="AW154" s="30">
         <v>7.79</v>
       </c>
     </row>
     <row r="155" ht="18.0" customHeight="1">
-      <c r="A155" s="35">
+      <c r="A155" s="34">
         <v>153.0</v>
       </c>
-      <c r="B155" s="36" t="s">
+      <c r="B155" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="C155" s="36" t="s">
+      <c r="C155" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="D155" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155" s="37" t="s">
+      <c r="D155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F155" s="37">
+      <c r="F155" s="27">
         <v>4.0</v>
       </c>
-      <c r="G155" s="37" t="s">
+      <c r="G155" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H155" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I155" s="37" t="s">
+      <c r="H155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J155" s="38">
+      <c r="J155" s="28">
         <v>3.0</v>
       </c>
-      <c r="K155" s="38" t="s">
+      <c r="K155" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L155" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M155" s="37" t="s">
+      <c r="L155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M155" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N155" s="37">
+      <c r="N155" s="27">
         <v>4.0</v>
       </c>
-      <c r="O155" s="37" t="s">
+      <c r="O155" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P155" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q155" s="37" t="s">
+      <c r="P155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q155" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="R155" s="37">
+      <c r="R155" s="27">
         <v>3.0</v>
       </c>
-      <c r="S155" s="37" t="s">
+      <c r="S155" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="T155" s="39"/>
-      <c r="U155" s="39"/>
-      <c r="V155" s="39"/>
-      <c r="W155" s="39"/>
-      <c r="X155" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y155" s="37" t="s">
+      <c r="T155" s="21"/>
+      <c r="U155" s="21"/>
+      <c r="V155" s="21"/>
+      <c r="W155" s="21"/>
+      <c r="X155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y155" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z155" s="37">
+      <c r="Z155" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA155" s="37" t="s">
+      <c r="AA155" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB155" s="39"/>
-      <c r="AC155" s="39"/>
-      <c r="AD155" s="39"/>
-      <c r="AE155" s="39"/>
-      <c r="AF155" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG155" s="37" t="s">
+      <c r="AB155" s="21"/>
+      <c r="AC155" s="21"/>
+      <c r="AD155" s="21"/>
+      <c r="AE155" s="21"/>
+      <c r="AF155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG155" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AH155" s="37">
+      <c r="AH155" s="27">
         <v>2.0</v>
       </c>
-      <c r="AI155" s="37" t="s">
+      <c r="AI155" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AJ155" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK155" s="37" t="s">
+      <c r="AJ155" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK155" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL155" s="37">
+      <c r="AL155" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM155" s="37" t="s">
+      <c r="AM155" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN155" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO155" s="38" t="s">
+      <c r="AN155" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO155" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AP155" s="38">
+      <c r="AP155" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ155" s="38" t="s">
+      <c r="AQ155" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR155" s="39"/>
-      <c r="AS155" s="39"/>
-      <c r="AT155" s="39"/>
-      <c r="AU155" s="39"/>
-      <c r="AV155" s="40">
+      <c r="AR155" s="21"/>
+      <c r="AS155" s="21"/>
+      <c r="AT155" s="21"/>
+      <c r="AU155" s="21"/>
+      <c r="AV155" s="30">
         <v>8.32</v>
       </c>
-      <c r="AW155" s="40">
+      <c r="AW155" s="30">
         <v>8.77</v>
       </c>
     </row>
     <row r="156" ht="18.0" customHeight="1">
-      <c r="A156" s="35">
+      <c r="A156" s="34">
         <v>154.0</v>
       </c>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C156" s="36" t="s">
+      <c r="C156" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="D156" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="37" t="s">
+      <c r="D156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F156" s="37">
+      <c r="F156" s="27">
         <v>4.0</v>
       </c>
-      <c r="G156" s="37" t="s">
+      <c r="G156" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H156" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I156" s="37" t="s">
+      <c r="H156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J156" s="38">
+      <c r="J156" s="28">
         <v>3.0</v>
       </c>
-      <c r="K156" s="38" t="s">
+      <c r="K156" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L156" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M156" s="37" t="s">
+      <c r="L156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M156" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N156" s="37">
+      <c r="N156" s="27">
         <v>4.0</v>
       </c>
-      <c r="O156" s="37" t="s">
+      <c r="O156" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P156" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q156" s="37" t="s">
+      <c r="P156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q156" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="R156" s="37">
+      <c r="R156" s="27">
         <v>3.0</v>
       </c>
-      <c r="S156" s="37" t="s">
+      <c r="S156" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="T156" s="39"/>
-      <c r="U156" s="39"/>
-      <c r="V156" s="39"/>
-      <c r="W156" s="39"/>
-      <c r="X156" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y156" s="37" t="s">
+      <c r="T156" s="21"/>
+      <c r="U156" s="21"/>
+      <c r="V156" s="21"/>
+      <c r="W156" s="21"/>
+      <c r="X156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y156" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Z156" s="37">
+      <c r="Z156" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA156" s="37" t="s">
+      <c r="AA156" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB156" s="39"/>
-      <c r="AC156" s="39"/>
-      <c r="AD156" s="39"/>
-      <c r="AE156" s="39"/>
-      <c r="AF156" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG156" s="37" t="s">
+      <c r="AB156" s="21"/>
+      <c r="AC156" s="21"/>
+      <c r="AD156" s="21"/>
+      <c r="AE156" s="21"/>
+      <c r="AF156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG156" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AH156" s="37">
+      <c r="AH156" s="27">
         <v>2.0</v>
       </c>
-      <c r="AI156" s="37" t="s">
+      <c r="AI156" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AJ156" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK156" s="37" t="s">
+      <c r="AJ156" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK156" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL156" s="37">
+      <c r="AL156" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM156" s="37" t="s">
+      <c r="AM156" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN156" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO156" s="38" t="s">
+      <c r="AN156" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO156" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AP156" s="38">
+      <c r="AP156" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ156" s="38" t="s">
+      <c r="AQ156" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR156" s="39"/>
-      <c r="AS156" s="39"/>
-      <c r="AT156" s="39"/>
-      <c r="AU156" s="39"/>
-      <c r="AV156" s="40">
+      <c r="AR156" s="21"/>
+      <c r="AS156" s="21"/>
+      <c r="AT156" s="21"/>
+      <c r="AU156" s="21"/>
+      <c r="AV156" s="30">
         <v>8.19</v>
       </c>
-      <c r="AW156" s="40">
+      <c r="AW156" s="30">
         <v>8.27</v>
       </c>
     </row>
     <row r="157" ht="18.0" customHeight="1">
-      <c r="A157" s="35">
+      <c r="A157" s="34">
         <v>155.0</v>
       </c>
-      <c r="B157" s="36" t="s">
+      <c r="B157" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="C157" s="36" t="s">
+      <c r="C157" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D157" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" s="37" t="s">
+      <c r="D157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F157" s="37">
+      <c r="F157" s="27">
         <v>4.0</v>
       </c>
-      <c r="G157" s="37" t="s">
+      <c r="G157" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H157" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I157" s="37" t="s">
+      <c r="H157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I157" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J157" s="38">
+      <c r="J157" s="28">
         <v>3.0</v>
       </c>
-      <c r="K157" s="38" t="s">
+      <c r="K157" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L157" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M157" s="37" t="s">
+      <c r="L157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N157" s="37">
+      <c r="N157" s="27">
         <v>4.0</v>
       </c>
-      <c r="O157" s="37" t="s">
+      <c r="O157" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P157" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q157" s="37" t="s">
+      <c r="P157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q157" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R157" s="37">
+      <c r="R157" s="27">
         <v>3.0</v>
       </c>
-      <c r="S157" s="37" t="s">
+      <c r="S157" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="T157" s="39"/>
-      <c r="U157" s="39"/>
-      <c r="V157" s="39"/>
-      <c r="W157" s="39"/>
-      <c r="X157" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y157" s="37" t="s">
+      <c r="T157" s="21"/>
+      <c r="U157" s="21"/>
+      <c r="V157" s="21"/>
+      <c r="W157" s="21"/>
+      <c r="X157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y157" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z157" s="37">
+      <c r="Z157" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA157" s="37" t="s">
+      <c r="AA157" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB157" s="39"/>
-      <c r="AC157" s="39"/>
-      <c r="AD157" s="39"/>
-      <c r="AE157" s="39"/>
-      <c r="AF157" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG157" s="37" t="s">
+      <c r="AB157" s="21"/>
+      <c r="AC157" s="21"/>
+      <c r="AD157" s="21"/>
+      <c r="AE157" s="21"/>
+      <c r="AF157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG157" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AH157" s="37">
+      <c r="AH157" s="27">
         <v>2.0</v>
       </c>
-      <c r="AI157" s="37" t="s">
+      <c r="AI157" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AJ157" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK157" s="37" t="s">
+      <c r="AJ157" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK157" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL157" s="37">
+      <c r="AL157" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM157" s="37" t="s">
+      <c r="AM157" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN157" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO157" s="38" t="s">
+      <c r="AN157" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO157" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AP157" s="38">
+      <c r="AP157" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ157" s="38" t="s">
+      <c r="AQ157" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR157" s="39"/>
-      <c r="AS157" s="39"/>
-      <c r="AT157" s="39"/>
-      <c r="AU157" s="39"/>
-      <c r="AV157" s="40">
+      <c r="AR157" s="21"/>
+      <c r="AS157" s="21"/>
+      <c r="AT157" s="21"/>
+      <c r="AU157" s="21"/>
+      <c r="AV157" s="30">
         <v>7.37</v>
       </c>
-      <c r="AW157" s="40">
+      <c r="AW157" s="30">
         <v>7.53</v>
       </c>
     </row>
     <row r="158" ht="18.0" customHeight="1">
-      <c r="A158" s="35">
+      <c r="A158" s="34">
         <v>156.0</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="B158" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="C158" s="36" t="s">
+      <c r="C158" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D158" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E158" s="37" t="s">
+      <c r="D158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F158" s="37">
+      <c r="F158" s="27">
         <v>4.0</v>
       </c>
-      <c r="G158" s="37" t="s">
+      <c r="G158" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H158" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I158" s="37" t="s">
+      <c r="H158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I158" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J158" s="38">
+      <c r="J158" s="28">
         <v>3.0</v>
       </c>
-      <c r="K158" s="38" t="s">
+      <c r="K158" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L158" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M158" s="37" t="s">
+      <c r="L158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M158" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N158" s="37">
+      <c r="N158" s="27">
         <v>4.0</v>
       </c>
-      <c r="O158" s="37" t="s">
+      <c r="O158" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P158" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q158" s="37" t="s">
+      <c r="P158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q158" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="R158" s="37">
+      <c r="R158" s="27">
         <v>3.0</v>
       </c>
-      <c r="S158" s="37" t="s">
+      <c r="S158" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="T158" s="39"/>
-      <c r="U158" s="39"/>
-      <c r="V158" s="39"/>
-      <c r="W158" s="39"/>
-      <c r="X158" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y158" s="37" t="s">
+      <c r="T158" s="21"/>
+      <c r="U158" s="21"/>
+      <c r="V158" s="21"/>
+      <c r="W158" s="21"/>
+      <c r="X158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y158" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z158" s="37">
+      <c r="Z158" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA158" s="37" t="s">
+      <c r="AA158" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB158" s="39"/>
-      <c r="AC158" s="39"/>
-      <c r="AD158" s="39"/>
-      <c r="AE158" s="39"/>
-      <c r="AF158" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG158" s="37" t="s">
+      <c r="AB158" s="21"/>
+      <c r="AC158" s="21"/>
+      <c r="AD158" s="21"/>
+      <c r="AE158" s="21"/>
+      <c r="AF158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG158" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AH158" s="37">
+      <c r="AH158" s="27">
         <v>2.0</v>
       </c>
-      <c r="AI158" s="37" t="s">
+      <c r="AI158" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AJ158" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK158" s="37" t="s">
+      <c r="AJ158" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK158" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL158" s="37">
+      <c r="AL158" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM158" s="37" t="s">
+      <c r="AM158" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN158" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO158" s="38" t="s">
+      <c r="AN158" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO158" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AP158" s="38">
+      <c r="AP158" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ158" s="38" t="s">
+      <c r="AQ158" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR158" s="39"/>
-      <c r="AS158" s="39"/>
-      <c r="AT158" s="39"/>
-      <c r="AU158" s="39"/>
-      <c r="AV158" s="40">
+      <c r="AR158" s="21"/>
+      <c r="AS158" s="21"/>
+      <c r="AT158" s="21"/>
+      <c r="AU158" s="21"/>
+      <c r="AV158" s="30">
         <v>7.5</v>
       </c>
-      <c r="AW158" s="40">
+      <c r="AW158" s="30">
         <v>7.34</v>
       </c>
     </row>
     <row r="159" ht="18.0" customHeight="1">
-      <c r="A159" s="35">
+      <c r="A159" s="34">
         <v>157.0</v>
       </c>
-      <c r="B159" s="36" t="s">
+      <c r="B159" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C159" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="D159" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E159" s="37" t="s">
+      <c r="D159" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F159" s="37">
+      <c r="F159" s="27">
         <v>4.0</v>
       </c>
-      <c r="G159" s="37" t="s">
+      <c r="G159" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H159" s="37" t="s">
+      <c r="H159" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I159" s="37" t="s">
+      <c r="I159" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="J159" s="38">
+      <c r="J159" s="28">
         <v>0.0</v>
       </c>
-      <c r="K159" s="38" t="s">
+      <c r="K159" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L159" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="M159" s="37" t="s">
+      <c r="L159" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M159" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="N159" s="37">
+      <c r="N159" s="27">
         <v>4.0</v>
       </c>
-      <c r="O159" s="37" t="s">
+      <c r="O159" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P159" s="37" t="s">
+      <c r="P159" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="Q159" s="37" t="s">
+      <c r="Q159" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="R159" s="37">
+      <c r="R159" s="27">
         <v>0.0</v>
       </c>
-      <c r="S159" s="37" t="s">
+      <c r="S159" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="T159" s="39"/>
-      <c r="U159" s="39"/>
-      <c r="V159" s="39"/>
-      <c r="W159" s="39"/>
-      <c r="X159" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y159" s="37" t="s">
+      <c r="T159" s="21"/>
+      <c r="U159" s="21"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="21"/>
+      <c r="X159" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y159" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z159" s="37">
+      <c r="Z159" s="27">
         <v>3.0</v>
       </c>
-      <c r="AA159" s="37" t="s">
+      <c r="AA159" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AB159" s="39"/>
-      <c r="AC159" s="39"/>
-      <c r="AD159" s="39"/>
-      <c r="AE159" s="39"/>
-      <c r="AF159" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG159" s="37" t="s">
+      <c r="AB159" s="21"/>
+      <c r="AC159" s="21"/>
+      <c r="AD159" s="21"/>
+      <c r="AE159" s="21"/>
+      <c r="AF159" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG159" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AH159" s="37">
+      <c r="AH159" s="27">
         <v>2.0</v>
       </c>
-      <c r="AI159" s="37" t="s">
+      <c r="AI159" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="AJ159" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK159" s="37" t="s">
+      <c r="AJ159" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK159" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AL159" s="37">
+      <c r="AL159" s="27">
         <v>2.0</v>
       </c>
-      <c r="AM159" s="37" t="s">
+      <c r="AM159" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AN159" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO159" s="38" t="s">
+      <c r="AN159" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO159" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AP159" s="38">
+      <c r="AP159" s="28">
         <v>1.0</v>
       </c>
-      <c r="AQ159" s="38" t="s">
+      <c r="AQ159" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AR159" s="39"/>
-      <c r="AS159" s="39"/>
-      <c r="AT159" s="39"/>
-      <c r="AU159" s="39"/>
-      <c r="AV159" s="40">
+      <c r="AR159" s="21"/>
+      <c r="AS159" s="21"/>
+      <c r="AT159" s="21"/>
+      <c r="AU159" s="21"/>
+      <c r="AV159" s="30">
         <v>6.1</v>
       </c>
-      <c r="AW159" s="40">
+      <c r="AW159" s="30">
         <v>7.1</v>
       </c>
     </row>
     <row r="160" ht="18.0" customHeight="1">
-      <c r="A160" s="21"/>
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="42"/>
-      <c r="K160" s="42"/>
-      <c r="L160" s="21"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="21"/>
-      <c r="O160" s="21"/>
-      <c r="P160" s="21"/>
-      <c r="Q160" s="21"/>
-      <c r="R160" s="21"/>
-      <c r="S160" s="21"/>
-      <c r="T160" s="21"/>
-      <c r="U160" s="21"/>
-      <c r="V160" s="21"/>
-      <c r="W160" s="21"/>
-      <c r="X160" s="21"/>
-      <c r="Y160" s="21"/>
-      <c r="Z160" s="21"/>
-      <c r="AA160" s="21"/>
-      <c r="AB160" s="21"/>
-      <c r="AC160" s="21"/>
-      <c r="AD160" s="21"/>
-      <c r="AE160" s="21"/>
-      <c r="AF160" s="21"/>
-      <c r="AG160" s="21"/>
-      <c r="AH160" s="21"/>
-      <c r="AI160" s="21"/>
-      <c r="AJ160" s="21"/>
-      <c r="AK160" s="21"/>
-      <c r="AL160" s="21"/>
-      <c r="AM160" s="21"/>
-      <c r="AN160" s="42"/>
-      <c r="AO160" s="42"/>
-      <c r="AP160" s="42"/>
-      <c r="AQ160" s="42"/>
-      <c r="AR160" s="21"/>
-      <c r="AS160" s="21"/>
-      <c r="AT160" s="21"/>
-      <c r="AU160" s="21"/>
-      <c r="AV160" s="43"/>
-      <c r="AW160" s="43"/>
+      <c r="A160" s="35">
+        <v>158.0</v>
+      </c>
+      <c r="B160" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="D160" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="G160" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I160" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J160" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="K160" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L160" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M160" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N160" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="O160" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P160" s="39"/>
+      <c r="Q160" s="39"/>
+      <c r="R160" s="39"/>
+      <c r="S160" s="39"/>
+      <c r="T160" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="U160" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="V160" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="W160" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="X160" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y160" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z160" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="AA160" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB160" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC160" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD160" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AE160" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF160" s="39"/>
+      <c r="AG160" s="39"/>
+      <c r="AH160" s="39"/>
+      <c r="AI160" s="39"/>
+      <c r="AJ160" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK160" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL160" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AM160" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN160" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO160" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP160" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="AQ160" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR160" s="39"/>
+      <c r="AS160" s="39"/>
+      <c r="AT160" s="39"/>
+      <c r="AU160" s="39"/>
+      <c r="AV160" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="AW160" s="40">
+        <v>8.29</v>
+      </c>
     </row>
     <row r="161" ht="18.0" customHeight="1">
-      <c r="A161" s="44"/>
-      <c r="B161" s="41"/>
-      <c r="C161" s="41"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="42"/>
-      <c r="K161" s="42"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="21"/>
-      <c r="O161" s="21"/>
-      <c r="P161" s="21"/>
-      <c r="Q161" s="21"/>
-      <c r="R161" s="21"/>
-      <c r="S161" s="21"/>
-      <c r="T161" s="21"/>
-      <c r="U161" s="21"/>
-      <c r="V161" s="21"/>
-      <c r="W161" s="21"/>
-      <c r="X161" s="21"/>
-      <c r="Y161" s="21"/>
-      <c r="Z161" s="21"/>
-      <c r="AA161" s="21"/>
-      <c r="AB161" s="21"/>
-      <c r="AC161" s="21"/>
-      <c r="AD161" s="21"/>
-      <c r="AE161" s="21"/>
-      <c r="AF161" s="21"/>
-      <c r="AG161" s="21"/>
-      <c r="AH161" s="21"/>
-      <c r="AI161" s="21"/>
-      <c r="AJ161" s="21"/>
-      <c r="AK161" s="21"/>
-      <c r="AL161" s="21"/>
-      <c r="AM161" s="21"/>
-      <c r="AN161" s="42"/>
-      <c r="AO161" s="42"/>
-      <c r="AP161" s="42"/>
-      <c r="AQ161" s="42"/>
-      <c r="AR161" s="21"/>
-      <c r="AS161" s="21"/>
-      <c r="AT161" s="21"/>
-      <c r="AU161" s="21"/>
-      <c r="AV161" s="43"/>
-      <c r="AW161" s="43"/>
+      <c r="A161" s="35">
+        <v>159.0</v>
+      </c>
+      <c r="B161" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D161" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="G161" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I161" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J161" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="K161" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L161" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M161" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N161" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="O161" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P161" s="39"/>
+      <c r="Q161" s="39"/>
+      <c r="R161" s="39"/>
+      <c r="S161" s="39"/>
+      <c r="T161" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="U161" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="V161" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="W161" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="X161" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y161" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z161" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="AA161" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB161" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC161" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD161" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AE161" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF161" s="39"/>
+      <c r="AG161" s="39"/>
+      <c r="AH161" s="39"/>
+      <c r="AI161" s="39"/>
+      <c r="AJ161" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK161" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL161" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AM161" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN161" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO161" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP161" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="AQ161" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR161" s="39"/>
+      <c r="AS161" s="39"/>
+      <c r="AT161" s="39"/>
+      <c r="AU161" s="39"/>
+      <c r="AV161" s="40">
+        <v>8.28</v>
+      </c>
+      <c r="AW161" s="40">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="162" ht="18.0" customHeight="1">
-      <c r="A162" s="21"/>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="42"/>
-      <c r="L162" s="21"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="21"/>
-      <c r="O162" s="21"/>
-      <c r="P162" s="21"/>
-      <c r="Q162" s="21"/>
-      <c r="R162" s="21"/>
-      <c r="S162" s="21"/>
-      <c r="T162" s="21"/>
-      <c r="U162" s="21"/>
-      <c r="V162" s="21"/>
-      <c r="W162" s="21"/>
-      <c r="X162" s="21"/>
-      <c r="Y162" s="21"/>
-      <c r="Z162" s="21"/>
-      <c r="AA162" s="21"/>
-      <c r="AB162" s="21"/>
-      <c r="AC162" s="21"/>
-      <c r="AD162" s="21"/>
-      <c r="AE162" s="21"/>
-      <c r="AF162" s="21"/>
-      <c r="AG162" s="21"/>
-      <c r="AH162" s="21"/>
-      <c r="AI162" s="21"/>
-      <c r="AJ162" s="21"/>
-      <c r="AK162" s="21"/>
-      <c r="AL162" s="21"/>
-      <c r="AM162" s="21"/>
-      <c r="AN162" s="42"/>
-      <c r="AO162" s="42"/>
-      <c r="AP162" s="42"/>
-      <c r="AQ162" s="42"/>
-      <c r="AR162" s="21"/>
-      <c r="AS162" s="21"/>
-      <c r="AT162" s="21"/>
-      <c r="AU162" s="21"/>
-      <c r="AV162" s="43"/>
-      <c r="AW162" s="43"/>
+      <c r="A162" s="35">
+        <v>160.0</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="D162" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="G162" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H162" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I162" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J162" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="K162" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L162" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M162" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N162" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="O162" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P162" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q162" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="R162" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="S162" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="T162" s="39"/>
+      <c r="U162" s="39"/>
+      <c r="V162" s="39"/>
+      <c r="W162" s="39"/>
+      <c r="X162" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y162" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z162" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="AA162" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB162" s="39"/>
+      <c r="AC162" s="39"/>
+      <c r="AD162" s="39"/>
+      <c r="AE162" s="39"/>
+      <c r="AF162" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG162" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH162" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AI162" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ162" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK162" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL162" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AM162" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN162" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO162" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP162" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="AQ162" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR162" s="39"/>
+      <c r="AS162" s="39"/>
+      <c r="AT162" s="39"/>
+      <c r="AU162" s="39"/>
+      <c r="AV162" s="40">
+        <v>8.96</v>
+      </c>
+      <c r="AW162" s="40">
+        <v>9.34</v>
+      </c>
     </row>
     <row r="163" ht="18.0" customHeight="1">
-      <c r="A163" s="44"/>
-      <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="21"/>
-      <c r="I163" s="21"/>
-      <c r="J163" s="42"/>
-      <c r="K163" s="42"/>
-      <c r="L163" s="21"/>
-      <c r="M163" s="21"/>
-      <c r="N163" s="21"/>
-      <c r="O163" s="21"/>
-      <c r="P163" s="21"/>
-      <c r="Q163" s="21"/>
-      <c r="R163" s="21"/>
-      <c r="S163" s="21"/>
-      <c r="T163" s="21"/>
-      <c r="U163" s="21"/>
-      <c r="V163" s="21"/>
-      <c r="W163" s="21"/>
-      <c r="X163" s="21"/>
-      <c r="Y163" s="21"/>
-      <c r="Z163" s="21"/>
-      <c r="AA163" s="21"/>
-      <c r="AB163" s="21"/>
-      <c r="AC163" s="21"/>
-      <c r="AD163" s="21"/>
-      <c r="AE163" s="21"/>
-      <c r="AF163" s="21"/>
-      <c r="AG163" s="21"/>
-      <c r="AH163" s="21"/>
-      <c r="AI163" s="21"/>
-      <c r="AJ163" s="21"/>
-      <c r="AK163" s="21"/>
-      <c r="AL163" s="21"/>
-      <c r="AM163" s="21"/>
-      <c r="AN163" s="42"/>
-      <c r="AO163" s="42"/>
-      <c r="AP163" s="42"/>
-      <c r="AQ163" s="42"/>
-      <c r="AR163" s="21"/>
-      <c r="AS163" s="21"/>
-      <c r="AT163" s="21"/>
-      <c r="AU163" s="21"/>
-      <c r="AV163" s="43"/>
-      <c r="AW163" s="43"/>
+      <c r="A163" s="35">
+        <v>161.0</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="G163" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I163" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J163" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="K163" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M163" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N163" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="O163" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q163" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="R163" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="S163" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="T163" s="39"/>
+      <c r="U163" s="39"/>
+      <c r="V163" s="39"/>
+      <c r="W163" s="39"/>
+      <c r="X163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y163" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z163" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="AA163" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB163" s="39"/>
+      <c r="AC163" s="39"/>
+      <c r="AD163" s="39"/>
+      <c r="AE163" s="39"/>
+      <c r="AF163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG163" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH163" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AI163" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ163" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK163" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL163" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="AM163" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN163" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO163" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP163" s="38">
+        <v>1.0</v>
+      </c>
+      <c r="AQ163" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR163" s="39"/>
+      <c r="AS163" s="39"/>
+      <c r="AT163" s="39"/>
+      <c r="AU163" s="39"/>
+      <c r="AV163" s="40">
+        <v>8.78</v>
+      </c>
+      <c r="AW163" s="40">
+        <v>9.29</v>
+      </c>
     </row>
     <row r="164" ht="18.0" customHeight="1">
       <c r="A164" s="21"/>
